--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553DF7E4-EF5E-4048-9CE8-A2FB5E1964F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7BA75-5CC4-499D-A9CE-7A0EDEBA8444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="135">
   <si>
     <t>Recipe</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>OMURICEMETTOFU</t>
+  </si>
+  <si>
+    <t>Aardbei</t>
   </si>
 </sst>
 </file>
@@ -794,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1612,22 +1615,22 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>9</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36">
         <v>2.25</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" t="s">
         <v>118</v>
       </c>
       <c r="G36" s="2">
@@ -1635,22 +1638,22 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>9</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37">
         <v>31.5</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
       <c r="G37" s="2">
@@ -1658,22 +1661,22 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>9</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38">
         <v>450</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" t="s">
         <v>70</v>
       </c>
       <c r="G38" s="2">
@@ -1681,22 +1684,22 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>9</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39">
         <v>900</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
       <c r="G39" s="2">
@@ -1704,22 +1707,22 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>9</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40">
         <v>9</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" t="s">
         <v>120</v>
       </c>
       <c r="G40" s="2">
@@ -1727,22 +1730,22 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>9</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41">
         <v>2.25</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" t="s">
         <v>118</v>
       </c>
       <c r="G41" s="2">
@@ -1750,22 +1753,22 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>9</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42">
         <v>2.25</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" t="s">
         <v>118</v>
       </c>
       <c r="G42" s="2">
@@ -1773,22 +1776,22 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>9</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43">
         <v>90</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" t="s">
         <v>70</v>
       </c>
       <c r="G43" s="2">
@@ -1796,22 +1799,22 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="4" t="s">
+      <c r="A44" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>9</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44">
         <v>2.25</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" t="s">
         <v>118</v>
       </c>
       <c r="G44" s="2">
@@ -1819,22 +1822,22 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>9</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45">
         <v>9</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="2">
@@ -1842,22 +1845,22 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>3</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46">
         <v>0.75</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" t="s">
         <v>118</v>
       </c>
       <c r="G46" s="2">
@@ -1865,22 +1868,22 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47">
         <v>10.5</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" t="s">
         <v>70</v>
       </c>
       <c r="G47" s="2">
@@ -1888,22 +1891,22 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>3</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48">
         <v>150</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" t="s">
         <v>70</v>
       </c>
       <c r="G48" s="2">
@@ -1911,22 +1914,22 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>3</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49">
         <v>300</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" t="s">
         <v>70</v>
       </c>
       <c r="G49" s="2">
@@ -1934,22 +1937,22 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50">
         <v>3</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" t="s">
         <v>120</v>
       </c>
       <c r="G50" s="2">
@@ -1957,22 +1960,22 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>3</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51">
         <v>0.75</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" t="s">
         <v>118</v>
       </c>
       <c r="G51" s="2">
@@ -1980,22 +1983,22 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52">
         <v>0.75</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" t="s">
         <v>118</v>
       </c>
       <c r="G52" s="2">
@@ -2003,22 +2006,22 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53">
         <v>30</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" t="s">
         <v>70</v>
       </c>
       <c r="G53" s="2">
@@ -2026,22 +2029,22 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>3</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54">
         <v>0.75</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" t="s">
         <v>118</v>
       </c>
       <c r="G54" s="2">
@@ -2049,22 +2052,22 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>6</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="2">
@@ -2072,22 +2075,22 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="4" t="s">
+      <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>6</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56">
         <v>234</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2">
@@ -2095,22 +2098,22 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>6</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57">
         <v>150</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2">
@@ -2118,22 +2121,22 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>6</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>64</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58">
         <v>90</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2">
@@ -2141,22 +2144,22 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>6</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59">
         <v>4.8000000000000007</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" t="s">
         <v>15</v>
       </c>
       <c r="G59" s="2">
@@ -2164,22 +2167,22 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="4" t="s">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>6</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60">
         <v>150</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2">
@@ -2187,22 +2190,22 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="4" t="s">
+      <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>6</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61">
         <v>90</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2">
@@ -2210,22 +2213,22 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>6</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62">
         <v>300</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2">
@@ -2233,22 +2236,22 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="4" t="s">
+      <c r="A63" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>4</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63">
         <v>4</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="2">
@@ -2256,22 +2259,22 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="4" t="s">
+      <c r="A64" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>4</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64">
         <v>32</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2">
@@ -2279,22 +2282,22 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="4" t="s">
+      <c r="A65" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>4</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>94</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65">
         <v>2</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="2">
@@ -2302,22 +2305,22 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="4" t="s">
+      <c r="A66" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>4</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s">
         <v>106</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66">
         <v>8</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2">
@@ -2325,22 +2328,22 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="4" t="s">
+      <c r="A67" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>4</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67">
         <v>8</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2">
@@ -2348,22 +2351,22 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="4" t="s">
+      <c r="A68" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>4</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" t="s">
         <v>129</v>
       </c>
-      <c r="E68" s="4">
-        <v>80</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="E68">
+        <v>80</v>
+      </c>
+      <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2">
@@ -2371,22 +2374,22 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="4" t="s">
+      <c r="A69" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>4</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" t="s">
         <v>130</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69">
         <v>1.32</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="2">
@@ -2394,22 +2397,22 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="4" t="s">
+      <c r="A70" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>4</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70">
         <v>500</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2">
@@ -2417,22 +2420,22 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="4" t="s">
+      <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>4</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71">
         <v>1000</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2">
@@ -2440,22 +2443,22 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="4" t="s">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>4</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72">
         <v>400</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2">
@@ -2463,22 +2466,22 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="4" t="s">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>4</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73">
         <v>400</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2">
@@ -2486,22 +2489,22 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="4" t="s">
+      <c r="A74" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>4</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74">
         <v>200</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2">
@@ -2509,22 +2512,22 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="4" t="s">
+      <c r="A75" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>4</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75">
         <v>16</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="2">
@@ -2532,22 +2535,22 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="4" t="s">
+      <c r="A76" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>4</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76">
         <v>8</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2">
@@ -2555,22 +2558,22 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="4" t="s">
+      <c r="A77" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>6</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77">
         <v>360</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2">
@@ -2578,22 +2581,22 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="4" t="s">
+      <c r="A78" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>6</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" t="s">
         <v>35</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" t="s">
         <v>36</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78">
         <v>384</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2">
@@ -2601,22 +2604,22 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="4" t="s">
+      <c r="A79" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>6</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" t="s">
         <v>38</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79">
         <v>1.5</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="2">
@@ -2624,22 +2627,22 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="4" t="s">
+      <c r="A80" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>6</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" t="s">
         <v>39</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80">
         <v>1.02</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="2">
@@ -2647,22 +2650,22 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="4" t="s">
+      <c r="A81" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81">
         <v>6</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81">
         <v>1.5</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="2">
@@ -2670,22 +2673,22 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="4" t="s">
+      <c r="A82" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>6</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82">
         <v>3</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="2">
@@ -2693,22 +2696,22 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="4" t="s">
+      <c r="A83" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83">
         <v>6</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83">
         <v>300</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2">
@@ -2716,22 +2719,22 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="4" t="s">
+      <c r="A84" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84">
         <v>6</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" t="s">
         <v>45</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84">
         <v>60</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2">
@@ -2739,22 +2742,22 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="4" t="s">
+      <c r="A85" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85">
         <v>6</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" t="s">
         <v>47</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" t="s">
         <v>48</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85">
         <v>75</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2">
@@ -2762,22 +2765,22 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="4" t="s">
+      <c r="A86" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>6</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" t="s">
         <v>20</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" t="s">
         <v>21</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86">
         <v>75</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2">
@@ -2785,22 +2788,22 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="4" t="s">
+      <c r="A87" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87">
         <v>6</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" t="s">
         <v>23</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87">
         <v>60</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2">
@@ -2808,22 +2811,22 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="4" t="s">
+      <c r="A88" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88">
         <v>6</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" t="s">
         <v>49</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88">
         <v>180</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2">
@@ -2831,22 +2834,22 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="4" t="s">
+      <c r="A89" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89">
         <v>6</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" t="s">
         <v>52</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89">
         <v>18</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2">
@@ -2854,22 +2857,22 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="4" t="s">
+      <c r="A90" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90">
         <v>6</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" t="s">
         <v>54</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90">
         <v>12</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="2">
@@ -2877,22 +2880,22 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="4" t="s">
+      <c r="A91" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91">
         <v>6</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" t="s">
         <v>55</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" t="s">
         <v>56</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91">
         <v>180</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2">
@@ -2900,22 +2903,22 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="4" t="s">
+      <c r="A92" t="s">
         <v>132</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92">
         <v>3</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" t="s">
         <v>35</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" t="s">
         <v>36</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92">
         <v>192</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2">
@@ -2923,22 +2926,22 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="4" t="s">
+      <c r="A93" t="s">
         <v>132</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" t="s">
         <v>37</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" t="s">
         <v>38</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93">
         <v>0.75</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" t="s">
         <v>15</v>
       </c>
       <c r="G93" s="2">
@@ -2946,22 +2949,22 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="4" t="s">
+      <c r="A94" t="s">
         <v>132</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94">
         <v>3</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" t="s">
         <v>39</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94">
         <v>0.51</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="2">
@@ -2969,22 +2972,22 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="4" t="s">
+      <c r="A95" t="s">
         <v>132</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95">
         <v>3</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" t="s">
         <v>25</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95">
         <v>0.75</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="2">
@@ -2992,22 +2995,22 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="4" t="s">
+      <c r="A96" t="s">
         <v>132</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96">
         <v>3</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" t="s">
         <v>41</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" t="s">
         <v>42</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96">
         <v>1.5</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="2">
@@ -3015,22 +3018,22 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="4" t="s">
+      <c r="A97" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97">
         <v>3</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" t="s">
         <v>43</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" t="s">
         <v>44</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97">
         <v>150</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2">
@@ -3038,22 +3041,22 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="4" t="s">
+      <c r="A98" t="s">
         <v>132</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98">
         <v>3</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" t="s">
         <v>45</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" t="s">
         <v>46</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98">
         <v>30</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2">
@@ -3061,22 +3064,22 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="4" t="s">
+      <c r="A99" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99">
         <v>3</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" t="s">
         <v>48</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99">
         <v>37.5</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2">
@@ -3084,22 +3087,22 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="4" t="s">
+      <c r="A100" t="s">
         <v>132</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100">
         <v>3</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" t="s">
         <v>21</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100">
         <v>37.5</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2">
@@ -3107,22 +3110,22 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="4" t="s">
+      <c r="A101" t="s">
         <v>132</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101">
         <v>3</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101">
         <v>30</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2">
@@ -3130,22 +3133,22 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="4" t="s">
+      <c r="A102" t="s">
         <v>132</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102">
         <v>3</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" t="s">
         <v>49</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" t="s">
         <v>50</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102">
         <v>90</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2">
@@ -3153,22 +3156,22 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="4" t="s">
+      <c r="A103" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103">
         <v>3</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" t="s">
         <v>52</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103">
         <v>9</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2">
@@ -3176,22 +3179,22 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="4" t="s">
+      <c r="A104" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104">
         <v>3</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" t="s">
         <v>35</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" t="s">
         <v>36</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104">
         <v>192</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2">
@@ -3199,22 +3202,22 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="4" t="s">
+      <c r="A105" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105">
         <v>3</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" t="s">
         <v>37</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105">
         <v>0.75</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" t="s">
         <v>15</v>
       </c>
       <c r="G105" s="2">
@@ -3222,22 +3225,22 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="4" t="s">
+      <c r="A106" t="s">
         <v>133</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106">
         <v>3</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" t="s">
         <v>39</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" t="s">
         <v>40</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106">
         <v>0.51</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" t="s">
         <v>15</v>
       </c>
       <c r="G106" s="2">
@@ -3245,22 +3248,22 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="4" t="s">
+      <c r="A107" t="s">
         <v>133</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107">
         <v>3</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" t="s">
         <v>24</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107">
         <v>0.75</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" t="s">
         <v>15</v>
       </c>
       <c r="G107" s="2">
@@ -3268,22 +3271,22 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="4" t="s">
+      <c r="A108" t="s">
         <v>133</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108">
         <v>3</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" t="s">
         <v>41</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" t="s">
         <v>42</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108">
         <v>1.5</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" t="s">
         <v>15</v>
       </c>
       <c r="G108" s="2">
@@ -3291,22 +3294,22 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="4" t="s">
+      <c r="A109" t="s">
         <v>133</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109">
         <v>3</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" t="s">
         <v>44</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109">
         <v>150</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2">
@@ -3314,22 +3317,22 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="4" t="s">
+      <c r="A110" t="s">
         <v>133</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110">
         <v>3</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" t="s">
         <v>45</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" t="s">
         <v>46</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110">
         <v>30</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2">
@@ -3337,22 +3340,22 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="4" t="s">
+      <c r="A111" t="s">
         <v>133</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111">
         <v>3</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" t="s">
         <v>47</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" t="s">
         <v>48</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111">
         <v>37.5</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2">
@@ -3360,22 +3363,22 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="4" t="s">
+      <c r="A112" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112">
         <v>3</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112">
         <v>37.5</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2">
@@ -3383,22 +3386,22 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="4" t="s">
+      <c r="A113" t="s">
         <v>133</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113">
         <v>3</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" t="s">
         <v>23</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113">
         <v>30</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2">
@@ -3406,22 +3409,22 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="4" t="s">
+      <c r="A114" t="s">
         <v>133</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114">
         <v>3</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" t="s">
         <v>49</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" t="s">
         <v>50</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114">
         <v>90</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2">
@@ -3429,22 +3432,22 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="4" t="s">
+      <c r="A115" t="s">
         <v>133</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115">
         <v>3</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" t="s">
         <v>51</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" t="s">
         <v>52</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115">
         <v>9</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2">
@@ -3452,26 +3455,555 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="4" t="s">
+      <c r="A116" t="s">
         <v>133</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116">
         <v>3</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" t="s">
         <v>8</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116">
         <v>300</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2">
         <v>45783</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="4">
+        <v>7</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1225</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="4">
+        <v>7</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="4">
+        <v>7</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="4">
+        <v>7</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="4">
+        <v>7</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="4">
+        <v>420</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="4">
+        <v>7</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="4">
+        <v>7</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="4">
+        <v>7</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="4">
+        <v>161</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="4">
+        <v>7</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="4">
+        <v>154</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="4">
+        <v>4</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" s="4">
+        <v>4</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4">
+        <v>4</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E125" s="4">
+        <v>32</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="4">
+        <v>4</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E126" s="4">
+        <v>2</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" s="4">
+        <v>4</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E127" s="4">
+        <v>8</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128" s="4">
+        <v>4</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E128" s="4">
+        <v>8</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B129" s="4">
+        <v>4</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E129" s="4">
+        <v>80</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B130" s="4">
+        <v>4</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E130" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131" s="4">
+        <v>4</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E131" s="4">
+        <v>500</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B132" s="4">
+        <v>6</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E132" s="4">
+        <v>1</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" s="4">
+        <v>6</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E133" s="4">
+        <v>234</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" s="4">
+        <v>6</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E134" s="4">
+        <v>150</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" s="4">
+        <v>6</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E135" s="4">
+        <v>90</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B136" s="4">
+        <v>6</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E136" s="4">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137" s="4">
+        <v>6</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="4">
+        <v>150</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B138" s="4">
+        <v>6</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E138" s="4">
+        <v>90</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B139" s="4">
+        <v>6</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="4">
+        <v>300</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2">
+        <v>45776</v>
       </c>
     </row>
   </sheetData>
@@ -3481,10 +4013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4053,13 +4585,13 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>103</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2">
@@ -4067,13 +4599,13 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="s">
+      <c r="A42" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>20</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="2">
@@ -4081,13 +4613,13 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>2.04</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2">
@@ -4095,13 +4627,13 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3" t="s">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>3</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2">
@@ -4109,13 +4641,13 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>8</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="2">
@@ -4123,13 +4655,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="s">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>4</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2">
@@ -4137,13 +4669,13 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="3" t="s">
+      <c r="A47" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2">
@@ -4151,13 +4683,13 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>200</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="2">
@@ -4165,13 +4697,13 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3" t="s">
+      <c r="A49" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>918</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="2">
@@ -4179,13 +4711,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3" t="s">
+      <c r="A50" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2">
@@ -4193,13 +4725,13 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
+      <c r="A51" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>500</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="2">
@@ -4207,13 +4739,13 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
+      <c r="A52" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2">
@@ -4221,13 +4753,13 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
+      <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>600</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="2">
@@ -4235,13 +4767,13 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
+      <c r="A54" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>2</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2">
@@ -4249,13 +4781,13 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>68.8</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2">
@@ -4263,13 +4795,13 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3" t="s">
+      <c r="A56" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>400</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="2">
@@ -4277,13 +4809,13 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
+      <c r="A57" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>1.32</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2">
@@ -4291,13 +4823,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
+      <c r="A58" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>8</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="2">
@@ -4305,13 +4837,13 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
+      <c r="A59" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>1000</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="2">
@@ -4319,13 +4851,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3" t="s">
+      <c r="A60" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>150</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="2">
@@ -4333,13 +4865,13 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3" t="s">
+      <c r="A61" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>16</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2">
@@ -4347,13 +4879,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3" t="s">
+      <c r="A62" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>42</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="2">
@@ -4361,13 +4893,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3" t="s">
+      <c r="A63" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="3">
-        <v>10</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2">
@@ -4375,13 +4907,13 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3" t="s">
+      <c r="A64" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>120</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="2">
@@ -4389,13 +4921,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="3" t="s">
+      <c r="A65" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>3</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2">
@@ -4403,13 +4935,13 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="3" t="s">
+      <c r="A66" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>180</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="2">
@@ -4417,13 +4949,13 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="3" t="s">
+      <c r="A67" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>2</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2">
@@ -4431,13 +4963,13 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="3" t="s">
+      <c r="A68" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>120</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="2">
@@ -4445,13 +4977,13 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="3" t="s">
+      <c r="A69" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>90</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="2">
@@ -4459,13 +4991,13 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="3" t="s">
+      <c r="A70" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>90</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="2">
@@ -4473,13 +5005,13 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="3" t="s">
+      <c r="A71" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71">
         <v>234</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="2">
@@ -4487,13 +5019,13 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="3" t="s">
+      <c r="A72" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="3">
-        <v>80</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="2">
@@ -4501,13 +5033,13 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="3" t="s">
+      <c r="A73" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>360</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="2">
@@ -4515,13 +5047,13 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="3" t="s">
+      <c r="A74" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>360</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="2">
@@ -4529,13 +5061,13 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="3" t="s">
+      <c r="A75" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>3</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2">
@@ -4543,13 +5075,13 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="3" t="s">
+      <c r="A76" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>120</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="2">
@@ -4557,13 +5089,13 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="3" t="s">
+      <c r="A77" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>6</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2">
@@ -4571,13 +5103,13 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="3" t="s">
+      <c r="A78" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>400</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="2">
@@ -4585,13 +5117,13 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="3" t="s">
+      <c r="A79" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79">
         <v>1500</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="2">
@@ -4599,13 +5131,13 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="3" t="s">
+      <c r="A80" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80">
         <v>4</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2">
@@ -4613,13 +5145,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="3" t="s">
+      <c r="A81" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81">
         <v>2</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2">
@@ -4627,13 +5159,13 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="3" t="s">
+      <c r="A82" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82">
         <v>150</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="2">
@@ -4641,13 +5173,13 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="3" t="s">
+      <c r="A83" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83">
         <v>600</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="2">
@@ -4655,13 +5187,13 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="3" t="s">
+      <c r="A84" t="s">
         <v>51</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84">
         <v>36</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="2">
@@ -4669,13 +5201,13 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="3" t="s">
+      <c r="A85" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85">
         <v>300</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="2">
@@ -4683,13 +5215,13 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="3" t="s">
+      <c r="A86" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86">
         <v>12</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2">
@@ -4697,13 +5229,13 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>113</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>32</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="2">
@@ -4711,13 +5243,13 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="3" t="s">
+      <c r="A88" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88">
         <v>150</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88" s="2">
@@ -4725,13 +5257,13 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="3" t="s">
+      <c r="A89" t="s">
         <v>41</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89">
         <v>6</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2">
@@ -4739,13 +5271,13 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="3" t="s">
+      <c r="A90" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90">
         <v>9</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2">
@@ -4753,17 +5285,437 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="3" t="s">
+      <c r="A91" t="s">
         <v>115</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91">
         <v>8</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="2">
         <v>45783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="3">
+        <v>18</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="3">
+        <v>8</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>3</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1400</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="3">
+        <v>150</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100" s="3">
+        <v>500</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1050</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="3">
+        <v>54.8</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="3">
+        <v>7</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="3">
+        <v>7</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="3">
+        <v>154</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="3">
+        <v>90</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="3">
+        <v>90</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B111" s="3">
+        <v>234</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="3">
+        <v>80</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="3">
+        <v>420</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B114" s="3">
+        <v>300</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="3">
+        <v>161</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1225</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B118" s="3">
+        <v>32</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="3">
+        <v>150</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B121" s="3">
+        <v>8</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45776</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7BA75-5CC4-499D-A9CE-7A0EDEBA8444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8ABF67-0920-40C3-8C1D-2B1C86F3937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="133">
   <si>
     <t>Recipe</t>
   </si>
@@ -320,16 +320,10 @@
     <t>Yoghurt Esh</t>
   </si>
   <si>
-    <t>Bananen</t>
-  </si>
-  <si>
     <t>Azijn</t>
   </si>
   <si>
     <t>Soya Melk</t>
-  </si>
-  <si>
-    <t>Appels</t>
   </si>
   <si>
     <t>Ananas</t>
@@ -487,14 +481,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -799,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
@@ -1616,22 +1608,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E36">
         <v>2.25</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G36" s="2">
         <v>45783</v>
@@ -1639,7 +1631,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -1662,16 +1654,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E38">
         <v>450</v>
@@ -1685,7 +1677,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39">
         <v>9</v>
@@ -1708,7 +1700,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -1723,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G40" s="2">
         <v>45783</v>
@@ -1731,7 +1723,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -1746,7 +1738,7 @@
         <v>2.25</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G41" s="2">
         <v>45783</v>
@@ -1754,7 +1746,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B42">
         <v>9</v>
@@ -1769,7 +1761,7 @@
         <v>2.25</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G42" s="2">
         <v>45783</v>
@@ -1777,16 +1769,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B43">
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43">
         <v>90</v>
@@ -1800,7 +1792,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -1815,7 +1807,7 @@
         <v>2.25</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G44" s="2">
         <v>45783</v>
@@ -1823,16 +1815,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B45">
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E45">
         <v>9</v>
@@ -1846,22 +1838,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E46">
         <v>0.75</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G46" s="2">
         <v>45783</v>
@@ -1869,7 +1861,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -1892,16 +1884,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>150</v>
@@ -1915,7 +1907,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -1938,7 +1930,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -1953,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G50" s="2">
         <v>45783</v>
@@ -1961,7 +1953,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -1976,7 +1968,7 @@
         <v>0.75</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G51" s="2">
         <v>45783</v>
@@ -1984,7 +1976,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -1999,7 +1991,7 @@
         <v>0.75</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G52" s="2">
         <v>45783</v>
@@ -2007,16 +1999,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E53">
         <v>30</v>
@@ -2030,7 +2022,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -2045,7 +2037,7 @@
         <v>0.75</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G54" s="2">
         <v>45783</v>
@@ -2237,7 +2229,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63">
         <v>4</v>
@@ -2260,16 +2252,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E64">
         <v>32</v>
@@ -2283,7 +2275,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B65">
         <v>4</v>
@@ -2292,7 +2284,7 @@
         <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -2306,16 +2298,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E66">
         <v>8</v>
@@ -2329,16 +2321,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E67">
         <v>8</v>
@@ -2352,16 +2344,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E68">
         <v>80</v>
@@ -2375,16 +2367,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E69">
         <v>1.32</v>
@@ -2398,7 +2390,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -2407,7 +2399,7 @@
         <v>95</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E70">
         <v>500</v>
@@ -2904,7 +2896,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -2927,7 +2919,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -2950,7 +2942,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2973,7 +2965,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -2996,7 +2988,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -3019,7 +3011,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -3042,7 +3034,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -3065,7 +3057,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -3088,7 +3080,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -3111,7 +3103,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -3134,7 +3126,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -3157,7 +3149,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -3180,7 +3172,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -3203,7 +3195,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -3226,7 +3218,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -3249,7 +3241,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B107">
         <v>3</v>
@@ -3272,7 +3264,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -3295,7 +3287,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -3318,7 +3310,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -3341,7 +3333,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -3364,7 +3356,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -3387,7 +3379,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -3410,7 +3402,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -3433,7 +3425,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -3456,7 +3448,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -3478,22 +3470,22 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="4" t="s">
+      <c r="A117" t="s">
         <v>7</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117">
         <v>7</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117">
         <v>1225</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2">
@@ -3501,22 +3493,22 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="4" t="s">
+      <c r="A118" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118">
         <v>7</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" t="s">
         <v>12</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118">
         <v>1400</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2">
@@ -3524,22 +3516,22 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="4" t="s">
+      <c r="A119" t="s">
         <v>7</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119">
         <v>7</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" t="s">
         <v>13</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" t="s">
         <v>14</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119">
         <v>7</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" t="s">
         <v>15</v>
       </c>
       <c r="G119" s="2">
@@ -3547,22 +3539,22 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="4" t="s">
+      <c r="A120" t="s">
         <v>7</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120">
         <v>7</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" t="s">
         <v>16</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" t="s">
         <v>17</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120">
         <v>420</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2">
@@ -3570,22 +3562,22 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="4" t="s">
+      <c r="A121" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121">
         <v>7</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" t="s">
         <v>19</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121">
         <v>7</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" t="s">
         <v>15</v>
       </c>
       <c r="G121" s="2">
@@ -3593,22 +3585,22 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="4" t="s">
+      <c r="A122" t="s">
         <v>7</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122">
         <v>7</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" t="s">
         <v>21</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122">
         <v>161</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2">
@@ -3616,22 +3608,22 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="4" t="s">
+      <c r="A123" t="s">
         <v>7</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123">
         <v>7</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" t="s">
         <v>22</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" t="s">
         <v>23</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123">
         <v>154</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2">
@@ -3639,22 +3631,22 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" s="4">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124">
         <v>4</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" t="s">
         <v>53</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" t="s">
         <v>54</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124">
         <v>4</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="2">
@@ -3662,22 +3654,22 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" s="4">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125">
         <v>4</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E125" s="4">
+      <c r="C125" t="s">
+        <v>111</v>
+      </c>
+      <c r="D125" t="s">
+        <v>123</v>
+      </c>
+      <c r="E125">
         <v>32</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2">
@@ -3685,22 +3677,22 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="4" t="s">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="4">
-        <v>4</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E126" s="4">
+      <c r="E126">
         <v>2</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" t="s">
         <v>15</v>
       </c>
       <c r="G126" s="2">
@@ -3708,22 +3700,22 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B127" s="4">
+      <c r="A127" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127">
         <v>4</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E127" s="4">
+      <c r="C127" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" t="s">
+        <v>125</v>
+      </c>
+      <c r="E127">
         <v>8</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2">
@@ -3731,22 +3723,22 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B128" s="4">
+      <c r="A128" t="s">
+        <v>122</v>
+      </c>
+      <c r="B128">
         <v>4</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E128" s="4">
+      <c r="C128" t="s">
+        <v>113</v>
+      </c>
+      <c r="D128" t="s">
+        <v>126</v>
+      </c>
+      <c r="E128">
         <v>8</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2">
@@ -3754,22 +3746,22 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B129" s="4">
+      <c r="A129" t="s">
+        <v>122</v>
+      </c>
+      <c r="B129">
         <v>4</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E129" s="4">
-        <v>80</v>
-      </c>
-      <c r="F129" s="4" t="s">
+      <c r="C129" t="s">
+        <v>107</v>
+      </c>
+      <c r="D129" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129">
+        <v>80</v>
+      </c>
+      <c r="F129" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2">
@@ -3777,22 +3769,22 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B130" s="4">
+      <c r="A130" t="s">
+        <v>122</v>
+      </c>
+      <c r="B130">
         <v>4</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E130" s="4">
+      <c r="C130" t="s">
+        <v>105</v>
+      </c>
+      <c r="D130" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130">
         <v>1.32</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" t="s">
         <v>15</v>
       </c>
       <c r="G130" s="2">
@@ -3800,22 +3792,22 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B131" s="4">
+      <c r="A131" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131">
         <v>4</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" t="s">
         <v>95</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E131" s="4">
+      <c r="D131" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131">
         <v>500</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2">
@@ -3823,22 +3815,22 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="4" t="s">
+      <c r="A132" t="s">
         <v>57</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132">
         <v>6</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="D132" t="s">
         <v>59</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132">
         <v>1</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" t="s">
         <v>15</v>
       </c>
       <c r="G132" s="2">
@@ -3846,22 +3838,22 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A133" s="4" t="s">
+      <c r="A133" t="s">
         <v>57</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133">
         <v>6</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" t="s">
         <v>60</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="D133" t="s">
         <v>61</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133">
         <v>234</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2">
@@ -3869,22 +3861,22 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A134" s="4" t="s">
+      <c r="A134" t="s">
         <v>57</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134">
         <v>6</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" t="s">
         <v>62</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" t="s">
         <v>63</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134">
         <v>150</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2">
@@ -3892,22 +3884,22 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="4" t="s">
+      <c r="A135" t="s">
         <v>57</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135">
         <v>6</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" t="s">
         <v>64</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D135" t="s">
         <v>65</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135">
         <v>90</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2">
@@ -3915,22 +3907,22 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="4" t="s">
+      <c r="A136" t="s">
         <v>57</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136">
         <v>6</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" t="s">
         <v>53</v>
       </c>
-      <c r="D136" s="4" t="s">
+      <c r="D136" t="s">
         <v>54</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136">
         <v>4.8000000000000007</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" t="s">
         <v>15</v>
       </c>
       <c r="G136" s="2">
@@ -3938,22 +3930,22 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="4" t="s">
+      <c r="A137" t="s">
         <v>57</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137">
         <v>6</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" t="s">
         <v>35</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" t="s">
         <v>36</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137">
         <v>150</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2">
@@ -3961,22 +3953,22 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A138" s="4" t="s">
+      <c r="A138" t="s">
         <v>57</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138">
         <v>6</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" t="s">
         <v>66</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" t="s">
         <v>67</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138">
         <v>90</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2">
@@ -3984,22 +3976,22 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A139" s="4" t="s">
+      <c r="A139" t="s">
         <v>57</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139">
         <v>6</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" t="s">
         <v>68</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" t="s">
         <v>69</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139">
         <v>300</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2">
@@ -4015,12 +4007,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="14.68359375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4432,7 +4425,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -4446,7 +4439,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4516,7 +4509,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -4572,7 +4565,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4586,7 +4579,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4600,7 +4593,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B42">
         <v>20</v>
@@ -4628,7 +4621,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -4642,7 +4635,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -4810,7 +4803,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B57">
         <v>1.32</v>
@@ -4894,7 +4887,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -5020,7 +5013,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B72">
         <v>80</v>
@@ -5076,7 +5069,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B76">
         <v>120</v>
@@ -5146,7 +5139,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -5174,7 +5167,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B83">
         <v>600</v>
@@ -5230,7 +5223,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B87">
         <v>32</v>
@@ -5272,7 +5265,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -5286,7 +5279,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -5299,13 +5292,13 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B92" s="3">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2">
@@ -5313,13 +5306,13 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B93" s="3">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2">
@@ -5327,13 +5320,13 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94" s="3">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94">
         <v>18</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2">
@@ -5341,13 +5334,13 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B95" s="3">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95">
         <v>8</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="2">
@@ -5355,13 +5348,13 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="3" t="s">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96">
         <v>3</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2">
@@ -5369,13 +5362,13 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="3" t="s">
+      <c r="A97" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2">
@@ -5383,13 +5376,13 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="3" t="s">
+      <c r="A98" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98">
         <v>1400</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="2">
@@ -5397,13 +5390,13 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="3" t="s">
+      <c r="A99" t="s">
         <v>35</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99">
         <v>150</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="2">
@@ -5411,13 +5404,13 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="3" t="s">
+      <c r="A100" t="s">
         <v>95</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100">
         <v>500</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="2">
@@ -5425,13 +5418,13 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="3" t="s">
+      <c r="A101" t="s">
         <v>95</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101">
         <v>2</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2">
@@ -5439,13 +5432,13 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="3" t="s">
+      <c r="A102" t="s">
         <v>43</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102">
         <v>1050</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="2">
@@ -5453,13 +5446,13 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="3" t="s">
+      <c r="A103" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>54.8</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2">
@@ -5467,13 +5460,13 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
         <v>1.32</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2">
@@ -5481,13 +5474,13 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="3" t="s">
+      <c r="A105" t="s">
         <v>18</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105">
         <v>7</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2">
@@ -5495,13 +5488,13 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106">
         <v>7</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2">
@@ -5509,13 +5502,13 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="3" t="s">
+      <c r="A107" t="s">
         <v>55</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2">
@@ -5523,13 +5516,13 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="3" t="s">
+      <c r="A108" t="s">
         <v>22</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108">
         <v>154</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="2">
@@ -5537,13 +5530,13 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="3" t="s">
+      <c r="A109" t="s">
         <v>66</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109">
         <v>90</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" t="s">
         <v>10</v>
       </c>
       <c r="D109" s="2">
@@ -5551,13 +5544,13 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="3" t="s">
+      <c r="A110" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110">
         <v>90</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="2">
@@ -5565,13 +5558,13 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="3" t="s">
+      <c r="A111" t="s">
         <v>60</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111">
         <v>234</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="2">
@@ -5579,13 +5572,13 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" s="3">
-        <v>80</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="A112" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112">
+        <v>80</v>
+      </c>
+      <c r="C112" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="2">
@@ -5593,13 +5586,13 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="3" t="s">
+      <c r="A113" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113">
         <v>420</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="2">
@@ -5607,13 +5600,13 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="3" t="s">
+      <c r="A114" t="s">
         <v>68</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114">
         <v>300</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="2">
@@ -5621,13 +5614,13 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="3" t="s">
+      <c r="A115" t="s">
         <v>96</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115">
         <v>1</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2">
@@ -5635,13 +5628,13 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A116" s="3" t="s">
+      <c r="A116" t="s">
         <v>20</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116">
         <v>161</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" t="s">
         <v>10</v>
       </c>
       <c r="D116" s="2">
@@ -5649,13 +5642,13 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="3" t="s">
+      <c r="A117" t="s">
         <v>8</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117">
         <v>1225</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="2">
@@ -5663,13 +5656,13 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B118" s="3">
+      <c r="A118" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118">
         <v>32</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" t="s">
         <v>10</v>
       </c>
       <c r="D118" s="2">
@@ -5677,13 +5670,13 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="3" t="s">
+      <c r="A119" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119">
         <v>1</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2">
@@ -5691,13 +5684,13 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="3" t="s">
+      <c r="A120" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120">
         <v>150</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" t="s">
         <v>10</v>
       </c>
       <c r="D120" s="2">
@@ -5705,13 +5698,13 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B121" s="3">
+      <c r="A121" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121">
         <v>8</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" t="s">
         <v>10</v>
       </c>
       <c r="D121" s="2">

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8ABF67-0920-40C3-8C1D-2B1C86F3937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA94605-7672-41D0-8B52-066981D9B841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="162" windowWidth="12498" windowHeight="11802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="140">
   <si>
     <t>Recipe</t>
   </si>
@@ -420,6 +420,27 @@
   </si>
   <si>
     <t>Aardbei</t>
+  </si>
+  <si>
+    <t>Baguette</t>
+  </si>
+  <si>
+    <t>Mosterd</t>
+  </si>
+  <si>
+    <t>Super Gehakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAGUETTE    </t>
+  </si>
+  <si>
+    <t>BAGUETTE</t>
+  </si>
+  <si>
+    <t>MOSTERD</t>
+  </si>
+  <si>
+    <t>SUPERGEHAKT</t>
   </si>
 </sst>
 </file>
@@ -789,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3998,6 +4019,857 @@
         <v>45776</v>
       </c>
     </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>82</v>
+      </c>
+      <c r="D140" t="s">
+        <v>83</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="s">
+        <v>81</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>84</v>
+      </c>
+      <c r="D141" t="s">
+        <v>85</v>
+      </c>
+      <c r="E141">
+        <v>75</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
+        <v>81</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>64</v>
+      </c>
+      <c r="D142" t="s">
+        <v>65</v>
+      </c>
+      <c r="E142">
+        <v>50</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>82</v>
+      </c>
+      <c r="D143" t="s">
+        <v>83</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>84</v>
+      </c>
+      <c r="D144" t="s">
+        <v>85</v>
+      </c>
+      <c r="E144">
+        <v>75</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
+        <v>86</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>64</v>
+      </c>
+      <c r="D145" t="s">
+        <v>65</v>
+      </c>
+      <c r="E145">
+        <v>50</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>87</v>
+      </c>
+      <c r="D146" t="s">
+        <v>88</v>
+      </c>
+      <c r="E146">
+        <v>25</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" t="s">
+        <v>86</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>37</v>
+      </c>
+      <c r="D148" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148">
+        <v>0.5</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" t="s">
+        <v>89</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>90</v>
+      </c>
+      <c r="D149" t="s">
+        <v>91</v>
+      </c>
+      <c r="E149">
+        <v>600</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>92</v>
+      </c>
+      <c r="D150" t="s">
+        <v>93</v>
+      </c>
+      <c r="E150">
+        <v>960</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
+        <v>89</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>64</v>
+      </c>
+      <c r="D151" t="s">
+        <v>65</v>
+      </c>
+      <c r="E151">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152">
+        <v>270</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>136</v>
+      </c>
+      <c r="B153">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>133</v>
+      </c>
+      <c r="D153" t="s">
+        <v>137</v>
+      </c>
+      <c r="E153">
+        <v>1.5</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
+        <v>136</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" t="s">
+        <v>48</v>
+      </c>
+      <c r="E154">
+        <v>75</v>
+      </c>
+      <c r="F154" t="s">
+        <v>70</v>
+      </c>
+      <c r="G154" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
+        <v>136</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>134</v>
+      </c>
+      <c r="D155" t="s">
+        <v>138</v>
+      </c>
+      <c r="E155">
+        <v>36</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>136</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" t="s">
+        <v>65</v>
+      </c>
+      <c r="E156">
+        <v>150</v>
+      </c>
+      <c r="F156" t="s">
+        <v>70</v>
+      </c>
+      <c r="G156" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
+        <v>136</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>135</v>
+      </c>
+      <c r="D157" t="s">
+        <v>139</v>
+      </c>
+      <c r="E157">
+        <v>225</v>
+      </c>
+      <c r="F157" t="s">
+        <v>70</v>
+      </c>
+      <c r="G157" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>114</v>
+      </c>
+      <c r="B158">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>103</v>
+      </c>
+      <c r="D158" t="s">
+        <v>115</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>116</v>
+      </c>
+      <c r="G158" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>114</v>
+      </c>
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159">
+        <v>28</v>
+      </c>
+      <c r="F159" t="s">
+        <v>70</v>
+      </c>
+      <c r="G159" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
+        <v>114</v>
+      </c>
+      <c r="B160">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>110</v>
+      </c>
+      <c r="D160" t="s">
+        <v>117</v>
+      </c>
+      <c r="E160">
+        <v>400</v>
+      </c>
+      <c r="F160" t="s">
+        <v>70</v>
+      </c>
+      <c r="G160" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>114</v>
+      </c>
+      <c r="B161">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161">
+        <v>800</v>
+      </c>
+      <c r="F161" t="s">
+        <v>70</v>
+      </c>
+      <c r="G161" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="s">
+        <v>114</v>
+      </c>
+      <c r="B162">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162">
+        <v>8</v>
+      </c>
+      <c r="F162" t="s">
+        <v>118</v>
+      </c>
+      <c r="G162" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
+        <v>114</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
+        <v>27</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>116</v>
+      </c>
+      <c r="G163" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
+        <v>114</v>
+      </c>
+      <c r="B164">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>45</v>
+      </c>
+      <c r="D164" t="s">
+        <v>46</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>116</v>
+      </c>
+      <c r="G164" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="s">
+        <v>114</v>
+      </c>
+      <c r="B165">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>108</v>
+      </c>
+      <c r="D165" t="s">
+        <v>119</v>
+      </c>
+      <c r="E165">
+        <v>80</v>
+      </c>
+      <c r="F165" t="s">
+        <v>70</v>
+      </c>
+      <c r="G165" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
+        <v>114</v>
+      </c>
+      <c r="B166">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166" t="s">
+        <v>116</v>
+      </c>
+      <c r="G166" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
+        <v>114</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>112</v>
+      </c>
+      <c r="D167" t="s">
+        <v>120</v>
+      </c>
+      <c r="E167">
+        <v>8</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>121</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>103</v>
+      </c>
+      <c r="D168" t="s">
+        <v>115</v>
+      </c>
+      <c r="E168">
+        <v>0.5</v>
+      </c>
+      <c r="F168" t="s">
+        <v>116</v>
+      </c>
+      <c r="G168" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
+        <v>121</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169" t="s">
+        <v>30</v>
+      </c>
+      <c r="D169" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169">
+        <v>7</v>
+      </c>
+      <c r="F169" t="s">
+        <v>70</v>
+      </c>
+      <c r="G169" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="s">
+        <v>121</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170" t="s">
+        <v>110</v>
+      </c>
+      <c r="D170" t="s">
+        <v>117</v>
+      </c>
+      <c r="E170">
+        <v>100</v>
+      </c>
+      <c r="F170" t="s">
+        <v>70</v>
+      </c>
+      <c r="G170" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" t="s">
+        <v>121</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171">
+        <v>200</v>
+      </c>
+      <c r="F171" t="s">
+        <v>70</v>
+      </c>
+      <c r="G171" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" t="s">
+        <v>121</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>118</v>
+      </c>
+      <c r="G172" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" t="s">
+        <v>121</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173">
+        <v>0.5</v>
+      </c>
+      <c r="F173" t="s">
+        <v>116</v>
+      </c>
+      <c r="G173" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" t="s">
+        <v>121</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174" t="s">
+        <v>45</v>
+      </c>
+      <c r="D174" t="s">
+        <v>46</v>
+      </c>
+      <c r="E174">
+        <v>0.5</v>
+      </c>
+      <c r="F174" t="s">
+        <v>116</v>
+      </c>
+      <c r="G174" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" t="s">
+        <v>121</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" t="s">
+        <v>108</v>
+      </c>
+      <c r="D175" t="s">
+        <v>119</v>
+      </c>
+      <c r="E175">
+        <v>20</v>
+      </c>
+      <c r="F175" t="s">
+        <v>70</v>
+      </c>
+      <c r="G175" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="s">
+        <v>121</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176">
+        <v>0.5</v>
+      </c>
+      <c r="F176" t="s">
+        <v>116</v>
+      </c>
+      <c r="G176" s="2">
+        <v>45803</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4005,10 +4877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5711,6 +6583,440 @@
         <v>45776</v>
       </c>
     </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125">
+        <v>2.5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126">
+        <v>1.5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128">
+        <v>0.5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" t="s">
+        <v>95</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130">
+        <v>1350</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" t="s">
+        <v>47</v>
+      </c>
+      <c r="B132">
+        <v>75</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133">
+        <v>35</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134">
+        <v>2.5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>36</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" t="s">
+        <v>64</v>
+      </c>
+      <c r="B137">
+        <v>550</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" t="s">
+        <v>84</v>
+      </c>
+      <c r="B138">
+        <v>150</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" t="s">
+        <v>82</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140">
+        <v>2.5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B141">
+        <v>100</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142">
+        <v>3.5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" t="s">
+        <v>68</v>
+      </c>
+      <c r="B143">
+        <v>1270</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" t="s">
+        <v>96</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" t="s">
+        <v>109</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" t="s">
+        <v>90</v>
+      </c>
+      <c r="B146">
+        <v>600</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" t="s">
+        <v>92</v>
+      </c>
+      <c r="B147">
+        <v>960</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" t="s">
+        <v>110</v>
+      </c>
+      <c r="B148">
+        <v>500</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149">
+        <v>225</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" t="s">
+        <v>97</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45803</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" t="s">
+        <v>112</v>
+      </c>
+      <c r="B152">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="2">
+        <v>45803</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA94605-7672-41D0-8B52-066981D9B841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC9CF77-8BC5-4323-9268-C6777FD4F920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="162" windowWidth="12498" windowHeight="11802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="140">
   <si>
     <t>Recipe</t>
   </si>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+    <sheetView topLeftCell="A152" workbookViewId="0">
       <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
@@ -4877,10 +4877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7017,6 +7017,20 @@
         <v>45803</v>
       </c>
     </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" t="s">
+        <v>106</v>
+      </c>
+      <c r="B153">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="2">
+        <v>45803</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC9CF77-8BC5-4323-9268-C6777FD4F920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD2461-6270-42C4-A20A-55CE7FA0FA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11190" yWindow="504" windowWidth="12498" windowHeight="11802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="143">
   <si>
     <t>Recipe</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>SUPERGEHAKT</t>
+  </si>
+  <si>
+    <t>Pindakaas</t>
+  </si>
+  <si>
+    <t>Granaatappel</t>
+  </si>
+  <si>
+    <t>Peer</t>
   </si>
 </sst>
 </file>
@@ -810,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="G173" sqref="G173"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4870,6 +4879,558 @@
         <v>45803</v>
       </c>
     </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177">
+        <v>1925</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178">
+        <v>2200</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179">
+        <v>11</v>
+      </c>
+      <c r="F179" t="s">
+        <v>15</v>
+      </c>
+      <c r="G179" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180">
+        <v>660</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" t="s">
+        <v>19</v>
+      </c>
+      <c r="E181">
+        <v>11</v>
+      </c>
+      <c r="F181" t="s">
+        <v>15</v>
+      </c>
+      <c r="G181" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" t="s">
+        <v>21</v>
+      </c>
+      <c r="E182">
+        <v>253</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183">
+        <v>242</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" t="s">
+        <v>81</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>82</v>
+      </c>
+      <c r="D184" t="s">
+        <v>83</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" t="s">
+        <v>81</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>84</v>
+      </c>
+      <c r="D185" t="s">
+        <v>85</v>
+      </c>
+      <c r="E185">
+        <v>75</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" t="s">
+        <v>81</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>64</v>
+      </c>
+      <c r="D186" t="s">
+        <v>65</v>
+      </c>
+      <c r="E186">
+        <v>50</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" t="s">
+        <v>86</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>82</v>
+      </c>
+      <c r="D187" t="s">
+        <v>83</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>15</v>
+      </c>
+      <c r="G187" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" t="s">
+        <v>86</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>84</v>
+      </c>
+      <c r="D188" t="s">
+        <v>85</v>
+      </c>
+      <c r="E188">
+        <v>75</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" t="s">
+        <v>86</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>64</v>
+      </c>
+      <c r="D189" t="s">
+        <v>65</v>
+      </c>
+      <c r="E189">
+        <v>50</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" t="s">
+        <v>86</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>87</v>
+      </c>
+      <c r="D190" t="s">
+        <v>88</v>
+      </c>
+      <c r="E190">
+        <v>25</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" t="s">
+        <v>86</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191" t="s">
+        <v>25</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" t="s">
+        <v>86</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>37</v>
+      </c>
+      <c r="D192" t="s">
+        <v>38</v>
+      </c>
+      <c r="E192">
+        <v>0.5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>15</v>
+      </c>
+      <c r="G192" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" t="s">
+        <v>57</v>
+      </c>
+      <c r="B193">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>58</v>
+      </c>
+      <c r="D193" t="s">
+        <v>59</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" t="s">
+        <v>57</v>
+      </c>
+      <c r="B194">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>60</v>
+      </c>
+      <c r="D194" t="s">
+        <v>61</v>
+      </c>
+      <c r="E194">
+        <v>468</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" t="s">
+        <v>57</v>
+      </c>
+      <c r="B195">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>62</v>
+      </c>
+      <c r="D195" t="s">
+        <v>63</v>
+      </c>
+      <c r="E195">
+        <v>300</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" t="s">
+        <v>57</v>
+      </c>
+      <c r="B196">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>64</v>
+      </c>
+      <c r="D196" t="s">
+        <v>65</v>
+      </c>
+      <c r="E196">
+        <v>180</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" t="s">
+        <v>57</v>
+      </c>
+      <c r="B197">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>53</v>
+      </c>
+      <c r="D197" t="s">
+        <v>54</v>
+      </c>
+      <c r="E197">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F197" t="s">
+        <v>15</v>
+      </c>
+      <c r="G197" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" t="s">
+        <v>57</v>
+      </c>
+      <c r="B198">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>35</v>
+      </c>
+      <c r="D198" t="s">
+        <v>36</v>
+      </c>
+      <c r="E198">
+        <v>300</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" t="s">
+        <v>57</v>
+      </c>
+      <c r="B199">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>66</v>
+      </c>
+      <c r="D199" t="s">
+        <v>67</v>
+      </c>
+      <c r="E199">
+        <v>180</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" t="s">
+        <v>57</v>
+      </c>
+      <c r="B200">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200">
+        <v>600</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2">
+        <v>45810</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4877,10 +5438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7031,6 +7592,482 @@
         <v>45803</v>
       </c>
     </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" t="s">
+        <v>87</v>
+      </c>
+      <c r="B155">
+        <v>25</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" t="s">
+        <v>102</v>
+      </c>
+      <c r="B156">
+        <v>20</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" t="s">
+        <v>94</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" t="s">
+        <v>58</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159">
+        <v>2200</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160">
+        <v>300</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161">
+        <v>0.5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" t="s">
+        <v>95</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" t="s">
+        <v>43</v>
+      </c>
+      <c r="B163">
+        <v>1200</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" t="s">
+        <v>53</v>
+      </c>
+      <c r="B164">
+        <v>45.6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" t="s">
+        <v>55</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" t="s">
+        <v>22</v>
+      </c>
+      <c r="B168">
+        <v>242</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" t="s">
+        <v>66</v>
+      </c>
+      <c r="B169">
+        <v>180</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" t="s">
+        <v>64</v>
+      </c>
+      <c r="B170">
+        <v>280</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" t="s">
+        <v>84</v>
+      </c>
+      <c r="B171">
+        <v>150</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" t="s">
+        <v>82</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" t="s">
+        <v>60</v>
+      </c>
+      <c r="B174">
+        <v>468</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175">
+        <v>660</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" t="s">
+        <v>68</v>
+      </c>
+      <c r="B177">
+        <v>600</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" t="s">
+        <v>96</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" t="s">
+        <v>109</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" t="s">
+        <v>20</v>
+      </c>
+      <c r="B180">
+        <v>253</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181">
+        <v>1925</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" t="s">
+        <v>97</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" t="s">
+        <v>62</v>
+      </c>
+      <c r="B183">
+        <v>300</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" t="s">
+        <v>133</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" t="s">
+        <v>108</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" t="s">
+        <v>141</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" t="s">
+        <v>142</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45810</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -8,20 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AD2461-6270-42C4-A20A-55CE7FA0FA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C0B60B-A217-4016-A1FD-48A3B32B866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="504" windowWidth="12498" windowHeight="11802" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="396" windowWidth="11442" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
     <sheet name="Log Combined" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="AvailableIngredients">[1]Ingredients!$A$2:$A$85</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="178">
   <si>
     <t>Recipe</t>
   </si>
@@ -450,13 +456,118 @@
   </si>
   <si>
     <t>Peer</t>
+  </si>
+  <si>
+    <t>BBQPORTOBELLOMETPERZIK</t>
+  </si>
+  <si>
+    <t>Portobello</t>
+  </si>
+  <si>
+    <t>PORTOBELLO</t>
+  </si>
+  <si>
+    <t>Geitenkaas</t>
+  </si>
+  <si>
+    <t>GEITENKAAS</t>
+  </si>
+  <si>
+    <t>Honing</t>
+  </si>
+  <si>
+    <t>HONING</t>
+  </si>
+  <si>
+    <t>Perzik blik</t>
+  </si>
+  <si>
+    <t>PERZIKBLIK</t>
+  </si>
+  <si>
+    <t>Noten</t>
+  </si>
+  <si>
+    <t>NOTEN</t>
+  </si>
+  <si>
+    <t>BBQMAÏSKOLVENMETMISOBIESLOOK</t>
+  </si>
+  <si>
+    <t>Maïskolf</t>
+  </si>
+  <si>
+    <t>MAÏSKOLF</t>
+  </si>
+  <si>
+    <t>Bieslook</t>
+  </si>
+  <si>
+    <t>BIESLOOK</t>
+  </si>
+  <si>
+    <t>Boter</t>
+  </si>
+  <si>
+    <t>BOTER</t>
+  </si>
+  <si>
+    <t>VEGGIEBURGERSMETKOMKOMMERSALADE</t>
+  </si>
+  <si>
+    <t>Veggieburger</t>
+  </si>
+  <si>
+    <t>VEGGIEBURGER</t>
+  </si>
+  <si>
+    <t>Hamburgerbroodje</t>
+  </si>
+  <si>
+    <t>HAMBURGERBROODJE</t>
+  </si>
+  <si>
+    <t>Mayonaise</t>
+  </si>
+  <si>
+    <t>MAYONAISE</t>
+  </si>
+  <si>
+    <t>Citroensap</t>
+  </si>
+  <si>
+    <t>CITROENSAP</t>
+  </si>
+  <si>
+    <t>Komkommer</t>
+  </si>
+  <si>
+    <t>KOMKOMMER</t>
+  </si>
+  <si>
+    <t>Lookpoeder</t>
+  </si>
+  <si>
+    <t>LOOKPOEDER</t>
+  </si>
+  <si>
+    <t>Mozarella sneetjes</t>
+  </si>
+  <si>
+    <t>MOZARELLASNEEJTES</t>
+  </si>
+  <si>
+    <t>Olijfolie</t>
+  </si>
+  <si>
+    <t>Smeerboter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +582,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -511,12 +628,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -532,6 +651,445 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Recipes"/>
+      <sheetName val="Ingredients"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Aardbei</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Ananas</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Anjovis</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Appel</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Aubergine</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Avocado</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Baguette</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Bakpoeder</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Banaan</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Bieslook</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Bladerdeeg</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Boter</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Broccoli</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Cavatappi</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Champignons</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Citroensap</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Courgette</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Druiven</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Edamame</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Ei</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Feta</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Geitenkaas</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Gele Kiwi</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Granaatappel</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Griekse Yoghurt</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Hamburgerbroodje</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Honing</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Italiaanse Kruiden</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Kalamon Olijven</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Kerstomaten</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Ketchup</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Knoflookteen</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Komkommer</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Lenteui</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Limoensap</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Lookpoeder</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Maïs Klein Blik</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Maïskolf</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Mandarijn</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Mayonaise</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Melk</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Mirin</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Miso</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Mosterd</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Mozarella</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Mozarella sneetjes</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Noten</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Olijfolie</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Oregano</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Passata</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Peer</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Perzik blik</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Pindakaas</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Pizzadeeg</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Portobello</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Prei</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Proteïne Poeder</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Rijst</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Rijstazijn</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Rode paprika</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Rode Ui</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Rode Wijnazijn</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Scampi</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Seitan</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Skyr</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Smeerboter</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Soya melk</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Soyasaus</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Spaghetti</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Spaghetti saus</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Spitskool</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Suiker</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>Super Gehakt</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Tofu</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>Tomaat</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Vanille-extract</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Vegan Yoghurt</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Veggieburger</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Volle Room</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Wortel</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Wrap</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>Yoghurt Esh</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>Zalm</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>Zout</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -819,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G197" sqref="G197"/>
+    <sheetView topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="G201" sqref="G201:G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5431,17 +5989,968 @@
         <v>45810</v>
       </c>
     </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" t="s">
+        <v>57</v>
+      </c>
+      <c r="B201">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>58</v>
+      </c>
+      <c r="D201" t="s">
+        <v>59</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201" t="s">
+        <v>15</v>
+      </c>
+      <c r="G201" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" t="s">
+        <v>57</v>
+      </c>
+      <c r="B202">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>60</v>
+      </c>
+      <c r="D202" t="s">
+        <v>61</v>
+      </c>
+      <c r="E202">
+        <v>468</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" t="s">
+        <v>57</v>
+      </c>
+      <c r="B203">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>62</v>
+      </c>
+      <c r="D203" t="s">
+        <v>63</v>
+      </c>
+      <c r="E203">
+        <v>300</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" t="s">
+        <v>57</v>
+      </c>
+      <c r="B204">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>64</v>
+      </c>
+      <c r="D204" t="s">
+        <v>65</v>
+      </c>
+      <c r="E204">
+        <v>180</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" t="s">
+        <v>57</v>
+      </c>
+      <c r="B205">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>53</v>
+      </c>
+      <c r="D205" t="s">
+        <v>54</v>
+      </c>
+      <c r="E205">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F205" t="s">
+        <v>15</v>
+      </c>
+      <c r="G205" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" t="s">
+        <v>57</v>
+      </c>
+      <c r="B206">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" t="s">
+        <v>36</v>
+      </c>
+      <c r="E206">
+        <v>300</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" t="s">
+        <v>57</v>
+      </c>
+      <c r="B207">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>66</v>
+      </c>
+      <c r="D207" t="s">
+        <v>67</v>
+      </c>
+      <c r="E207">
+        <v>180</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" t="s">
+        <v>57</v>
+      </c>
+      <c r="B208">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208">
+        <v>600</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" t="s">
+        <v>89</v>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+      <c r="C209" t="s">
+        <v>90</v>
+      </c>
+      <c r="D209" t="s">
+        <v>91</v>
+      </c>
+      <c r="E209">
+        <v>400</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" t="s">
+        <v>89</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>92</v>
+      </c>
+      <c r="D210" t="s">
+        <v>93</v>
+      </c>
+      <c r="E210">
+        <v>640</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" t="s">
+        <v>89</v>
+      </c>
+      <c r="B211">
+        <v>4</v>
+      </c>
+      <c r="C211" t="s">
+        <v>64</v>
+      </c>
+      <c r="D211" t="s">
+        <v>65</v>
+      </c>
+      <c r="E211">
+        <v>200</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" t="s">
+        <v>89</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212">
+        <v>180</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" t="s">
+        <v>81</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>82</v>
+      </c>
+      <c r="D213" t="s">
+        <v>83</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>15</v>
+      </c>
+      <c r="G213" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" t="s">
+        <v>81</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>84</v>
+      </c>
+      <c r="D214" t="s">
+        <v>85</v>
+      </c>
+      <c r="E214">
+        <v>75</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" t="s">
+        <v>81</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>64</v>
+      </c>
+      <c r="D215" t="s">
+        <v>65</v>
+      </c>
+      <c r="E215">
+        <v>50</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" t="s">
+        <v>86</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216" t="s">
+        <v>82</v>
+      </c>
+      <c r="D216" t="s">
+        <v>83</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" t="s">
+        <v>86</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s">
+        <v>84</v>
+      </c>
+      <c r="D217" t="s">
+        <v>85</v>
+      </c>
+      <c r="E217">
+        <v>150</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" t="s">
+        <v>86</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218" t="s">
+        <v>64</v>
+      </c>
+      <c r="D218" t="s">
+        <v>65</v>
+      </c>
+      <c r="E218">
+        <v>100</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" t="s">
+        <v>86</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s">
+        <v>87</v>
+      </c>
+      <c r="D219" t="s">
+        <v>88</v>
+      </c>
+      <c r="E219">
+        <v>50</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" t="s">
+        <v>86</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" t="s">
+        <v>25</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220" t="s">
+        <v>15</v>
+      </c>
+      <c r="G220" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" t="s">
+        <v>86</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221" t="s">
+        <v>37</v>
+      </c>
+      <c r="D221" t="s">
+        <v>38</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221" t="s">
+        <v>15</v>
+      </c>
+      <c r="G221" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" t="s">
+        <v>143</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>144</v>
+      </c>
+      <c r="D222" t="s">
+        <v>145</v>
+      </c>
+      <c r="E222" s="3">
+        <v>3</v>
+      </c>
+      <c r="F222" t="s">
+        <v>15</v>
+      </c>
+      <c r="G222" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" t="s">
+        <v>143</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>146</v>
+      </c>
+      <c r="D223" t="s">
+        <v>147</v>
+      </c>
+      <c r="E223" s="3">
+        <v>150</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" t="s">
+        <v>143</v>
+      </c>
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="C224" t="s">
+        <v>148</v>
+      </c>
+      <c r="D224" t="s">
+        <v>149</v>
+      </c>
+      <c r="E224" s="3">
+        <v>30</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" t="s">
+        <v>143</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s">
+        <v>150</v>
+      </c>
+      <c r="D225" t="s">
+        <v>151</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F225" t="s">
+        <v>15</v>
+      </c>
+      <c r="G225" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" t="s">
+        <v>143</v>
+      </c>
+      <c r="B226">
+        <v>3</v>
+      </c>
+      <c r="C226" t="s">
+        <v>152</v>
+      </c>
+      <c r="D226" t="s">
+        <v>153</v>
+      </c>
+      <c r="E226" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" t="s">
+        <v>154</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227" t="s">
+        <v>155</v>
+      </c>
+      <c r="D227" t="s">
+        <v>156</v>
+      </c>
+      <c r="E227" s="3">
+        <v>4</v>
+      </c>
+      <c r="F227" t="s">
+        <v>15</v>
+      </c>
+      <c r="G227" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" t="s">
+        <v>154</v>
+      </c>
+      <c r="B228">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>66</v>
+      </c>
+      <c r="D228" t="s">
+        <v>67</v>
+      </c>
+      <c r="E228" s="3">
+        <v>75</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" t="s">
+        <v>154</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229" t="s">
+        <v>157</v>
+      </c>
+      <c r="D229" t="s">
+        <v>158</v>
+      </c>
+      <c r="E229" s="3">
+        <v>15</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" t="s">
+        <v>154</v>
+      </c>
+      <c r="B230">
+        <v>4</v>
+      </c>
+      <c r="C230" t="s">
+        <v>159</v>
+      </c>
+      <c r="D230" t="s">
+        <v>160</v>
+      </c>
+      <c r="E230" s="3">
+        <v>200</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" t="s">
+        <v>161</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231" t="s">
+        <v>162</v>
+      </c>
+      <c r="D231" t="s">
+        <v>163</v>
+      </c>
+      <c r="E231" s="3">
+        <v>4</v>
+      </c>
+      <c r="F231" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" t="s">
+        <v>161</v>
+      </c>
+      <c r="B232">
+        <v>4</v>
+      </c>
+      <c r="C232" t="s">
+        <v>164</v>
+      </c>
+      <c r="D232" t="s">
+        <v>165</v>
+      </c>
+      <c r="E232" s="3">
+        <v>4</v>
+      </c>
+      <c r="F232" t="s">
+        <v>15</v>
+      </c>
+      <c r="G232" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" t="s">
+        <v>161</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+      <c r="C233" t="s">
+        <v>105</v>
+      </c>
+      <c r="D233" t="s">
+        <v>128</v>
+      </c>
+      <c r="E233" s="3">
+        <v>200</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" t="s">
+        <v>161</v>
+      </c>
+      <c r="B234">
+        <v>4</v>
+      </c>
+      <c r="C234" t="s">
+        <v>166</v>
+      </c>
+      <c r="D234" t="s">
+        <v>167</v>
+      </c>
+      <c r="E234" s="3">
+        <v>60</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" t="s">
+        <v>161</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235" t="s">
+        <v>168</v>
+      </c>
+      <c r="D235" t="s">
+        <v>169</v>
+      </c>
+      <c r="E235" s="3">
+        <v>60</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" t="s">
+        <v>161</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>170</v>
+      </c>
+      <c r="D236" t="s">
+        <v>171</v>
+      </c>
+      <c r="E236" s="3">
+        <v>1</v>
+      </c>
+      <c r="F236" t="s">
+        <v>15</v>
+      </c>
+      <c r="G236" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" t="s">
+        <v>161</v>
+      </c>
+      <c r="B237">
+        <v>4</v>
+      </c>
+      <c r="C237" t="s">
+        <v>157</v>
+      </c>
+      <c r="D237" t="s">
+        <v>158</v>
+      </c>
+      <c r="E237" s="3">
+        <v>60</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" t="s">
+        <v>161</v>
+      </c>
+      <c r="B238">
+        <v>4</v>
+      </c>
+      <c r="C238" t="s">
+        <v>172</v>
+      </c>
+      <c r="D238" t="s">
+        <v>173</v>
+      </c>
+      <c r="E238" s="3">
+        <v>20</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" t="s">
+        <v>161</v>
+      </c>
+      <c r="B239">
+        <v>4</v>
+      </c>
+      <c r="C239" t="s">
+        <v>32</v>
+      </c>
+      <c r="D239" t="s">
+        <v>33</v>
+      </c>
+      <c r="E239" s="3">
+        <v>4</v>
+      </c>
+      <c r="F239" t="s">
+        <v>15</v>
+      </c>
+      <c r="G239" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" t="s">
+        <v>161</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>110</v>
+      </c>
+      <c r="D240" t="s">
+        <v>117</v>
+      </c>
+      <c r="E240" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F240" t="s">
+        <v>15</v>
+      </c>
+      <c r="G240" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" t="s">
+        <v>161</v>
+      </c>
+      <c r="B241">
+        <v>4</v>
+      </c>
+      <c r="C241" t="s">
+        <v>174</v>
+      </c>
+      <c r="D241" t="s">
+        <v>175</v>
+      </c>
+      <c r="E241" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F241" t="s">
+        <v>15</v>
+      </c>
+      <c r="G241" s="2">
+        <v>45817</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C222:C226" xr:uid="{1356703D-6423-46C9-8359-D7F6FCEC7294}">
+      <formula1>AvailableIngredients</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F222:F226" xr:uid="{B642A67C-13EE-4BD6-BFD6-8F9A028409BF}">
+      <formula1>"u,g"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="F223" sqref="F223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8068,6 +9577,566 @@
         <v>45810</v>
       </c>
     </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B188" s="4">
+        <v>1</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B189" s="4">
+        <v>50</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B190" s="4">
+        <v>18</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B191" s="4">
+        <v>1</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B192" s="4">
+        <v>2</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" s="4">
+        <v>300</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B194" s="4">
+        <v>1</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B195" s="4">
+        <v>2</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B196" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B197" s="4">
+        <v>45.6</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B198" s="4">
+        <v>4</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B199" s="4">
+        <v>180</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B200" s="4">
+        <v>530</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B201" s="4">
+        <v>225</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B202" s="4">
+        <v>3</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B203" s="4">
+        <v>468</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B204" s="4">
+        <v>2</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B205" s="4">
+        <v>780</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B206" s="4">
+        <v>4</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B207" s="4">
+        <v>4</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B208" s="4">
+        <v>400</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B209" s="4">
+        <v>640</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B210" s="4">
+        <v>2</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B211" s="4">
+        <v>300</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B212" s="4">
+        <v>1</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B213" s="4">
+        <v>1</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B214" s="4">
+        <v>3</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B215" s="4">
+        <v>1</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B216" s="4">
+        <v>1</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B217" s="4">
+        <v>4</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B218" s="4">
+        <v>30</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D218" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B219" s="4">
+        <v>200</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B220" s="4">
+        <v>4</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B221" s="4">
+        <v>4</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B222" s="4">
+        <v>1</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B223" s="4">
+        <v>3</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B224" s="4">
+        <v>1</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B225" s="4">
+        <v>1</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B226" s="4">
+        <v>1</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D226" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B227" s="4">
+        <v>2</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="2">
+        <v>45817</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C0B60B-A217-4016-A1FD-48A3B32B866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4236C2-FDAD-4A9B-AE3F-C8AFD7AA82F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="396" windowWidth="11442" windowHeight="10680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="180">
   <si>
     <t>Recipe</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>Smeerboter</t>
+  </si>
+  <si>
+    <t>Gele Kiwi</t>
+  </si>
+  <si>
+    <t>MOZARELLASNEETJES</t>
   </si>
 </sst>
 </file>
@@ -1377,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="G201" sqref="G201:G241"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="K300" sqref="K300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6930,6 +6936,1524 @@
       </c>
       <c r="G241" s="2">
         <v>45817</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" t="s">
+        <v>89</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>90</v>
+      </c>
+      <c r="D242" t="s">
+        <v>91</v>
+      </c>
+      <c r="E242">
+        <v>400</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" t="s">
+        <v>89</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>92</v>
+      </c>
+      <c r="D243" t="s">
+        <v>93</v>
+      </c>
+      <c r="E243">
+        <v>640</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" t="s">
+        <v>89</v>
+      </c>
+      <c r="B244">
+        <v>4</v>
+      </c>
+      <c r="C244" t="s">
+        <v>64</v>
+      </c>
+      <c r="D244" t="s">
+        <v>65</v>
+      </c>
+      <c r="E244">
+        <v>200</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" t="s">
+        <v>89</v>
+      </c>
+      <c r="B245">
+        <v>4</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245">
+        <v>180</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" t="s">
+        <v>71</v>
+      </c>
+      <c r="B246">
+        <v>9</v>
+      </c>
+      <c r="C246" t="s">
+        <v>72</v>
+      </c>
+      <c r="D246" t="s">
+        <v>73</v>
+      </c>
+      <c r="E246">
+        <v>2250</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" t="s">
+        <v>71</v>
+      </c>
+      <c r="B247">
+        <v>9</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>29</v>
+      </c>
+      <c r="E247">
+        <v>900</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" t="s">
+        <v>71</v>
+      </c>
+      <c r="B248">
+        <v>9</v>
+      </c>
+      <c r="C248" t="s">
+        <v>74</v>
+      </c>
+      <c r="D248" t="s">
+        <v>75</v>
+      </c>
+      <c r="E248">
+        <v>900</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" t="s">
+        <v>71</v>
+      </c>
+      <c r="B249">
+        <v>9</v>
+      </c>
+      <c r="C249" t="s">
+        <v>76</v>
+      </c>
+      <c r="D249" t="s">
+        <v>77</v>
+      </c>
+      <c r="E249">
+        <v>450</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" t="s">
+        <v>71</v>
+      </c>
+      <c r="B250">
+        <v>9</v>
+      </c>
+      <c r="C250" t="s">
+        <v>18</v>
+      </c>
+      <c r="D250" t="s">
+        <v>19</v>
+      </c>
+      <c r="E250">
+        <v>36</v>
+      </c>
+      <c r="F250" t="s">
+        <v>15</v>
+      </c>
+      <c r="G250" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" t="s">
+        <v>71</v>
+      </c>
+      <c r="B251">
+        <v>9</v>
+      </c>
+      <c r="C251" t="s">
+        <v>78</v>
+      </c>
+      <c r="D251" t="s">
+        <v>79</v>
+      </c>
+      <c r="E251">
+        <v>18</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" t="s">
+        <v>57</v>
+      </c>
+      <c r="B252">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>58</v>
+      </c>
+      <c r="D252" t="s">
+        <v>59</v>
+      </c>
+      <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252" t="s">
+        <v>15</v>
+      </c>
+      <c r="G252" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" t="s">
+        <v>57</v>
+      </c>
+      <c r="B253">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>60</v>
+      </c>
+      <c r="D253" t="s">
+        <v>61</v>
+      </c>
+      <c r="E253">
+        <v>468</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" t="s">
+        <v>57</v>
+      </c>
+      <c r="B254">
+        <v>12</v>
+      </c>
+      <c r="C254" t="s">
+        <v>62</v>
+      </c>
+      <c r="D254" t="s">
+        <v>63</v>
+      </c>
+      <c r="E254">
+        <v>300</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" t="s">
+        <v>57</v>
+      </c>
+      <c r="B255">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>64</v>
+      </c>
+      <c r="D255" t="s">
+        <v>65</v>
+      </c>
+      <c r="E255">
+        <v>180</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" t="s">
+        <v>57</v>
+      </c>
+      <c r="B256">
+        <v>12</v>
+      </c>
+      <c r="C256" t="s">
+        <v>53</v>
+      </c>
+      <c r="D256" t="s">
+        <v>54</v>
+      </c>
+      <c r="E256">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F256" t="s">
+        <v>15</v>
+      </c>
+      <c r="G256" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" t="s">
+        <v>57</v>
+      </c>
+      <c r="B257">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>35</v>
+      </c>
+      <c r="D257" t="s">
+        <v>36</v>
+      </c>
+      <c r="E257">
+        <v>300</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" t="s">
+        <v>57</v>
+      </c>
+      <c r="B258">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>66</v>
+      </c>
+      <c r="D258" t="s">
+        <v>67</v>
+      </c>
+      <c r="E258">
+        <v>180</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" t="s">
+        <v>57</v>
+      </c>
+      <c r="B259">
+        <v>12</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259">
+        <v>600</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" t="s">
+        <v>81</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
+        <v>82</v>
+      </c>
+      <c r="D260" t="s">
+        <v>83</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>15</v>
+      </c>
+      <c r="G260" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" t="s">
+        <v>81</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>84</v>
+      </c>
+      <c r="D261" t="s">
+        <v>85</v>
+      </c>
+      <c r="E261">
+        <v>75</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" t="s">
+        <v>81</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>64</v>
+      </c>
+      <c r="D262" t="s">
+        <v>65</v>
+      </c>
+      <c r="E262">
+        <v>50</v>
+      </c>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" t="s">
+        <v>86</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>82</v>
+      </c>
+      <c r="D263" t="s">
+        <v>83</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" t="s">
+        <v>15</v>
+      </c>
+      <c r="G263" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" t="s">
+        <v>86</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>84</v>
+      </c>
+      <c r="D264" t="s">
+        <v>85</v>
+      </c>
+      <c r="E264">
+        <v>75</v>
+      </c>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" t="s">
+        <v>86</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>64</v>
+      </c>
+      <c r="D265" t="s">
+        <v>65</v>
+      </c>
+      <c r="E265">
+        <v>50</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" t="s">
+        <v>86</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>87</v>
+      </c>
+      <c r="D266" t="s">
+        <v>88</v>
+      </c>
+      <c r="E266">
+        <v>25</v>
+      </c>
+      <c r="F266" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267" t="s">
+        <v>86</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>24</v>
+      </c>
+      <c r="D267" t="s">
+        <v>25</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" t="s">
+        <v>15</v>
+      </c>
+      <c r="G267" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" t="s">
+        <v>86</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>37</v>
+      </c>
+      <c r="D268" t="s">
+        <v>38</v>
+      </c>
+      <c r="E268">
+        <v>0.5</v>
+      </c>
+      <c r="F268" t="s">
+        <v>15</v>
+      </c>
+      <c r="G268" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" t="s">
+        <v>143</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269" t="s">
+        <v>144</v>
+      </c>
+      <c r="D269" t="s">
+        <v>145</v>
+      </c>
+      <c r="E269">
+        <v>2</v>
+      </c>
+      <c r="F269" t="s">
+        <v>15</v>
+      </c>
+      <c r="G269" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" t="s">
+        <v>143</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270" t="s">
+        <v>146</v>
+      </c>
+      <c r="D270" t="s">
+        <v>147</v>
+      </c>
+      <c r="E270">
+        <v>100</v>
+      </c>
+      <c r="F270" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" t="s">
+        <v>143</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271" t="s">
+        <v>148</v>
+      </c>
+      <c r="D271" t="s">
+        <v>149</v>
+      </c>
+      <c r="E271">
+        <v>20</v>
+      </c>
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" t="s">
+        <v>143</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272" t="s">
+        <v>150</v>
+      </c>
+      <c r="D272" t="s">
+        <v>151</v>
+      </c>
+      <c r="E272">
+        <v>0.5</v>
+      </c>
+      <c r="F272" t="s">
+        <v>15</v>
+      </c>
+      <c r="G272" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" t="s">
+        <v>143</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273" t="s">
+        <v>152</v>
+      </c>
+      <c r="D273" t="s">
+        <v>153</v>
+      </c>
+      <c r="E273">
+        <v>15</v>
+      </c>
+      <c r="F273" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274" t="s">
+        <v>89</v>
+      </c>
+      <c r="B274">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>90</v>
+      </c>
+      <c r="D274" t="s">
+        <v>91</v>
+      </c>
+      <c r="E274">
+        <v>600</v>
+      </c>
+      <c r="F274" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275" t="s">
+        <v>89</v>
+      </c>
+      <c r="B275">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>92</v>
+      </c>
+      <c r="D275" t="s">
+        <v>93</v>
+      </c>
+      <c r="E275">
+        <v>960</v>
+      </c>
+      <c r="F275" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" t="s">
+        <v>89</v>
+      </c>
+      <c r="B276">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>64</v>
+      </c>
+      <c r="D276" t="s">
+        <v>65</v>
+      </c>
+      <c r="E276">
+        <v>300</v>
+      </c>
+      <c r="F276" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277" t="s">
+        <v>89</v>
+      </c>
+      <c r="B277">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277">
+        <v>270</v>
+      </c>
+      <c r="F277" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" t="s">
+        <v>161</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+      <c r="C278" t="s">
+        <v>162</v>
+      </c>
+      <c r="D278" t="s">
+        <v>163</v>
+      </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278" t="s">
+        <v>15</v>
+      </c>
+      <c r="G278" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" t="s">
+        <v>161</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279" t="s">
+        <v>164</v>
+      </c>
+      <c r="D279" t="s">
+        <v>165</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279" t="s">
+        <v>15</v>
+      </c>
+      <c r="G279" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280" t="s">
+        <v>161</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280" t="s">
+        <v>105</v>
+      </c>
+      <c r="D280" t="s">
+        <v>128</v>
+      </c>
+      <c r="E280">
+        <v>100</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" t="s">
+        <v>161</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281" t="s">
+        <v>166</v>
+      </c>
+      <c r="D281" t="s">
+        <v>167</v>
+      </c>
+      <c r="E281">
+        <v>30</v>
+      </c>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" t="s">
+        <v>161</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282" t="s">
+        <v>168</v>
+      </c>
+      <c r="D282" t="s">
+        <v>169</v>
+      </c>
+      <c r="E282">
+        <v>30</v>
+      </c>
+      <c r="F282" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" t="s">
+        <v>161</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283" t="s">
+        <v>170</v>
+      </c>
+      <c r="D283" t="s">
+        <v>171</v>
+      </c>
+      <c r="E283">
+        <v>0.5</v>
+      </c>
+      <c r="F283" t="s">
+        <v>15</v>
+      </c>
+      <c r="G283" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" t="s">
+        <v>161</v>
+      </c>
+      <c r="B284">
+        <v>2</v>
+      </c>
+      <c r="C284" t="s">
+        <v>157</v>
+      </c>
+      <c r="D284" t="s">
+        <v>158</v>
+      </c>
+      <c r="E284">
+        <v>30</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" t="s">
+        <v>161</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285" t="s">
+        <v>172</v>
+      </c>
+      <c r="D285" t="s">
+        <v>173</v>
+      </c>
+      <c r="E285">
+        <v>10</v>
+      </c>
+      <c r="F285" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" t="s">
+        <v>161</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="C286" t="s">
+        <v>32</v>
+      </c>
+      <c r="D286" t="s">
+        <v>33</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286" t="s">
+        <v>15</v>
+      </c>
+      <c r="G286" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287" t="s">
+        <v>161</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287" t="s">
+        <v>110</v>
+      </c>
+      <c r="D287" t="s">
+        <v>117</v>
+      </c>
+      <c r="E287">
+        <v>0.2</v>
+      </c>
+      <c r="F287" t="s">
+        <v>15</v>
+      </c>
+      <c r="G287" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" t="s">
+        <v>161</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288" t="s">
+        <v>174</v>
+      </c>
+      <c r="D288" t="s">
+        <v>179</v>
+      </c>
+      <c r="E288">
+        <v>0.3</v>
+      </c>
+      <c r="F288" t="s">
+        <v>15</v>
+      </c>
+      <c r="G288" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289" t="s">
+        <v>114</v>
+      </c>
+      <c r="B289">
+        <v>8</v>
+      </c>
+      <c r="C289" t="s">
+        <v>103</v>
+      </c>
+      <c r="D289" t="s">
+        <v>115</v>
+      </c>
+      <c r="E289">
+        <v>2</v>
+      </c>
+      <c r="F289" t="s">
+        <v>116</v>
+      </c>
+      <c r="G289" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" t="s">
+        <v>114</v>
+      </c>
+      <c r="B290">
+        <v>8</v>
+      </c>
+      <c r="C290" t="s">
+        <v>30</v>
+      </c>
+      <c r="D290" t="s">
+        <v>31</v>
+      </c>
+      <c r="E290">
+        <v>28</v>
+      </c>
+      <c r="F290" t="s">
+        <v>70</v>
+      </c>
+      <c r="G290" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291" t="s">
+        <v>114</v>
+      </c>
+      <c r="B291">
+        <v>8</v>
+      </c>
+      <c r="C291" t="s">
+        <v>110</v>
+      </c>
+      <c r="D291" t="s">
+        <v>117</v>
+      </c>
+      <c r="E291">
+        <v>400</v>
+      </c>
+      <c r="F291" t="s">
+        <v>70</v>
+      </c>
+      <c r="G291" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292" t="s">
+        <v>114</v>
+      </c>
+      <c r="B292">
+        <v>8</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292">
+        <v>800</v>
+      </c>
+      <c r="F292" t="s">
+        <v>70</v>
+      </c>
+      <c r="G292" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" t="s">
+        <v>114</v>
+      </c>
+      <c r="B293">
+        <v>8</v>
+      </c>
+      <c r="C293" t="s">
+        <v>32</v>
+      </c>
+      <c r="D293" t="s">
+        <v>33</v>
+      </c>
+      <c r="E293">
+        <v>8</v>
+      </c>
+      <c r="F293" t="s">
+        <v>118</v>
+      </c>
+      <c r="G293" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294" t="s">
+        <v>114</v>
+      </c>
+      <c r="B294">
+        <v>8</v>
+      </c>
+      <c r="C294" t="s">
+        <v>26</v>
+      </c>
+      <c r="D294" t="s">
+        <v>27</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294" t="s">
+        <v>116</v>
+      </c>
+      <c r="G294" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295" t="s">
+        <v>114</v>
+      </c>
+      <c r="B295">
+        <v>8</v>
+      </c>
+      <c r="C295" t="s">
+        <v>45</v>
+      </c>
+      <c r="D295" t="s">
+        <v>46</v>
+      </c>
+      <c r="E295">
+        <v>2</v>
+      </c>
+      <c r="F295" t="s">
+        <v>116</v>
+      </c>
+      <c r="G295" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296" t="s">
+        <v>114</v>
+      </c>
+      <c r="B296">
+        <v>8</v>
+      </c>
+      <c r="C296" t="s">
+        <v>108</v>
+      </c>
+      <c r="D296" t="s">
+        <v>119</v>
+      </c>
+      <c r="E296">
+        <v>80</v>
+      </c>
+      <c r="F296" t="s">
+        <v>70</v>
+      </c>
+      <c r="G296" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297" t="s">
+        <v>114</v>
+      </c>
+      <c r="B297">
+        <v>8</v>
+      </c>
+      <c r="C297" t="s">
+        <v>24</v>
+      </c>
+      <c r="D297" t="s">
+        <v>25</v>
+      </c>
+      <c r="E297">
+        <v>2</v>
+      </c>
+      <c r="F297" t="s">
+        <v>116</v>
+      </c>
+      <c r="G297" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298" t="s">
+        <v>114</v>
+      </c>
+      <c r="B298">
+        <v>8</v>
+      </c>
+      <c r="C298" t="s">
+        <v>112</v>
+      </c>
+      <c r="D298" t="s">
+        <v>120</v>
+      </c>
+      <c r="E298">
+        <v>8</v>
+      </c>
+      <c r="F298" t="s">
+        <v>15</v>
+      </c>
+      <c r="G298" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299" t="s">
+        <v>121</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299" t="s">
+        <v>103</v>
+      </c>
+      <c r="D299" t="s">
+        <v>115</v>
+      </c>
+      <c r="E299">
+        <v>0.5</v>
+      </c>
+      <c r="F299" t="s">
+        <v>116</v>
+      </c>
+      <c r="G299" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300" t="s">
+        <v>121</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+      <c r="C300" t="s">
+        <v>30</v>
+      </c>
+      <c r="D300" t="s">
+        <v>31</v>
+      </c>
+      <c r="E300">
+        <v>7</v>
+      </c>
+      <c r="F300" t="s">
+        <v>70</v>
+      </c>
+      <c r="G300" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301" t="s">
+        <v>121</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301" t="s">
+        <v>110</v>
+      </c>
+      <c r="D301" t="s">
+        <v>117</v>
+      </c>
+      <c r="E301">
+        <v>100</v>
+      </c>
+      <c r="F301" t="s">
+        <v>70</v>
+      </c>
+      <c r="G301" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A302" t="s">
+        <v>121</v>
+      </c>
+      <c r="B302">
+        <v>2</v>
+      </c>
+      <c r="C302" t="s">
+        <v>68</v>
+      </c>
+      <c r="D302" t="s">
+        <v>69</v>
+      </c>
+      <c r="E302">
+        <v>200</v>
+      </c>
+      <c r="F302" t="s">
+        <v>70</v>
+      </c>
+      <c r="G302" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303" t="s">
+        <v>121</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303" t="s">
+        <v>32</v>
+      </c>
+      <c r="D303" t="s">
+        <v>33</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303" t="s">
+        <v>118</v>
+      </c>
+      <c r="G303" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" t="s">
+        <v>121</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304" t="s">
+        <v>26</v>
+      </c>
+      <c r="D304" t="s">
+        <v>27</v>
+      </c>
+      <c r="E304">
+        <v>0.5</v>
+      </c>
+      <c r="F304" t="s">
+        <v>116</v>
+      </c>
+      <c r="G304" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" t="s">
+        <v>121</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305" t="s">
+        <v>45</v>
+      </c>
+      <c r="D305" t="s">
+        <v>46</v>
+      </c>
+      <c r="E305">
+        <v>0.5</v>
+      </c>
+      <c r="F305" t="s">
+        <v>116</v>
+      </c>
+      <c r="G305" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" t="s">
+        <v>121</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306" t="s">
+        <v>108</v>
+      </c>
+      <c r="D306" t="s">
+        <v>119</v>
+      </c>
+      <c r="E306">
+        <v>20</v>
+      </c>
+      <c r="F306" t="s">
+        <v>70</v>
+      </c>
+      <c r="G306" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" t="s">
+        <v>121</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307" t="s">
+        <v>24</v>
+      </c>
+      <c r="D307" t="s">
+        <v>25</v>
+      </c>
+      <c r="E307">
+        <v>0.5</v>
+      </c>
+      <c r="F307" t="s">
+        <v>116</v>
+      </c>
+      <c r="G307" s="2">
+        <v>45831</v>
       </c>
     </row>
   </sheetData>
@@ -6947,10 +8471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D227"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="F223" sqref="F223"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="H290" sqref="H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10137,6 +11661,986 @@
         <v>45817</v>
       </c>
     </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" t="s">
+        <v>132</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" t="s">
+        <v>102</v>
+      </c>
+      <c r="B229">
+        <v>20</v>
+      </c>
+      <c r="C229" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" t="s">
+        <v>94</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" t="s">
+        <v>58</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" t="s">
+        <v>76</v>
+      </c>
+      <c r="B232">
+        <v>450</v>
+      </c>
+      <c r="C232" t="s">
+        <v>10</v>
+      </c>
+      <c r="D232" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" t="s">
+        <v>35</v>
+      </c>
+      <c r="B233">
+        <v>300</v>
+      </c>
+      <c r="C233" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" t="s">
+        <v>95</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" t="s">
+        <v>43</v>
+      </c>
+      <c r="B235">
+        <v>1350</v>
+      </c>
+      <c r="C235" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" t="s">
+        <v>53</v>
+      </c>
+      <c r="B236">
+        <v>49.6</v>
+      </c>
+      <c r="C236" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237">
+        <v>900</v>
+      </c>
+      <c r="C237" t="s">
+        <v>10</v>
+      </c>
+      <c r="D237" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" t="s">
+        <v>178</v>
+      </c>
+      <c r="B238">
+        <v>12</v>
+      </c>
+      <c r="C238" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" t="s">
+        <v>78</v>
+      </c>
+      <c r="B239">
+        <v>18</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" t="s">
+        <v>72</v>
+      </c>
+      <c r="B240">
+        <v>2250</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" t="s">
+        <v>18</v>
+      </c>
+      <c r="B241">
+        <v>36</v>
+      </c>
+      <c r="C241" t="s">
+        <v>15</v>
+      </c>
+      <c r="D241" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" t="s">
+        <v>55</v>
+      </c>
+      <c r="B242">
+        <v>4</v>
+      </c>
+      <c r="C242" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" t="s">
+        <v>66</v>
+      </c>
+      <c r="B243">
+        <v>180</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" t="s">
+        <v>64</v>
+      </c>
+      <c r="B244">
+        <v>380</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" t="s">
+        <v>60</v>
+      </c>
+      <c r="B245">
+        <v>468</v>
+      </c>
+      <c r="C245" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" t="s">
+        <v>74</v>
+      </c>
+      <c r="B246">
+        <v>900</v>
+      </c>
+      <c r="C246" t="s">
+        <v>10</v>
+      </c>
+      <c r="D246" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" t="s">
+        <v>68</v>
+      </c>
+      <c r="B247">
+        <v>780</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" t="s">
+        <v>96</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+      <c r="C248" t="s">
+        <v>15</v>
+      </c>
+      <c r="D248" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" t="s">
+        <v>109</v>
+      </c>
+      <c r="B249">
+        <v>4</v>
+      </c>
+      <c r="C249" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" t="s">
+        <v>90</v>
+      </c>
+      <c r="B250">
+        <v>400</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" t="s">
+        <v>92</v>
+      </c>
+      <c r="B251">
+        <v>640</v>
+      </c>
+      <c r="C251" t="s">
+        <v>10</v>
+      </c>
+      <c r="D251" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" t="s">
+        <v>97</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" t="s">
+        <v>62</v>
+      </c>
+      <c r="B253">
+        <v>300</v>
+      </c>
+      <c r="C253" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" t="s">
+        <v>132</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+      <c r="C254" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" t="s">
+        <v>101</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B256" s="4">
+        <v>25</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" t="s">
+        <v>102</v>
+      </c>
+      <c r="B257">
+        <v>18</v>
+      </c>
+      <c r="C257" t="s">
+        <v>15</v>
+      </c>
+      <c r="D257" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" t="s">
+        <v>103</v>
+      </c>
+      <c r="B258">
+        <v>2.5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>15</v>
+      </c>
+      <c r="D258" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" t="s">
+        <v>94</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" t="s">
+        <v>157</v>
+      </c>
+      <c r="B260">
+        <v>30</v>
+      </c>
+      <c r="C260" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" t="s">
+        <v>168</v>
+      </c>
+      <c r="B261">
+        <v>30</v>
+      </c>
+      <c r="C261" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" t="s">
+        <v>37</v>
+      </c>
+      <c r="B262">
+        <v>0.5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" t="s">
+        <v>95</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" t="s">
+        <v>43</v>
+      </c>
+      <c r="B264">
+        <v>1350</v>
+      </c>
+      <c r="C264" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" t="s">
+        <v>53</v>
+      </c>
+      <c r="B265">
+        <v>36</v>
+      </c>
+      <c r="C265" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" t="s">
+        <v>146</v>
+      </c>
+      <c r="B266">
+        <v>100</v>
+      </c>
+      <c r="C266" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267" t="s">
+        <v>178</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>15</v>
+      </c>
+      <c r="D267" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" t="s">
+        <v>105</v>
+      </c>
+      <c r="B268">
+        <v>100</v>
+      </c>
+      <c r="C268" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" t="s">
+        <v>164</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269" t="s">
+        <v>15</v>
+      </c>
+      <c r="D269" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" t="s">
+        <v>148</v>
+      </c>
+      <c r="B270">
+        <v>20</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" t="s">
+        <v>170</v>
+      </c>
+      <c r="B271">
+        <v>0.5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>15</v>
+      </c>
+      <c r="D271" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" t="s">
+        <v>30</v>
+      </c>
+      <c r="B272">
+        <v>35</v>
+      </c>
+      <c r="C272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D272" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" t="s">
+        <v>172</v>
+      </c>
+      <c r="B273">
+        <v>10</v>
+      </c>
+      <c r="C273" t="s">
+        <v>10</v>
+      </c>
+      <c r="D273" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274" t="s">
+        <v>166</v>
+      </c>
+      <c r="B274">
+        <v>30</v>
+      </c>
+      <c r="C274" t="s">
+        <v>10</v>
+      </c>
+      <c r="D274" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275" t="s">
+        <v>45</v>
+      </c>
+      <c r="B275">
+        <v>2.5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>15</v>
+      </c>
+      <c r="D275" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" t="s">
+        <v>55</v>
+      </c>
+      <c r="B276">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277" t="s">
+        <v>64</v>
+      </c>
+      <c r="B277">
+        <v>400</v>
+      </c>
+      <c r="C277" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" t="s">
+        <v>174</v>
+      </c>
+      <c r="B278">
+        <v>0.3</v>
+      </c>
+      <c r="C278" t="s">
+        <v>15</v>
+      </c>
+      <c r="D278" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" t="s">
+        <v>152</v>
+      </c>
+      <c r="B279">
+        <v>15</v>
+      </c>
+      <c r="C279" t="s">
+        <v>10</v>
+      </c>
+      <c r="D279" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280" t="s">
+        <v>84</v>
+      </c>
+      <c r="B280">
+        <v>150</v>
+      </c>
+      <c r="C280" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" t="s">
+        <v>150</v>
+      </c>
+      <c r="B281">
+        <v>0.5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>15</v>
+      </c>
+      <c r="D281" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" t="s">
+        <v>82</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282" t="s">
+        <v>15</v>
+      </c>
+      <c r="D282" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" t="s">
+        <v>144</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283" t="s">
+        <v>15</v>
+      </c>
+      <c r="D283" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" t="s">
+        <v>26</v>
+      </c>
+      <c r="B284">
+        <v>2.5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" t="s">
+        <v>108</v>
+      </c>
+      <c r="B285">
+        <v>100</v>
+      </c>
+      <c r="C285" t="s">
+        <v>10</v>
+      </c>
+      <c r="D285" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286">
+        <v>3.5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>15</v>
+      </c>
+      <c r="D286" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287" t="s">
+        <v>68</v>
+      </c>
+      <c r="B287">
+        <v>1270</v>
+      </c>
+      <c r="C287" t="s">
+        <v>10</v>
+      </c>
+      <c r="D287" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" t="s">
+        <v>96</v>
+      </c>
+      <c r="B288">
+        <v>4</v>
+      </c>
+      <c r="C288" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289" t="s">
+        <v>109</v>
+      </c>
+      <c r="B289">
+        <v>4</v>
+      </c>
+      <c r="C289" t="s">
+        <v>15</v>
+      </c>
+      <c r="D289" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" t="s">
+        <v>90</v>
+      </c>
+      <c r="B290">
+        <v>600</v>
+      </c>
+      <c r="C290" t="s">
+        <v>10</v>
+      </c>
+      <c r="D290" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291" t="s">
+        <v>92</v>
+      </c>
+      <c r="B291">
+        <v>960</v>
+      </c>
+      <c r="C291" t="s">
+        <v>10</v>
+      </c>
+      <c r="D291" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292" t="s">
+        <v>110</v>
+      </c>
+      <c r="B292">
+        <v>500</v>
+      </c>
+      <c r="C292" t="s">
+        <v>10</v>
+      </c>
+      <c r="D292" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" t="s">
+        <v>110</v>
+      </c>
+      <c r="B293">
+        <v>0.2</v>
+      </c>
+      <c r="C293" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294" t="s">
+        <v>32</v>
+      </c>
+      <c r="B294">
+        <v>12</v>
+      </c>
+      <c r="C294" t="s">
+        <v>15</v>
+      </c>
+      <c r="D294" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295" t="s">
+        <v>97</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="C295" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296" t="s">
+        <v>162</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296" t="s">
+        <v>15</v>
+      </c>
+      <c r="D296" s="2">
+        <v>45831</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297" t="s">
+        <v>112</v>
+      </c>
+      <c r="B297">
+        <v>8</v>
+      </c>
+      <c r="C297" t="s">
+        <v>15</v>
+      </c>
+      <c r="D297" s="2">
+        <v>45831</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4236C2-FDAD-4A9B-AE3F-C8AFD7AA82F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E907B9-6F41-466D-B6C8-D14A9D075007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="187">
   <si>
     <t>Recipe</t>
   </si>
@@ -567,6 +567,27 @@
   </si>
   <si>
     <t>MOZARELLASNEETJES</t>
+  </si>
+  <si>
+    <t>CHLOETING-ZALM&amp;GRIEKSESALADE</t>
+  </si>
+  <si>
+    <t>Zalm</t>
+  </si>
+  <si>
+    <t>ZALM</t>
+  </si>
+  <si>
+    <t>Kalamon Olijven</t>
+  </si>
+  <si>
+    <t>KALAMONOLIJVEN</t>
+  </si>
+  <si>
+    <t>Oregano</t>
+  </si>
+  <si>
+    <t>OREGANO</t>
   </si>
 </sst>
 </file>
@@ -634,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -642,6 +663,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1383,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G307"/>
+  <dimension ref="A1:G362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="K300" sqref="K300"/>
+    <sheetView topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="G308" sqref="G308:G362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8454,6 +8477,1271 @@
       </c>
       <c r="G307" s="2">
         <v>45831</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B308" s="5">
+        <v>2</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E308" s="5">
+        <v>2</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G308" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B309" s="5">
+        <v>2</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E309" s="5">
+        <v>100</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B310" s="5">
+        <v>2</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E310" s="5">
+        <v>20</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B311" s="5">
+        <v>2</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E311" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G311" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B312" s="5">
+        <v>2</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E312" s="5">
+        <v>15</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B313" s="5">
+        <v>4</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E313" s="5">
+        <v>2</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G313" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B314" s="5">
+        <v>4</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E314" s="5">
+        <v>100</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G314" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B315" s="5">
+        <v>4</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E315" s="5">
+        <v>48</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B316" s="5">
+        <v>4</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E316" s="5">
+        <v>200</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G316" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B317" s="5">
+        <v>4</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E317" s="5">
+        <v>300</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G317" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B318" s="5">
+        <v>7</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E318" s="5">
+        <v>1750</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B319" s="5">
+        <v>7</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E319" s="5">
+        <v>700</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B320" s="5">
+        <v>7</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E320" s="5">
+        <v>700</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B321" s="5">
+        <v>7</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E321" s="5">
+        <v>350</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B322" s="5">
+        <v>7</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E322" s="5">
+        <v>28</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G322" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B323" s="5">
+        <v>7</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E323" s="5">
+        <v>14</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G323" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B324" s="5">
+        <v>2</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E324" s="5">
+        <v>120</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A325" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B325" s="5">
+        <v>2</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E325" s="5">
+        <v>284</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B326" s="5">
+        <v>2</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E326" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G326" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B327" s="5">
+        <v>2</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E327" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G327" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B328" s="5">
+        <v>2</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E328" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G328" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B329" s="5">
+        <v>2</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E329" s="5">
+        <v>25</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A330" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B330" s="5">
+        <v>2</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E330" s="5">
+        <v>90</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A331" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B331" s="5">
+        <v>2</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E331" s="5">
+        <v>35</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B332" s="5">
+        <v>2</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E332" s="5">
+        <v>2</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G332" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B333" s="5">
+        <v>2</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E333" s="5">
+        <v>4</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G333" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A334" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B334" s="5">
+        <v>2</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E334" s="5">
+        <v>1</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G334" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A335" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B335" s="5">
+        <v>1</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G335" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A336" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B336" s="5">
+        <v>1</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E336" s="5">
+        <v>75</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G336" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A337" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B337" s="5">
+        <v>1</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E337" s="5">
+        <v>50</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B338" s="5">
+        <v>1</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E338" s="5">
+        <v>1</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G338" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A339" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B339" s="5">
+        <v>1</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E339" s="5">
+        <v>75</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A340" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B340" s="5">
+        <v>1</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E340" s="5">
+        <v>50</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A341" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B341" s="5">
+        <v>1</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E341" s="5">
+        <v>25</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A342" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B342" s="5">
+        <v>1</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E342" s="5">
+        <v>1</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G342" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B343" s="5">
+        <v>1</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E343" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G343" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A344" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B344" s="5">
+        <v>12</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E344" s="5">
+        <v>2</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G344" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B345" s="5">
+        <v>12</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E345" s="5">
+        <v>468</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G345" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B346" s="5">
+        <v>12</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E346" s="5">
+        <v>300</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A347" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B347" s="5">
+        <v>12</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E347" s="5">
+        <v>180</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B348" s="5">
+        <v>12</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E348" s="5">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G348" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B349" s="5">
+        <v>12</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E349" s="5">
+        <v>300</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G349" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B350" s="5">
+        <v>12</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E350" s="5">
+        <v>180</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G350" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B351" s="5">
+        <v>12</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="5">
+        <v>600</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G351" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B352" s="5">
+        <v>2</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E352" s="5">
+        <v>2</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G352" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B353" s="5">
+        <v>2</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E353" s="5">
+        <v>2</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G353" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B354" s="5">
+        <v>2</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E354" s="5">
+        <v>100</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G354" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B355" s="5">
+        <v>2</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E355" s="5">
+        <v>30</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G355" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B356" s="5">
+        <v>2</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E356" s="5">
+        <v>30</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G356" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B357" s="5">
+        <v>2</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E357" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G357" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B358" s="5">
+        <v>2</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E358" s="5">
+        <v>30</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G358" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B359" s="5">
+        <v>2</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E359" s="5">
+        <v>10</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G359" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B360" s="5">
+        <v>2</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E360" s="5">
+        <v>2</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G360" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B361" s="5">
+        <v>2</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E361" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G361" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B362" s="5">
+        <v>2</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E362" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G362" s="2">
+        <v>45838</v>
       </c>
     </row>
   </sheetData>
@@ -8471,10 +9759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="H290" sqref="H290"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="F352" sqref="F352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12641,6 +13929,790 @@
         <v>45831</v>
       </c>
     </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B298" s="6">
+        <v>2</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D298" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B299" s="6">
+        <v>1</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D299" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B300" s="6">
+        <v>25</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D300" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B301" s="6">
+        <v>18</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A302" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B302" s="6">
+        <v>2</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D302" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B303" s="6">
+        <v>2</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D303" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B304" s="6">
+        <v>30</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B305" s="6">
+        <v>2</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D305" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B306" s="6">
+        <v>350</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D306" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B307" s="6">
+        <v>300</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B308" s="6">
+        <v>30</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B309" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D309" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B310" s="6">
+        <v>2</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D310" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B311" s="6">
+        <v>1350</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D311" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B312" s="6">
+        <v>45.6</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D312" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B313" s="6">
+        <v>790</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D313" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B314" s="6">
+        <v>100</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D314" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B315" s="6">
+        <v>1</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B316" s="6">
+        <v>100</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D316" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B317" s="6">
+        <v>2</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D317" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B318" s="6">
+        <v>20</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B319" s="6">
+        <v>14</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D319" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B320" s="6">
+        <v>25</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D320" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B321" s="6">
+        <v>1750</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D321" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B322" s="6">
+        <v>100</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B323" s="6">
+        <v>30</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D323" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B324" s="6">
+        <v>1</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A325" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B325" s="6">
+        <v>35</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D325" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B326" s="6">
+        <v>10</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D326" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B327" s="6">
+        <v>30</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D327" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B328" s="6">
+        <v>4</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D328" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B329" s="6">
+        <v>180</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D329" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A330" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B330" s="6">
+        <v>48</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D330" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A331" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B331" s="6">
+        <v>480</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D331" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B332" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D332" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B333" s="6">
+        <v>15</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D333" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A334" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B334" s="6">
+        <v>4</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D334" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A335" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B335" s="6">
+        <v>150</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A336" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B336" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D336" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A337" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B337" s="6">
+        <v>2</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D337" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B338" s="6">
+        <v>2</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D338" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A339" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B339" s="6">
+        <v>468</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D339" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A340" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B340" s="6">
+        <v>120</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D340" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A341" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B341" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D341" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A342" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B342" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D342" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B343" s="6">
+        <v>700</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A344" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B344" s="6">
+        <v>600</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D344" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B345" s="6">
+        <v>4</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D345" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B346" s="6">
+        <v>4</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D346" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A347" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B347" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D347" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B348" s="6">
+        <v>300</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D348" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B349" s="6">
+        <v>3</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B350" s="6">
+        <v>2</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D350" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B351" s="6">
+        <v>2</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D351" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B352" s="6">
+        <v>300</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D352" s="2">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B353" s="6">
+        <v>284</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D353" s="2">
+        <v>45838</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E907B9-6F41-466D-B6C8-D14A9D075007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABADE00-8D11-4C76-86E3-EBFE30C3BE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11388" yWindow="222" windowWidth="11208" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="187">
   <si>
     <t>Recipe</t>
   </si>
@@ -655,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -663,7 +663,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G362"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="G308" sqref="G308:G362"/>
+    <sheetView tabSelected="1" topLeftCell="B388" workbookViewId="0">
+      <selection activeCell="H406" sqref="H406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8480,22 +8479,22 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A308" s="5" t="s">
+      <c r="A308" t="s">
         <v>143</v>
       </c>
-      <c r="B308" s="5">
+      <c r="B308">
         <v>2</v>
       </c>
-      <c r="C308" s="5" t="s">
+      <c r="C308" t="s">
         <v>144</v>
       </c>
-      <c r="D308" s="5" t="s">
+      <c r="D308" t="s">
         <v>145</v>
       </c>
-      <c r="E308" s="5">
+      <c r="E308">
         <v>2</v>
       </c>
-      <c r="F308" s="5" t="s">
+      <c r="F308" t="s">
         <v>15</v>
       </c>
       <c r="G308" s="2">
@@ -8503,22 +8502,22 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A309" s="5" t="s">
+      <c r="A309" t="s">
         <v>143</v>
       </c>
-      <c r="B309" s="5">
+      <c r="B309">
         <v>2</v>
       </c>
-      <c r="C309" s="5" t="s">
+      <c r="C309" t="s">
         <v>146</v>
       </c>
-      <c r="D309" s="5" t="s">
+      <c r="D309" t="s">
         <v>147</v>
       </c>
-      <c r="E309" s="5">
+      <c r="E309">
         <v>100</v>
       </c>
-      <c r="F309" s="5" t="s">
+      <c r="F309" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2">
@@ -8526,22 +8525,22 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A310" s="5" t="s">
+      <c r="A310" t="s">
         <v>143</v>
       </c>
-      <c r="B310" s="5">
+      <c r="B310">
         <v>2</v>
       </c>
-      <c r="C310" s="5" t="s">
+      <c r="C310" t="s">
         <v>148</v>
       </c>
-      <c r="D310" s="5" t="s">
+      <c r="D310" t="s">
         <v>149</v>
       </c>
-      <c r="E310" s="5">
+      <c r="E310">
         <v>20</v>
       </c>
-      <c r="F310" s="5" t="s">
+      <c r="F310" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2">
@@ -8549,22 +8548,22 @@
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A311" s="5" t="s">
+      <c r="A311" t="s">
         <v>143</v>
       </c>
-      <c r="B311" s="5">
+      <c r="B311">
         <v>2</v>
       </c>
-      <c r="C311" s="5" t="s">
+      <c r="C311" t="s">
         <v>150</v>
       </c>
-      <c r="D311" s="5" t="s">
+      <c r="D311" t="s">
         <v>151</v>
       </c>
-      <c r="E311" s="5">
+      <c r="E311">
         <v>0.5</v>
       </c>
-      <c r="F311" s="5" t="s">
+      <c r="F311" t="s">
         <v>15</v>
       </c>
       <c r="G311" s="2">
@@ -8572,22 +8571,22 @@
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A312" s="5" t="s">
+      <c r="A312" t="s">
         <v>143</v>
       </c>
-      <c r="B312" s="5">
+      <c r="B312">
         <v>2</v>
       </c>
-      <c r="C312" s="5" t="s">
+      <c r="C312" t="s">
         <v>152</v>
       </c>
-      <c r="D312" s="5" t="s">
+      <c r="D312" t="s">
         <v>153</v>
       </c>
-      <c r="E312" s="5">
-        <v>15</v>
-      </c>
-      <c r="F312" s="5" t="s">
+      <c r="E312">
+        <v>15</v>
+      </c>
+      <c r="F312" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2">
@@ -8595,22 +8594,22 @@
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A313" s="5" t="s">
+      <c r="A313" t="s">
         <v>136</v>
       </c>
-      <c r="B313" s="5">
+      <c r="B313">
         <v>4</v>
       </c>
-      <c r="C313" s="5" t="s">
+      <c r="C313" t="s">
         <v>133</v>
       </c>
-      <c r="D313" s="5" t="s">
+      <c r="D313" t="s">
         <v>137</v>
       </c>
-      <c r="E313" s="5">
+      <c r="E313">
         <v>2</v>
       </c>
-      <c r="F313" s="5" t="s">
+      <c r="F313" t="s">
         <v>15</v>
       </c>
       <c r="G313" s="2">
@@ -8618,22 +8617,22 @@
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A314" s="5" t="s">
+      <c r="A314" t="s">
         <v>136</v>
       </c>
-      <c r="B314" s="5">
+      <c r="B314">
         <v>4</v>
       </c>
-      <c r="C314" s="5" t="s">
+      <c r="C314" t="s">
         <v>47</v>
       </c>
-      <c r="D314" s="5" t="s">
+      <c r="D314" t="s">
         <v>48</v>
       </c>
-      <c r="E314" s="5">
+      <c r="E314">
         <v>100</v>
       </c>
-      <c r="F314" s="5" t="s">
+      <c r="F314" t="s">
         <v>70</v>
       </c>
       <c r="G314" s="2">
@@ -8641,22 +8640,22 @@
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A315" s="5" t="s">
+      <c r="A315" t="s">
         <v>136</v>
       </c>
-      <c r="B315" s="5">
+      <c r="B315">
         <v>4</v>
       </c>
-      <c r="C315" s="5" t="s">
+      <c r="C315" t="s">
         <v>134</v>
       </c>
-      <c r="D315" s="5" t="s">
+      <c r="D315" t="s">
         <v>138</v>
       </c>
-      <c r="E315" s="5">
+      <c r="E315">
         <v>48</v>
       </c>
-      <c r="F315" s="5" t="s">
+      <c r="F315" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2">
@@ -8664,22 +8663,22 @@
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A316" s="5" t="s">
+      <c r="A316" t="s">
         <v>136</v>
       </c>
-      <c r="B316" s="5">
+      <c r="B316">
         <v>4</v>
       </c>
-      <c r="C316" s="5" t="s">
+      <c r="C316" t="s">
         <v>64</v>
       </c>
-      <c r="D316" s="5" t="s">
+      <c r="D316" t="s">
         <v>65</v>
       </c>
-      <c r="E316" s="5">
+      <c r="E316">
         <v>200</v>
       </c>
-      <c r="F316" s="5" t="s">
+      <c r="F316" t="s">
         <v>70</v>
       </c>
       <c r="G316" s="2">
@@ -8687,22 +8686,22 @@
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A317" s="5" t="s">
+      <c r="A317" t="s">
         <v>136</v>
       </c>
-      <c r="B317" s="5">
+      <c r="B317">
         <v>4</v>
       </c>
-      <c r="C317" s="5" t="s">
+      <c r="C317" t="s">
         <v>135</v>
       </c>
-      <c r="D317" s="5" t="s">
+      <c r="D317" t="s">
         <v>139</v>
       </c>
-      <c r="E317" s="5">
+      <c r="E317">
         <v>300</v>
       </c>
-      <c r="F317" s="5" t="s">
+      <c r="F317" t="s">
         <v>70</v>
       </c>
       <c r="G317" s="2">
@@ -8710,22 +8709,22 @@
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A318" s="5" t="s">
+      <c r="A318" t="s">
         <v>71</v>
       </c>
-      <c r="B318" s="5">
+      <c r="B318">
         <v>7</v>
       </c>
-      <c r="C318" s="5" t="s">
+      <c r="C318" t="s">
         <v>72</v>
       </c>
-      <c r="D318" s="5" t="s">
+      <c r="D318" t="s">
         <v>73</v>
       </c>
-      <c r="E318" s="5">
+      <c r="E318">
         <v>1750</v>
       </c>
-      <c r="F318" s="5" t="s">
+      <c r="F318" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2">
@@ -8733,22 +8732,22 @@
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A319" s="5" t="s">
+      <c r="A319" t="s">
         <v>71</v>
       </c>
-      <c r="B319" s="5">
+      <c r="B319">
         <v>7</v>
       </c>
-      <c r="C319" s="5" t="s">
+      <c r="C319" t="s">
         <v>28</v>
       </c>
-      <c r="D319" s="5" t="s">
+      <c r="D319" t="s">
         <v>29</v>
       </c>
-      <c r="E319" s="5">
+      <c r="E319">
         <v>700</v>
       </c>
-      <c r="F319" s="5" t="s">
+      <c r="F319" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2">
@@ -8756,22 +8755,22 @@
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A320" s="5" t="s">
+      <c r="A320" t="s">
         <v>71</v>
       </c>
-      <c r="B320" s="5">
+      <c r="B320">
         <v>7</v>
       </c>
-      <c r="C320" s="5" t="s">
+      <c r="C320" t="s">
         <v>74</v>
       </c>
-      <c r="D320" s="5" t="s">
+      <c r="D320" t="s">
         <v>75</v>
       </c>
-      <c r="E320" s="5">
+      <c r="E320">
         <v>700</v>
       </c>
-      <c r="F320" s="5" t="s">
+      <c r="F320" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2">
@@ -8779,22 +8778,22 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A321" s="5" t="s">
+      <c r="A321" t="s">
         <v>71</v>
       </c>
-      <c r="B321" s="5">
+      <c r="B321">
         <v>7</v>
       </c>
-      <c r="C321" s="5" t="s">
+      <c r="C321" t="s">
         <v>76</v>
       </c>
-      <c r="D321" s="5" t="s">
+      <c r="D321" t="s">
         <v>77</v>
       </c>
-      <c r="E321" s="5">
+      <c r="E321">
         <v>350</v>
       </c>
-      <c r="F321" s="5" t="s">
+      <c r="F321" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2">
@@ -8802,22 +8801,22 @@
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A322" s="5" t="s">
+      <c r="A322" t="s">
         <v>71</v>
       </c>
-      <c r="B322" s="5">
+      <c r="B322">
         <v>7</v>
       </c>
-      <c r="C322" s="5" t="s">
+      <c r="C322" t="s">
         <v>18</v>
       </c>
-      <c r="D322" s="5" t="s">
+      <c r="D322" t="s">
         <v>19</v>
       </c>
-      <c r="E322" s="5">
+      <c r="E322">
         <v>28</v>
       </c>
-      <c r="F322" s="5" t="s">
+      <c r="F322" t="s">
         <v>15</v>
       </c>
       <c r="G322" s="2">
@@ -8825,22 +8824,22 @@
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A323" s="5" t="s">
+      <c r="A323" t="s">
         <v>71</v>
       </c>
-      <c r="B323" s="5">
+      <c r="B323">
         <v>7</v>
       </c>
-      <c r="C323" s="5" t="s">
+      <c r="C323" t="s">
         <v>78</v>
       </c>
-      <c r="D323" s="5" t="s">
+      <c r="D323" t="s">
         <v>79</v>
       </c>
-      <c r="E323" s="5">
+      <c r="E323">
         <v>14</v>
       </c>
-      <c r="F323" s="5" t="s">
+      <c r="F323" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2">
@@ -8848,22 +8847,22 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A324" s="5" t="s">
+      <c r="A324" t="s">
         <v>180</v>
       </c>
-      <c r="B324" s="5">
+      <c r="B324">
         <v>2</v>
       </c>
-      <c r="C324" s="5" t="s">
+      <c r="C324" t="s">
         <v>16</v>
       </c>
-      <c r="D324" s="5" t="s">
+      <c r="D324" t="s">
         <v>17</v>
       </c>
-      <c r="E324" s="5">
+      <c r="E324">
         <v>120</v>
       </c>
-      <c r="F324" s="5" t="s">
+      <c r="F324" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2">
@@ -8871,22 +8870,22 @@
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A325" s="5" t="s">
+      <c r="A325" t="s">
         <v>180</v>
       </c>
-      <c r="B325" s="5">
+      <c r="B325">
         <v>2</v>
       </c>
-      <c r="C325" s="5" t="s">
+      <c r="C325" t="s">
         <v>181</v>
       </c>
-      <c r="D325" s="5" t="s">
+      <c r="D325" t="s">
         <v>182</v>
       </c>
-      <c r="E325" s="5">
+      <c r="E325">
         <v>284</v>
       </c>
-      <c r="F325" s="5" t="s">
+      <c r="F325" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2">
@@ -8894,22 +8893,22 @@
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A326" s="5" t="s">
+      <c r="A326" t="s">
         <v>180</v>
       </c>
-      <c r="B326" s="5">
+      <c r="B326">
         <v>2</v>
       </c>
-      <c r="C326" s="5" t="s">
+      <c r="C326" t="s">
         <v>170</v>
       </c>
-      <c r="D326" s="5" t="s">
+      <c r="D326" t="s">
         <v>171</v>
       </c>
-      <c r="E326" s="5">
+      <c r="E326">
         <v>0.5</v>
       </c>
-      <c r="F326" s="5" t="s">
+      <c r="F326" t="s">
         <v>15</v>
       </c>
       <c r="G326" s="2">
@@ -8917,22 +8916,22 @@
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A327" s="5" t="s">
+      <c r="A327" t="s">
         <v>180</v>
       </c>
-      <c r="B327" s="5">
+      <c r="B327">
         <v>2</v>
       </c>
-      <c r="C327" s="5" t="s">
+      <c r="C327" t="s">
         <v>24</v>
       </c>
-      <c r="D327" s="5" t="s">
+      <c r="D327" t="s">
         <v>25</v>
       </c>
-      <c r="E327" s="5">
+      <c r="E327">
         <v>0.5</v>
       </c>
-      <c r="F327" s="5" t="s">
+      <c r="F327" t="s">
         <v>15</v>
       </c>
       <c r="G327" s="2">
@@ -8940,22 +8939,22 @@
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A328" s="5" t="s">
+      <c r="A328" t="s">
         <v>180</v>
       </c>
-      <c r="B328" s="5">
+      <c r="B328">
         <v>2</v>
       </c>
-      <c r="C328" s="5" t="s">
+      <c r="C328" t="s">
         <v>26</v>
       </c>
-      <c r="D328" s="5" t="s">
+      <c r="D328" t="s">
         <v>27</v>
       </c>
-      <c r="E328" s="5">
+      <c r="E328">
         <v>0.34</v>
       </c>
-      <c r="F328" s="5" t="s">
+      <c r="F328" t="s">
         <v>15</v>
       </c>
       <c r="G328" s="2">
@@ -8963,22 +8962,22 @@
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A329" s="5" t="s">
+      <c r="A329" t="s">
         <v>180</v>
       </c>
-      <c r="B329" s="5">
+      <c r="B329">
         <v>2</v>
       </c>
-      <c r="C329" s="5" t="s">
+      <c r="C329" t="s">
         <v>183</v>
       </c>
-      <c r="D329" s="5" t="s">
+      <c r="D329" t="s">
         <v>184</v>
       </c>
-      <c r="E329" s="5">
+      <c r="E329">
         <v>25</v>
       </c>
-      <c r="F329" s="5" t="s">
+      <c r="F329" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2">
@@ -8986,22 +8985,22 @@
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A330" s="5" t="s">
+      <c r="A330" t="s">
         <v>180</v>
       </c>
-      <c r="B330" s="5">
+      <c r="B330">
         <v>2</v>
       </c>
-      <c r="C330" s="5" t="s">
+      <c r="C330" t="s">
         <v>28</v>
       </c>
-      <c r="D330" s="5" t="s">
+      <c r="D330" t="s">
         <v>29</v>
       </c>
-      <c r="E330" s="5">
+      <c r="E330">
         <v>90</v>
       </c>
-      <c r="F330" s="5" t="s">
+      <c r="F330" t="s">
         <v>10</v>
       </c>
       <c r="G330" s="2">
@@ -9009,22 +9008,22 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A331" s="5" t="s">
+      <c r="A331" t="s">
         <v>180</v>
       </c>
-      <c r="B331" s="5">
+      <c r="B331">
         <v>2</v>
       </c>
-      <c r="C331" s="5" t="s">
+      <c r="C331" t="s">
         <v>30</v>
       </c>
-      <c r="D331" s="5" t="s">
+      <c r="D331" t="s">
         <v>31</v>
       </c>
-      <c r="E331" s="5">
+      <c r="E331">
         <v>35</v>
       </c>
-      <c r="F331" s="5" t="s">
+      <c r="F331" t="s">
         <v>10</v>
       </c>
       <c r="G331" s="2">
@@ -9032,22 +9031,22 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A332" s="5" t="s">
+      <c r="A332" t="s">
         <v>180</v>
       </c>
-      <c r="B332" s="5">
+      <c r="B332">
         <v>2</v>
       </c>
-      <c r="C332" s="5" t="s">
+      <c r="C332" t="s">
         <v>18</v>
       </c>
-      <c r="D332" s="5" t="s">
+      <c r="D332" t="s">
         <v>19</v>
       </c>
-      <c r="E332" s="5">
+      <c r="E332">
         <v>2</v>
       </c>
-      <c r="F332" s="5" t="s">
+      <c r="F332" t="s">
         <v>15</v>
       </c>
       <c r="G332" s="2">
@@ -9055,22 +9054,22 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A333" s="5" t="s">
+      <c r="A333" t="s">
         <v>180</v>
       </c>
-      <c r="B333" s="5">
+      <c r="B333">
         <v>2</v>
       </c>
-      <c r="C333" s="5" t="s">
+      <c r="C333" t="s">
         <v>185</v>
       </c>
-      <c r="D333" s="5" t="s">
+      <c r="D333" t="s">
         <v>186</v>
       </c>
-      <c r="E333" s="5">
+      <c r="E333">
         <v>4</v>
       </c>
-      <c r="F333" s="5" t="s">
+      <c r="F333" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2">
@@ -9078,22 +9077,22 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A334" s="5" t="s">
+      <c r="A334" t="s">
         <v>180</v>
       </c>
-      <c r="B334" s="5">
+      <c r="B334">
         <v>2</v>
       </c>
-      <c r="C334" s="5" t="s">
+      <c r="C334" t="s">
         <v>32</v>
       </c>
-      <c r="D334" s="5" t="s">
+      <c r="D334" t="s">
         <v>33</v>
       </c>
-      <c r="E334" s="5">
+      <c r="E334">
         <v>1</v>
       </c>
-      <c r="F334" s="5" t="s">
+      <c r="F334" t="s">
         <v>15</v>
       </c>
       <c r="G334" s="2">
@@ -9101,22 +9100,22 @@
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A335" s="5" t="s">
+      <c r="A335" t="s">
         <v>81</v>
       </c>
-      <c r="B335" s="5">
+      <c r="B335">
         <v>1</v>
       </c>
-      <c r="C335" s="5" t="s">
+      <c r="C335" t="s">
         <v>82</v>
       </c>
-      <c r="D335" s="5" t="s">
+      <c r="D335" t="s">
         <v>83</v>
       </c>
-      <c r="E335" s="5">
+      <c r="E335">
         <v>1</v>
       </c>
-      <c r="F335" s="5" t="s">
+      <c r="F335" t="s">
         <v>15</v>
       </c>
       <c r="G335" s="2">
@@ -9124,22 +9123,22 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A336" s="5" t="s">
+      <c r="A336" t="s">
         <v>81</v>
       </c>
-      <c r="B336" s="5">
+      <c r="B336">
         <v>1</v>
       </c>
-      <c r="C336" s="5" t="s">
+      <c r="C336" t="s">
         <v>84</v>
       </c>
-      <c r="D336" s="5" t="s">
+      <c r="D336" t="s">
         <v>85</v>
       </c>
-      <c r="E336" s="5">
+      <c r="E336">
         <v>75</v>
       </c>
-      <c r="F336" s="5" t="s">
+      <c r="F336" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2">
@@ -9147,22 +9146,22 @@
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A337" s="5" t="s">
+      <c r="A337" t="s">
         <v>81</v>
       </c>
-      <c r="B337" s="5">
+      <c r="B337">
         <v>1</v>
       </c>
-      <c r="C337" s="5" t="s">
+      <c r="C337" t="s">
         <v>64</v>
       </c>
-      <c r="D337" s="5" t="s">
+      <c r="D337" t="s">
         <v>65</v>
       </c>
-      <c r="E337" s="5">
+      <c r="E337">
         <v>50</v>
       </c>
-      <c r="F337" s="5" t="s">
+      <c r="F337" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2">
@@ -9170,22 +9169,22 @@
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A338" s="5" t="s">
+      <c r="A338" t="s">
         <v>86</v>
       </c>
-      <c r="B338" s="5">
+      <c r="B338">
         <v>1</v>
       </c>
-      <c r="C338" s="5" t="s">
+      <c r="C338" t="s">
         <v>82</v>
       </c>
-      <c r="D338" s="5" t="s">
+      <c r="D338" t="s">
         <v>83</v>
       </c>
-      <c r="E338" s="5">
+      <c r="E338">
         <v>1</v>
       </c>
-      <c r="F338" s="5" t="s">
+      <c r="F338" t="s">
         <v>15</v>
       </c>
       <c r="G338" s="2">
@@ -9193,22 +9192,22 @@
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A339" s="5" t="s">
+      <c r="A339" t="s">
         <v>86</v>
       </c>
-      <c r="B339" s="5">
+      <c r="B339">
         <v>1</v>
       </c>
-      <c r="C339" s="5" t="s">
+      <c r="C339" t="s">
         <v>84</v>
       </c>
-      <c r="D339" s="5" t="s">
+      <c r="D339" t="s">
         <v>85</v>
       </c>
-      <c r="E339" s="5">
+      <c r="E339">
         <v>75</v>
       </c>
-      <c r="F339" s="5" t="s">
+      <c r="F339" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2">
@@ -9216,22 +9215,22 @@
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A340" s="5" t="s">
+      <c r="A340" t="s">
         <v>86</v>
       </c>
-      <c r="B340" s="5">
+      <c r="B340">
         <v>1</v>
       </c>
-      <c r="C340" s="5" t="s">
+      <c r="C340" t="s">
         <v>64</v>
       </c>
-      <c r="D340" s="5" t="s">
+      <c r="D340" t="s">
         <v>65</v>
       </c>
-      <c r="E340" s="5">
+      <c r="E340">
         <v>50</v>
       </c>
-      <c r="F340" s="5" t="s">
+      <c r="F340" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2">
@@ -9239,22 +9238,22 @@
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A341" s="5" t="s">
+      <c r="A341" t="s">
         <v>86</v>
       </c>
-      <c r="B341" s="5">
+      <c r="B341">
         <v>1</v>
       </c>
-      <c r="C341" s="5" t="s">
+      <c r="C341" t="s">
         <v>87</v>
       </c>
-      <c r="D341" s="5" t="s">
+      <c r="D341" t="s">
         <v>88</v>
       </c>
-      <c r="E341" s="5">
+      <c r="E341">
         <v>25</v>
       </c>
-      <c r="F341" s="5" t="s">
+      <c r="F341" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2">
@@ -9262,22 +9261,22 @@
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A342" s="5" t="s">
+      <c r="A342" t="s">
         <v>86</v>
       </c>
-      <c r="B342" s="5">
+      <c r="B342">
         <v>1</v>
       </c>
-      <c r="C342" s="5" t="s">
+      <c r="C342" t="s">
         <v>24</v>
       </c>
-      <c r="D342" s="5" t="s">
+      <c r="D342" t="s">
         <v>25</v>
       </c>
-      <c r="E342" s="5">
+      <c r="E342">
         <v>1</v>
       </c>
-      <c r="F342" s="5" t="s">
+      <c r="F342" t="s">
         <v>15</v>
       </c>
       <c r="G342" s="2">
@@ -9285,22 +9284,22 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A343" s="5" t="s">
+      <c r="A343" t="s">
         <v>86</v>
       </c>
-      <c r="B343" s="5">
+      <c r="B343">
         <v>1</v>
       </c>
-      <c r="C343" s="5" t="s">
+      <c r="C343" t="s">
         <v>37</v>
       </c>
-      <c r="D343" s="5" t="s">
+      <c r="D343" t="s">
         <v>38</v>
       </c>
-      <c r="E343" s="5">
+      <c r="E343">
         <v>0.5</v>
       </c>
-      <c r="F343" s="5" t="s">
+      <c r="F343" t="s">
         <v>15</v>
       </c>
       <c r="G343" s="2">
@@ -9308,22 +9307,22 @@
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A344" s="5" t="s">
+      <c r="A344" t="s">
         <v>57</v>
       </c>
-      <c r="B344" s="5">
+      <c r="B344">
         <v>12</v>
       </c>
-      <c r="C344" s="5" t="s">
+      <c r="C344" t="s">
         <v>58</v>
       </c>
-      <c r="D344" s="5" t="s">
+      <c r="D344" t="s">
         <v>59</v>
       </c>
-      <c r="E344" s="5">
+      <c r="E344">
         <v>2</v>
       </c>
-      <c r="F344" s="5" t="s">
+      <c r="F344" t="s">
         <v>15</v>
       </c>
       <c r="G344" s="2">
@@ -9331,22 +9330,22 @@
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A345" s="5" t="s">
+      <c r="A345" t="s">
         <v>57</v>
       </c>
-      <c r="B345" s="5">
+      <c r="B345">
         <v>12</v>
       </c>
-      <c r="C345" s="5" t="s">
+      <c r="C345" t="s">
         <v>60</v>
       </c>
-      <c r="D345" s="5" t="s">
+      <c r="D345" t="s">
         <v>61</v>
       </c>
-      <c r="E345" s="5">
+      <c r="E345">
         <v>468</v>
       </c>
-      <c r="F345" s="5" t="s">
+      <c r="F345" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2">
@@ -9354,22 +9353,22 @@
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A346" s="5" t="s">
+      <c r="A346" t="s">
         <v>57</v>
       </c>
-      <c r="B346" s="5">
+      <c r="B346">
         <v>12</v>
       </c>
-      <c r="C346" s="5" t="s">
+      <c r="C346" t="s">
         <v>62</v>
       </c>
-      <c r="D346" s="5" t="s">
+      <c r="D346" t="s">
         <v>63</v>
       </c>
-      <c r="E346" s="5">
+      <c r="E346">
         <v>300</v>
       </c>
-      <c r="F346" s="5" t="s">
+      <c r="F346" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2">
@@ -9377,22 +9376,22 @@
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A347" s="5" t="s">
+      <c r="A347" t="s">
         <v>57</v>
       </c>
-      <c r="B347" s="5">
+      <c r="B347">
         <v>12</v>
       </c>
-      <c r="C347" s="5" t="s">
+      <c r="C347" t="s">
         <v>64</v>
       </c>
-      <c r="D347" s="5" t="s">
+      <c r="D347" t="s">
         <v>65</v>
       </c>
-      <c r="E347" s="5">
+      <c r="E347">
         <v>180</v>
       </c>
-      <c r="F347" s="5" t="s">
+      <c r="F347" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2">
@@ -9400,22 +9399,22 @@
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A348" s="5" t="s">
+      <c r="A348" t="s">
         <v>57</v>
       </c>
-      <c r="B348" s="5">
+      <c r="B348">
         <v>12</v>
       </c>
-      <c r="C348" s="5" t="s">
+      <c r="C348" t="s">
         <v>53</v>
       </c>
-      <c r="D348" s="5" t="s">
+      <c r="D348" t="s">
         <v>54</v>
       </c>
-      <c r="E348" s="5">
+      <c r="E348">
         <v>9.6000000000000014</v>
       </c>
-      <c r="F348" s="5" t="s">
+      <c r="F348" t="s">
         <v>15</v>
       </c>
       <c r="G348" s="2">
@@ -9423,22 +9422,22 @@
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A349" s="5" t="s">
+      <c r="A349" t="s">
         <v>57</v>
       </c>
-      <c r="B349" s="5">
+      <c r="B349">
         <v>12</v>
       </c>
-      <c r="C349" s="5" t="s">
+      <c r="C349" t="s">
         <v>35</v>
       </c>
-      <c r="D349" s="5" t="s">
+      <c r="D349" t="s">
         <v>36</v>
       </c>
-      <c r="E349" s="5">
+      <c r="E349">
         <v>300</v>
       </c>
-      <c r="F349" s="5" t="s">
+      <c r="F349" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2">
@@ -9446,22 +9445,22 @@
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A350" s="5" t="s">
+      <c r="A350" t="s">
         <v>57</v>
       </c>
-      <c r="B350" s="5">
+      <c r="B350">
         <v>12</v>
       </c>
-      <c r="C350" s="5" t="s">
+      <c r="C350" t="s">
         <v>66</v>
       </c>
-      <c r="D350" s="5" t="s">
+      <c r="D350" t="s">
         <v>67</v>
       </c>
-      <c r="E350" s="5">
+      <c r="E350">
         <v>180</v>
       </c>
-      <c r="F350" s="5" t="s">
+      <c r="F350" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2">
@@ -9469,22 +9468,22 @@
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A351" s="5" t="s">
+      <c r="A351" t="s">
         <v>57</v>
       </c>
-      <c r="B351" s="5">
+      <c r="B351">
         <v>12</v>
       </c>
-      <c r="C351" s="5" t="s">
+      <c r="C351" t="s">
         <v>68</v>
       </c>
-      <c r="D351" s="5" t="s">
+      <c r="D351" t="s">
         <v>69</v>
       </c>
-      <c r="E351" s="5">
+      <c r="E351">
         <v>600</v>
       </c>
-      <c r="F351" s="5" t="s">
+      <c r="F351" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2">
@@ -9492,22 +9491,22 @@
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A352" s="5" t="s">
+      <c r="A352" t="s">
         <v>161</v>
       </c>
-      <c r="B352" s="5">
+      <c r="B352">
         <v>2</v>
       </c>
-      <c r="C352" s="5" t="s">
+      <c r="C352" t="s">
         <v>162</v>
       </c>
-      <c r="D352" s="5" t="s">
+      <c r="D352" t="s">
         <v>163</v>
       </c>
-      <c r="E352" s="5">
+      <c r="E352">
         <v>2</v>
       </c>
-      <c r="F352" s="5" t="s">
+      <c r="F352" t="s">
         <v>15</v>
       </c>
       <c r="G352" s="2">
@@ -9515,22 +9514,22 @@
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A353" s="5" t="s">
+      <c r="A353" t="s">
         <v>161</v>
       </c>
-      <c r="B353" s="5">
+      <c r="B353">
         <v>2</v>
       </c>
-      <c r="C353" s="5" t="s">
+      <c r="C353" t="s">
         <v>164</v>
       </c>
-      <c r="D353" s="5" t="s">
+      <c r="D353" t="s">
         <v>165</v>
       </c>
-      <c r="E353" s="5">
+      <c r="E353">
         <v>2</v>
       </c>
-      <c r="F353" s="5" t="s">
+      <c r="F353" t="s">
         <v>15</v>
       </c>
       <c r="G353" s="2">
@@ -9538,22 +9537,22 @@
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A354" s="5" t="s">
+      <c r="A354" t="s">
         <v>161</v>
       </c>
-      <c r="B354" s="5">
+      <c r="B354">
         <v>2</v>
       </c>
-      <c r="C354" s="5" t="s">
+      <c r="C354" t="s">
         <v>105</v>
       </c>
-      <c r="D354" s="5" t="s">
+      <c r="D354" t="s">
         <v>128</v>
       </c>
-      <c r="E354" s="5">
+      <c r="E354">
         <v>100</v>
       </c>
-      <c r="F354" s="5" t="s">
+      <c r="F354" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="2">
@@ -9561,22 +9560,22 @@
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A355" s="5" t="s">
+      <c r="A355" t="s">
         <v>161</v>
       </c>
-      <c r="B355" s="5">
+      <c r="B355">
         <v>2</v>
       </c>
-      <c r="C355" s="5" t="s">
+      <c r="C355" t="s">
         <v>166</v>
       </c>
-      <c r="D355" s="5" t="s">
+      <c r="D355" t="s">
         <v>167</v>
       </c>
-      <c r="E355" s="5">
+      <c r="E355">
         <v>30</v>
       </c>
-      <c r="F355" s="5" t="s">
+      <c r="F355" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2">
@@ -9584,22 +9583,22 @@
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A356" s="5" t="s">
+      <c r="A356" t="s">
         <v>161</v>
       </c>
-      <c r="B356" s="5">
+      <c r="B356">
         <v>2</v>
       </c>
-      <c r="C356" s="5" t="s">
+      <c r="C356" t="s">
         <v>168</v>
       </c>
-      <c r="D356" s="5" t="s">
+      <c r="D356" t="s">
         <v>169</v>
       </c>
-      <c r="E356" s="5">
+      <c r="E356">
         <v>30</v>
       </c>
-      <c r="F356" s="5" t="s">
+      <c r="F356" t="s">
         <v>10</v>
       </c>
       <c r="G356" s="2">
@@ -9607,22 +9606,22 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A357" s="5" t="s">
+      <c r="A357" t="s">
         <v>161</v>
       </c>
-      <c r="B357" s="5">
+      <c r="B357">
         <v>2</v>
       </c>
-      <c r="C357" s="5" t="s">
+      <c r="C357" t="s">
         <v>170</v>
       </c>
-      <c r="D357" s="5" t="s">
+      <c r="D357" t="s">
         <v>171</v>
       </c>
-      <c r="E357" s="5">
+      <c r="E357">
         <v>0.5</v>
       </c>
-      <c r="F357" s="5" t="s">
+      <c r="F357" t="s">
         <v>15</v>
       </c>
       <c r="G357" s="2">
@@ -9630,22 +9629,22 @@
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A358" s="5" t="s">
+      <c r="A358" t="s">
         <v>161</v>
       </c>
-      <c r="B358" s="5">
+      <c r="B358">
         <v>2</v>
       </c>
-      <c r="C358" s="5" t="s">
+      <c r="C358" t="s">
         <v>157</v>
       </c>
-      <c r="D358" s="5" t="s">
+      <c r="D358" t="s">
         <v>158</v>
       </c>
-      <c r="E358" s="5">
+      <c r="E358">
         <v>30</v>
       </c>
-      <c r="F358" s="5" t="s">
+      <c r="F358" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2">
@@ -9653,22 +9652,22 @@
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A359" s="5" t="s">
+      <c r="A359" t="s">
         <v>161</v>
       </c>
-      <c r="B359" s="5">
+      <c r="B359">
         <v>2</v>
       </c>
-      <c r="C359" s="5" t="s">
+      <c r="C359" t="s">
         <v>172</v>
       </c>
-      <c r="D359" s="5" t="s">
+      <c r="D359" t="s">
         <v>173</v>
       </c>
-      <c r="E359" s="5">
-        <v>10</v>
-      </c>
-      <c r="F359" s="5" t="s">
+      <c r="E359">
+        <v>10</v>
+      </c>
+      <c r="F359" t="s">
         <v>10</v>
       </c>
       <c r="G359" s="2">
@@ -9676,22 +9675,22 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A360" s="5" t="s">
+      <c r="A360" t="s">
         <v>161</v>
       </c>
-      <c r="B360" s="5">
+      <c r="B360">
         <v>2</v>
       </c>
-      <c r="C360" s="5" t="s">
+      <c r="C360" t="s">
         <v>32</v>
       </c>
-      <c r="D360" s="5" t="s">
+      <c r="D360" t="s">
         <v>33</v>
       </c>
-      <c r="E360" s="5">
+      <c r="E360">
         <v>2</v>
       </c>
-      <c r="F360" s="5" t="s">
+      <c r="F360" t="s">
         <v>15</v>
       </c>
       <c r="G360" s="2">
@@ -9699,22 +9698,22 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A361" s="5" t="s">
+      <c r="A361" t="s">
         <v>161</v>
       </c>
-      <c r="B361" s="5">
+      <c r="B361">
         <v>2</v>
       </c>
-      <c r="C361" s="5" t="s">
+      <c r="C361" t="s">
         <v>110</v>
       </c>
-      <c r="D361" s="5" t="s">
+      <c r="D361" t="s">
         <v>117</v>
       </c>
-      <c r="E361" s="5">
+      <c r="E361">
         <v>0.2</v>
       </c>
-      <c r="F361" s="5" t="s">
+      <c r="F361" t="s">
         <v>15</v>
       </c>
       <c r="G361" s="2">
@@ -9722,26 +9721,1153 @@
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A362" s="5" t="s">
+      <c r="A362" t="s">
         <v>161</v>
       </c>
-      <c r="B362" s="5">
+      <c r="B362">
         <v>2</v>
       </c>
-      <c r="C362" s="5" t="s">
+      <c r="C362" t="s">
         <v>174</v>
       </c>
-      <c r="D362" s="5" t="s">
+      <c r="D362" t="s">
         <v>179</v>
       </c>
-      <c r="E362" s="5">
+      <c r="E362">
         <v>0.3</v>
       </c>
-      <c r="F362" s="5" t="s">
+      <c r="F362" t="s">
         <v>15</v>
       </c>
       <c r="G362" s="2">
         <v>45838</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B363" s="5">
+        <v>4</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E363" s="5">
+        <v>2</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G363" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B364" s="5">
+        <v>4</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E364" s="5">
+        <v>100</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G364" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B365" s="5">
+        <v>4</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E365" s="5">
+        <v>48</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G365" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B366" s="5">
+        <v>4</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E366" s="5">
+        <v>200</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G366" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B367" s="5">
+        <v>4</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E367" s="5">
+        <v>300</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G367" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B368" s="5">
+        <v>4</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E368" s="5">
+        <v>256</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G368" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B369" s="5">
+        <v>4</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E369" s="5">
+        <v>1</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G369" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B370" s="5">
+        <v>4</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E370" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G370" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A371" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B371" s="5">
+        <v>4</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E371" s="5">
+        <v>1</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G371" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A372" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B372" s="5">
+        <v>4</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E372" s="5">
+        <v>2</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G372" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B373" s="5">
+        <v>4</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E373" s="5">
+        <v>200</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G373" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B374" s="5">
+        <v>4</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E374" s="5">
+        <v>40</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G374" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B375" s="5">
+        <v>4</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E375" s="5">
+        <v>50</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G375" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B376" s="5">
+        <v>4</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E376" s="5">
+        <v>50</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G376" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B377" s="5">
+        <v>4</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E377" s="5">
+        <v>40</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G377" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B378" s="5">
+        <v>4</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E378" s="5">
+        <v>120</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G378" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A379" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B379" s="5">
+        <v>4</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E379" s="5">
+        <v>12</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G379" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B380" s="5">
+        <v>4</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E380" s="5">
+        <v>400</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G380" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B381" s="5">
+        <v>2</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E381" s="5">
+        <v>128</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G381" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A382" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B382" s="5">
+        <v>2</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E382" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G382" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B383" s="5">
+        <v>2</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E383" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G383" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B384" s="5">
+        <v>2</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E384" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G384" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B385" s="5">
+        <v>2</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E385" s="5">
+        <v>1</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G385" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A386" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B386" s="5">
+        <v>2</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E386" s="5">
+        <v>100</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G386" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A387" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B387" s="5">
+        <v>2</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E387" s="5">
+        <v>20</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G387" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A388" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B388" s="5">
+        <v>2</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E388" s="5">
+        <v>25</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A389" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B389" s="5">
+        <v>2</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E389" s="5">
+        <v>25</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A390" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B390" s="5">
+        <v>2</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E390" s="5">
+        <v>20</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G390" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A391" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B391" s="5">
+        <v>2</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E391" s="5">
+        <v>60</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A392" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B392" s="5">
+        <v>2</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D392" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E392" s="5">
+        <v>6</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G392" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A393" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B393" s="5">
+        <v>4</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E393" s="5">
+        <v>240</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G393" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A394" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B394" s="5">
+        <v>4</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D394" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E394" s="5">
+        <v>256</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G394" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A395" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B395" s="5">
+        <v>4</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D395" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E395" s="5">
+        <v>1</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G395" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A396" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B396" s="5">
+        <v>4</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D396" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E396" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G396" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A397" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B397" s="5">
+        <v>4</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D397" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E397" s="5">
+        <v>1</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G397" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A398" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B398" s="5">
+        <v>4</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D398" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E398" s="5">
+        <v>2</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G398" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A399" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B399" s="5">
+        <v>4</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D399" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E399" s="5">
+        <v>200</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G399" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A400" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B400" s="5">
+        <v>4</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D400" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E400" s="5">
+        <v>40</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G400" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A401" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B401" s="5">
+        <v>4</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D401" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E401" s="5">
+        <v>50</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G401" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A402" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B402" s="5">
+        <v>4</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E402" s="5">
+        <v>50</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G402" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A403" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B403" s="5">
+        <v>4</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D403" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E403" s="5">
+        <v>40</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G403" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A404" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B404" s="5">
+        <v>4</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D404" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E404" s="5">
+        <v>120</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G404" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A405" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B405" s="5">
+        <v>4</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D405" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E405" s="5">
+        <v>12</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G405" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B406" s="5">
+        <v>4</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D406" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E406" s="5">
+        <v>8</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G406" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A407" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B407" s="5">
+        <v>4</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D407" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E407" s="5">
+        <v>120</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G407" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A408" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B408" s="5">
+        <v>3</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D408" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E408" s="5">
+        <v>300</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G408" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A409" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B409" s="5">
+        <v>3</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D409" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E409" s="5">
+        <v>480</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G409" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A410" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B410" s="5">
+        <v>3</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E410" s="5">
+        <v>150</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G410" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A411" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B411" s="5">
+        <v>3</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D411" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E411" s="5">
+        <v>135</v>
+      </c>
+      <c r="F411" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G411" s="2">
+        <v>45844</v>
       </c>
     </row>
   </sheetData>
@@ -9759,10 +10885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="F352" sqref="F352"/>
+    <sheetView topLeftCell="A363" workbookViewId="0">
+      <selection activeCell="D354" sqref="D354:D386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13930,13 +15056,13 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A298" s="6" t="s">
+      <c r="A298" t="s">
         <v>132</v>
       </c>
-      <c r="B298" s="6">
+      <c r="B298">
         <v>2</v>
       </c>
-      <c r="C298" s="6" t="s">
+      <c r="C298" t="s">
         <v>15</v>
       </c>
       <c r="D298" s="2">
@@ -13944,13 +15070,13 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A299" s="6" t="s">
+      <c r="A299" t="s">
         <v>101</v>
       </c>
-      <c r="B299" s="6">
+      <c r="B299">
         <v>1</v>
       </c>
-      <c r="C299" s="6" t="s">
+      <c r="C299" t="s">
         <v>15</v>
       </c>
       <c r="D299" s="2">
@@ -13958,13 +15084,13 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="6" t="s">
+      <c r="A300" t="s">
         <v>87</v>
       </c>
-      <c r="B300" s="6">
+      <c r="B300">
         <v>25</v>
       </c>
-      <c r="C300" s="6" t="s">
+      <c r="C300" t="s">
         <v>10</v>
       </c>
       <c r="D300" s="2">
@@ -13972,13 +15098,13 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A301" s="6" t="s">
+      <c r="A301" t="s">
         <v>102</v>
       </c>
-      <c r="B301" s="6">
+      <c r="B301">
         <v>18</v>
       </c>
-      <c r="C301" s="6" t="s">
+      <c r="C301" t="s">
         <v>15</v>
       </c>
       <c r="D301" s="2">
@@ -13986,13 +15112,13 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A302" s="6" t="s">
+      <c r="A302" t="s">
         <v>133</v>
       </c>
-      <c r="B302" s="6">
+      <c r="B302">
         <v>2</v>
       </c>
-      <c r="C302" s="6" t="s">
+      <c r="C302" t="s">
         <v>15</v>
       </c>
       <c r="D302" s="2">
@@ -14000,13 +15126,13 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" s="6" t="s">
+      <c r="A303" t="s">
         <v>94</v>
       </c>
-      <c r="B303" s="6">
+      <c r="B303">
         <v>2</v>
       </c>
-      <c r="C303" s="6" t="s">
+      <c r="C303" t="s">
         <v>15</v>
       </c>
       <c r="D303" s="2">
@@ -14014,13 +15140,13 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A304" s="6" t="s">
+      <c r="A304" t="s">
         <v>157</v>
       </c>
-      <c r="B304" s="6">
+      <c r="B304">
         <v>30</v>
       </c>
-      <c r="C304" s="6" t="s">
+      <c r="C304" t="s">
         <v>10</v>
       </c>
       <c r="D304" s="2">
@@ -14028,13 +15154,13 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A305" s="6" t="s">
+      <c r="A305" t="s">
         <v>58</v>
       </c>
-      <c r="B305" s="6">
+      <c r="B305">
         <v>2</v>
       </c>
-      <c r="C305" s="6" t="s">
+      <c r="C305" t="s">
         <v>15</v>
       </c>
       <c r="D305" s="2">
@@ -14042,13 +15168,13 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A306" s="6" t="s">
+      <c r="A306" t="s">
         <v>76</v>
       </c>
-      <c r="B306" s="6">
+      <c r="B306">
         <v>350</v>
       </c>
-      <c r="C306" s="6" t="s">
+      <c r="C306" t="s">
         <v>10</v>
       </c>
       <c r="D306" s="2">
@@ -14056,13 +15182,13 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A307" s="6" t="s">
+      <c r="A307" t="s">
         <v>35</v>
       </c>
-      <c r="B307" s="6">
+      <c r="B307">
         <v>300</v>
       </c>
-      <c r="C307" s="6" t="s">
+      <c r="C307" t="s">
         <v>10</v>
       </c>
       <c r="D307" s="2">
@@ -14070,13 +15196,13 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A308" s="6" t="s">
+      <c r="A308" t="s">
         <v>168</v>
       </c>
-      <c r="B308" s="6">
+      <c r="B308">
         <v>30</v>
       </c>
-      <c r="C308" s="6" t="s">
+      <c r="C308" t="s">
         <v>10</v>
       </c>
       <c r="D308" s="2">
@@ -14084,13 +15210,13 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A309" s="6" t="s">
+      <c r="A309" t="s">
         <v>37</v>
       </c>
-      <c r="B309" s="6">
+      <c r="B309">
         <v>0.5</v>
       </c>
-      <c r="C309" s="6" t="s">
+      <c r="C309" t="s">
         <v>15</v>
       </c>
       <c r="D309" s="2">
@@ -14098,13 +15224,13 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A310" s="6" t="s">
+      <c r="A310" t="s">
         <v>95</v>
       </c>
-      <c r="B310" s="6">
+      <c r="B310">
         <v>2</v>
       </c>
-      <c r="C310" s="6" t="s">
+      <c r="C310" t="s">
         <v>15</v>
       </c>
       <c r="D310" s="2">
@@ -14112,13 +15238,13 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A311" s="6" t="s">
+      <c r="A311" t="s">
         <v>43</v>
       </c>
-      <c r="B311" s="6">
+      <c r="B311">
         <v>1350</v>
       </c>
-      <c r="C311" s="6" t="s">
+      <c r="C311" t="s">
         <v>10</v>
       </c>
       <c r="D311" s="2">
@@ -14126,13 +15252,13 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A312" s="6" t="s">
+      <c r="A312" t="s">
         <v>53</v>
       </c>
-      <c r="B312" s="6">
+      <c r="B312">
         <v>45.6</v>
       </c>
-      <c r="C312" s="6" t="s">
+      <c r="C312" t="s">
         <v>15</v>
       </c>
       <c r="D312" s="2">
@@ -14140,13 +15266,13 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A313" s="6" t="s">
+      <c r="A313" t="s">
         <v>28</v>
       </c>
-      <c r="B313" s="6">
+      <c r="B313">
         <v>790</v>
       </c>
-      <c r="C313" s="6" t="s">
+      <c r="C313" t="s">
         <v>10</v>
       </c>
       <c r="D313" s="2">
@@ -14154,13 +15280,13 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A314" s="6" t="s">
+      <c r="A314" t="s">
         <v>146</v>
       </c>
-      <c r="B314" s="6">
+      <c r="B314">
         <v>100</v>
       </c>
-      <c r="C314" s="6" t="s">
+      <c r="C314" t="s">
         <v>10</v>
       </c>
       <c r="D314" s="2">
@@ -14168,13 +15294,13 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A315" s="6" t="s">
+      <c r="A315" t="s">
         <v>178</v>
       </c>
-      <c r="B315" s="6">
+      <c r="B315">
         <v>1</v>
       </c>
-      <c r="C315" s="6" t="s">
+      <c r="C315" t="s">
         <v>15</v>
       </c>
       <c r="D315" s="2">
@@ -14182,13 +15308,13 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A316" s="6" t="s">
+      <c r="A316" t="s">
         <v>105</v>
       </c>
-      <c r="B316" s="6">
+      <c r="B316">
         <v>100</v>
       </c>
-      <c r="C316" s="6" t="s">
+      <c r="C316" t="s">
         <v>10</v>
       </c>
       <c r="D316" s="2">
@@ -14196,13 +15322,13 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A317" s="6" t="s">
+      <c r="A317" t="s">
         <v>164</v>
       </c>
-      <c r="B317" s="6">
+      <c r="B317">
         <v>2</v>
       </c>
-      <c r="C317" s="6" t="s">
+      <c r="C317" t="s">
         <v>15</v>
       </c>
       <c r="D317" s="2">
@@ -14210,13 +15336,13 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A318" s="6" t="s">
+      <c r="A318" t="s">
         <v>148</v>
       </c>
-      <c r="B318" s="6">
+      <c r="B318">
         <v>20</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="C318" t="s">
         <v>10</v>
       </c>
       <c r="D318" s="2">
@@ -14224,13 +15350,13 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A319" s="6" t="s">
+      <c r="A319" t="s">
         <v>78</v>
       </c>
-      <c r="B319" s="6">
+      <c r="B319">
         <v>14</v>
       </c>
-      <c r="C319" s="6" t="s">
+      <c r="C319" t="s">
         <v>10</v>
       </c>
       <c r="D319" s="2">
@@ -14238,13 +15364,13 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A320" s="6" t="s">
+      <c r="A320" t="s">
         <v>183</v>
       </c>
-      <c r="B320" s="6">
+      <c r="B320">
         <v>25</v>
       </c>
-      <c r="C320" s="6" t="s">
+      <c r="C320" t="s">
         <v>10</v>
       </c>
       <c r="D320" s="2">
@@ -14252,13 +15378,13 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A321" s="6" t="s">
+      <c r="A321" t="s">
         <v>72</v>
       </c>
-      <c r="B321" s="6">
+      <c r="B321">
         <v>1750</v>
       </c>
-      <c r="C321" s="6" t="s">
+      <c r="C321" t="s">
         <v>10</v>
       </c>
       <c r="D321" s="2">
@@ -14266,13 +15392,13 @@
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A322" s="6" t="s">
+      <c r="A322" t="s">
         <v>47</v>
       </c>
-      <c r="B322" s="6">
+      <c r="B322">
         <v>100</v>
       </c>
-      <c r="C322" s="6" t="s">
+      <c r="C322" t="s">
         <v>10</v>
       </c>
       <c r="D322" s="2">
@@ -14280,13 +15406,13 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A323" s="6" t="s">
+      <c r="A323" t="s">
         <v>18</v>
       </c>
-      <c r="B323" s="6">
+      <c r="B323">
         <v>30</v>
       </c>
-      <c r="C323" s="6" t="s">
+      <c r="C323" t="s">
         <v>15</v>
       </c>
       <c r="D323" s="2">
@@ -14294,13 +15420,13 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A324" s="6" t="s">
+      <c r="A324" t="s">
         <v>170</v>
       </c>
-      <c r="B324" s="6">
+      <c r="B324">
         <v>1</v>
       </c>
-      <c r="C324" s="6" t="s">
+      <c r="C324" t="s">
         <v>15</v>
       </c>
       <c r="D324" s="2">
@@ -14308,13 +15434,13 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A325" s="6" t="s">
+      <c r="A325" t="s">
         <v>30</v>
       </c>
-      <c r="B325" s="6">
+      <c r="B325">
         <v>35</v>
       </c>
-      <c r="C325" s="6" t="s">
+      <c r="C325" t="s">
         <v>10</v>
       </c>
       <c r="D325" s="2">
@@ -14322,13 +15448,13 @@
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A326" s="6" t="s">
+      <c r="A326" t="s">
         <v>172</v>
       </c>
-      <c r="B326" s="6">
-        <v>10</v>
-      </c>
-      <c r="C326" s="6" t="s">
+      <c r="B326">
+        <v>10</v>
+      </c>
+      <c r="C326" t="s">
         <v>10</v>
       </c>
       <c r="D326" s="2">
@@ -14336,13 +15462,13 @@
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A327" s="6" t="s">
+      <c r="A327" t="s">
         <v>166</v>
       </c>
-      <c r="B327" s="6">
+      <c r="B327">
         <v>30</v>
       </c>
-      <c r="C327" s="6" t="s">
+      <c r="C327" t="s">
         <v>10</v>
       </c>
       <c r="D327" s="2">
@@ -14350,13 +15476,13 @@
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A328" s="6" t="s">
+      <c r="A328" t="s">
         <v>55</v>
       </c>
-      <c r="B328" s="6">
+      <c r="B328">
         <v>4</v>
       </c>
-      <c r="C328" s="6" t="s">
+      <c r="C328" t="s">
         <v>15</v>
       </c>
       <c r="D328" s="2">
@@ -14364,13 +15490,13 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A329" s="6" t="s">
+      <c r="A329" t="s">
         <v>66</v>
       </c>
-      <c r="B329" s="6">
+      <c r="B329">
         <v>180</v>
       </c>
-      <c r="C329" s="6" t="s">
+      <c r="C329" t="s">
         <v>10</v>
       </c>
       <c r="D329" s="2">
@@ -14378,13 +15504,13 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A330" s="6" t="s">
+      <c r="A330" t="s">
         <v>134</v>
       </c>
-      <c r="B330" s="6">
+      <c r="B330">
         <v>48</v>
       </c>
-      <c r="C330" s="6" t="s">
+      <c r="C330" t="s">
         <v>10</v>
       </c>
       <c r="D330" s="2">
@@ -14392,13 +15518,13 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A331" s="6" t="s">
+      <c r="A331" t="s">
         <v>64</v>
       </c>
-      <c r="B331" s="6">
+      <c r="B331">
         <v>480</v>
       </c>
-      <c r="C331" s="6" t="s">
+      <c r="C331" t="s">
         <v>10</v>
       </c>
       <c r="D331" s="2">
@@ -14406,13 +15532,13 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A332" s="6" t="s">
+      <c r="A332" t="s">
         <v>174</v>
       </c>
-      <c r="B332" s="6">
+      <c r="B332">
         <v>0.3</v>
       </c>
-      <c r="C332" s="6" t="s">
+      <c r="C332" t="s">
         <v>15</v>
       </c>
       <c r="D332" s="2">
@@ -14420,13 +15546,13 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A333" s="6" t="s">
+      <c r="A333" t="s">
         <v>152</v>
       </c>
-      <c r="B333" s="6">
-        <v>15</v>
-      </c>
-      <c r="C333" s="6" t="s">
+      <c r="B333">
+        <v>15</v>
+      </c>
+      <c r="C333" t="s">
         <v>10</v>
       </c>
       <c r="D333" s="2">
@@ -14434,13 +15560,13 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A334" s="6" t="s">
+      <c r="A334" t="s">
         <v>185</v>
       </c>
-      <c r="B334" s="6">
+      <c r="B334">
         <v>4</v>
       </c>
-      <c r="C334" s="6" t="s">
+      <c r="C334" t="s">
         <v>10</v>
       </c>
       <c r="D334" s="2">
@@ -14448,13 +15574,13 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A335" s="6" t="s">
+      <c r="A335" t="s">
         <v>84</v>
       </c>
-      <c r="B335" s="6">
+      <c r="B335">
         <v>150</v>
       </c>
-      <c r="C335" s="6" t="s">
+      <c r="C335" t="s">
         <v>10</v>
       </c>
       <c r="D335" s="2">
@@ -14462,13 +15588,13 @@
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A336" s="6" t="s">
+      <c r="A336" t="s">
         <v>150</v>
       </c>
-      <c r="B336" s="6">
+      <c r="B336">
         <v>0.5</v>
       </c>
-      <c r="C336" s="6" t="s">
+      <c r="C336" t="s">
         <v>15</v>
       </c>
       <c r="D336" s="2">
@@ -14476,13 +15602,13 @@
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A337" s="6" t="s">
+      <c r="A337" t="s">
         <v>82</v>
       </c>
-      <c r="B337" s="6">
+      <c r="B337">
         <v>2</v>
       </c>
-      <c r="C337" s="6" t="s">
+      <c r="C337" t="s">
         <v>15</v>
       </c>
       <c r="D337" s="2">
@@ -14490,13 +15616,13 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A338" s="6" t="s">
+      <c r="A338" t="s">
         <v>144</v>
       </c>
-      <c r="B338" s="6">
+      <c r="B338">
         <v>2</v>
       </c>
-      <c r="C338" s="6" t="s">
+      <c r="C338" t="s">
         <v>15</v>
       </c>
       <c r="D338" s="2">
@@ -14504,13 +15630,13 @@
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A339" s="6" t="s">
+      <c r="A339" t="s">
         <v>60</v>
       </c>
-      <c r="B339" s="6">
+      <c r="B339">
         <v>468</v>
       </c>
-      <c r="C339" s="6" t="s">
+      <c r="C339" t="s">
         <v>10</v>
       </c>
       <c r="D339" s="2">
@@ -14518,13 +15644,13 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A340" s="6" t="s">
+      <c r="A340" t="s">
         <v>16</v>
       </c>
-      <c r="B340" s="6">
+      <c r="B340">
         <v>120</v>
       </c>
-      <c r="C340" s="6" t="s">
+      <c r="C340" t="s">
         <v>10</v>
       </c>
       <c r="D340" s="2">
@@ -14532,13 +15658,13 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A341" s="6" t="s">
+      <c r="A341" t="s">
         <v>26</v>
       </c>
-      <c r="B341" s="6">
+      <c r="B341">
         <v>0.34</v>
       </c>
-      <c r="C341" s="6" t="s">
+      <c r="C341" t="s">
         <v>15</v>
       </c>
       <c r="D341" s="2">
@@ -14546,13 +15672,13 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A342" s="6" t="s">
+      <c r="A342" t="s">
         <v>24</v>
       </c>
-      <c r="B342" s="6">
+      <c r="B342">
         <v>1.5</v>
       </c>
-      <c r="C342" s="6" t="s">
+      <c r="C342" t="s">
         <v>15</v>
       </c>
       <c r="D342" s="2">
@@ -14560,13 +15686,13 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A343" s="6" t="s">
+      <c r="A343" t="s">
         <v>74</v>
       </c>
-      <c r="B343" s="6">
+      <c r="B343">
         <v>700</v>
       </c>
-      <c r="C343" s="6" t="s">
+      <c r="C343" t="s">
         <v>10</v>
       </c>
       <c r="D343" s="2">
@@ -14574,13 +15700,13 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A344" s="6" t="s">
+      <c r="A344" t="s">
         <v>68</v>
       </c>
-      <c r="B344" s="6">
+      <c r="B344">
         <v>600</v>
       </c>
-      <c r="C344" s="6" t="s">
+      <c r="C344" t="s">
         <v>10</v>
       </c>
       <c r="D344" s="2">
@@ -14588,13 +15714,13 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A345" s="6" t="s">
+      <c r="A345" t="s">
         <v>96</v>
       </c>
-      <c r="B345" s="6">
+      <c r="B345">
         <v>4</v>
       </c>
-      <c r="C345" s="6" t="s">
+      <c r="C345" t="s">
         <v>15</v>
       </c>
       <c r="D345" s="2">
@@ -14602,13 +15728,13 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A346" s="6" t="s">
+      <c r="A346" t="s">
         <v>109</v>
       </c>
-      <c r="B346" s="6">
+      <c r="B346">
         <v>4</v>
       </c>
-      <c r="C346" s="6" t="s">
+      <c r="C346" t="s">
         <v>15</v>
       </c>
       <c r="D346" s="2">
@@ -14616,13 +15742,13 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A347" s="6" t="s">
+      <c r="A347" t="s">
         <v>110</v>
       </c>
-      <c r="B347" s="6">
+      <c r="B347">
         <v>0.2</v>
       </c>
-      <c r="C347" s="6" t="s">
+      <c r="C347" t="s">
         <v>15</v>
       </c>
       <c r="D347" s="2">
@@ -14630,13 +15756,13 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A348" s="6" t="s">
+      <c r="A348" t="s">
         <v>135</v>
       </c>
-      <c r="B348" s="6">
+      <c r="B348">
         <v>300</v>
       </c>
-      <c r="C348" s="6" t="s">
+      <c r="C348" t="s">
         <v>10</v>
       </c>
       <c r="D348" s="2">
@@ -14644,13 +15770,13 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A349" s="6" t="s">
+      <c r="A349" t="s">
         <v>32</v>
       </c>
-      <c r="B349" s="6">
+      <c r="B349">
         <v>3</v>
       </c>
-      <c r="C349" s="6" t="s">
+      <c r="C349" t="s">
         <v>15</v>
       </c>
       <c r="D349" s="2">
@@ -14658,13 +15784,13 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A350" s="6" t="s">
+      <c r="A350" t="s">
         <v>97</v>
       </c>
-      <c r="B350" s="6">
+      <c r="B350">
         <v>2</v>
       </c>
-      <c r="C350" s="6" t="s">
+      <c r="C350" t="s">
         <v>15</v>
       </c>
       <c r="D350" s="2">
@@ -14672,13 +15798,13 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A351" s="6" t="s">
+      <c r="A351" t="s">
         <v>162</v>
       </c>
-      <c r="B351" s="6">
+      <c r="B351">
         <v>2</v>
       </c>
-      <c r="C351" s="6" t="s">
+      <c r="C351" t="s">
         <v>15</v>
       </c>
       <c r="D351" s="2">
@@ -14686,13 +15812,13 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A352" s="6" t="s">
+      <c r="A352" t="s">
         <v>62</v>
       </c>
-      <c r="B352" s="6">
+      <c r="B352">
         <v>300</v>
       </c>
-      <c r="C352" s="6" t="s">
+      <c r="C352" t="s">
         <v>10</v>
       </c>
       <c r="D352" s="2">
@@ -14700,17 +15826,479 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A353" s="6" t="s">
+      <c r="A353" t="s">
         <v>181</v>
       </c>
-      <c r="B353" s="6">
+      <c r="B353">
         <v>284</v>
       </c>
-      <c r="C353" s="6" t="s">
+      <c r="C353" t="s">
         <v>10</v>
       </c>
       <c r="D353" s="2">
         <v>45838</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B354" s="5">
+        <v>2</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D354" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B355" s="5">
+        <v>1</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D355" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B356" s="5">
+        <v>20</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D356" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B357" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D357" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B358" s="5">
+        <v>4</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D358" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B359" s="5">
+        <v>1</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D359" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B360" s="5">
+        <v>640</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D360" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B361" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D361" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B362" s="5">
+        <v>1</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D362" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B363" s="5">
+        <v>1850</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D363" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B364" s="5">
+        <v>48</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D364" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B365" s="5">
+        <v>1</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D365" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B366" s="5">
+        <v>225</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D366" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B367" s="5">
+        <v>100</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D367" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B368" s="5">
+        <v>120</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D368" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B369" s="5">
+        <v>4</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D369" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B370" s="5">
+        <v>100</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D370" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A371" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B371" s="5">
+        <v>48</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D371" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A372" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B372" s="5">
+        <v>350</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B373" s="5">
+        <v>240</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D373" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B374" s="5">
+        <v>300</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D374" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B375" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D375" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B376" s="5">
+        <v>135</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B377" s="5">
+        <v>4</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D377" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B378" s="5">
+        <v>4</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D378" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A379" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B379" s="5">
+        <v>125</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D379" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B380" s="5">
+        <v>300</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D380" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B381" s="5">
+        <v>480</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D381" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A382" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B382" s="5">
+        <v>30</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D382" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B383" s="5">
+        <v>300</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D383" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B384" s="5">
+        <v>400</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D384" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B385" s="5">
+        <v>3</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D385" s="2">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A386" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B386" s="5">
+        <v>5</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D386" s="2">
+        <v>45844</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABADE00-8D11-4C76-86E3-EBFE30C3BE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306D653-8306-4A50-B1D8-4CCFF075089E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11388" yWindow="222" windowWidth="11208" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11454" yWindow="354" windowWidth="11208" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="187">
   <si>
     <t>Recipe</t>
   </si>
@@ -655,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -663,6 +663,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1405,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G411"/>
+  <dimension ref="A1:G449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B388" workbookViewId="0">
-      <selection activeCell="H406" sqref="H406"/>
+    <sheetView tabSelected="1" topLeftCell="B427" workbookViewId="0">
+      <selection activeCell="G412" sqref="G412:G449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9744,22 +9745,22 @@
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A363" s="5" t="s">
+      <c r="A363" t="s">
         <v>136</v>
       </c>
-      <c r="B363" s="5">
+      <c r="B363">
         <v>4</v>
       </c>
-      <c r="C363" s="5" t="s">
+      <c r="C363" t="s">
         <v>133</v>
       </c>
-      <c r="D363" s="5" t="s">
+      <c r="D363" t="s">
         <v>137</v>
       </c>
-      <c r="E363" s="5">
-        <v>2</v>
-      </c>
-      <c r="F363" s="5" t="s">
+      <c r="E363">
+        <v>2</v>
+      </c>
+      <c r="F363" t="s">
         <v>15</v>
       </c>
       <c r="G363" s="2">
@@ -9767,22 +9768,22 @@
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A364" s="5" t="s">
+      <c r="A364" t="s">
         <v>136</v>
       </c>
-      <c r="B364" s="5">
+      <c r="B364">
         <v>4</v>
       </c>
-      <c r="C364" s="5" t="s">
+      <c r="C364" t="s">
         <v>47</v>
       </c>
-      <c r="D364" s="5" t="s">
+      <c r="D364" t="s">
         <v>48</v>
       </c>
-      <c r="E364" s="5">
+      <c r="E364">
         <v>100</v>
       </c>
-      <c r="F364" s="5" t="s">
+      <c r="F364" t="s">
         <v>70</v>
       </c>
       <c r="G364" s="2">
@@ -9790,22 +9791,22 @@
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A365" s="5" t="s">
+      <c r="A365" t="s">
         <v>136</v>
       </c>
-      <c r="B365" s="5">
+      <c r="B365">
         <v>4</v>
       </c>
-      <c r="C365" s="5" t="s">
+      <c r="C365" t="s">
         <v>134</v>
       </c>
-      <c r="D365" s="5" t="s">
+      <c r="D365" t="s">
         <v>138</v>
       </c>
-      <c r="E365" s="5">
+      <c r="E365">
         <v>48</v>
       </c>
-      <c r="F365" s="5" t="s">
+      <c r="F365" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2">
@@ -9813,22 +9814,22 @@
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A366" s="5" t="s">
+      <c r="A366" t="s">
         <v>136</v>
       </c>
-      <c r="B366" s="5">
+      <c r="B366">
         <v>4</v>
       </c>
-      <c r="C366" s="5" t="s">
+      <c r="C366" t="s">
         <v>64</v>
       </c>
-      <c r="D366" s="5" t="s">
+      <c r="D366" t="s">
         <v>65</v>
       </c>
-      <c r="E366" s="5">
+      <c r="E366">
         <v>200</v>
       </c>
-      <c r="F366" s="5" t="s">
+      <c r="F366" t="s">
         <v>70</v>
       </c>
       <c r="G366" s="2">
@@ -9836,22 +9837,22 @@
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A367" s="5" t="s">
+      <c r="A367" t="s">
         <v>136</v>
       </c>
-      <c r="B367" s="5">
+      <c r="B367">
         <v>4</v>
       </c>
-      <c r="C367" s="5" t="s">
+      <c r="C367" t="s">
         <v>135</v>
       </c>
-      <c r="D367" s="5" t="s">
+      <c r="D367" t="s">
         <v>139</v>
       </c>
-      <c r="E367" s="5">
+      <c r="E367">
         <v>300</v>
       </c>
-      <c r="F367" s="5" t="s">
+      <c r="F367" t="s">
         <v>70</v>
       </c>
       <c r="G367" s="2">
@@ -9859,22 +9860,22 @@
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A368" s="5" t="s">
+      <c r="A368" t="s">
         <v>131</v>
       </c>
-      <c r="B368" s="5">
+      <c r="B368">
         <v>4</v>
       </c>
-      <c r="C368" s="5" t="s">
+      <c r="C368" t="s">
         <v>35</v>
       </c>
-      <c r="D368" s="5" t="s">
+      <c r="D368" t="s">
         <v>36</v>
       </c>
-      <c r="E368" s="5">
+      <c r="E368">
         <v>256</v>
       </c>
-      <c r="F368" s="5" t="s">
+      <c r="F368" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2">
@@ -9882,22 +9883,22 @@
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A369" s="5" t="s">
+      <c r="A369" t="s">
         <v>131</v>
       </c>
-      <c r="B369" s="5">
+      <c r="B369">
         <v>4</v>
       </c>
-      <c r="C369" s="5" t="s">
+      <c r="C369" t="s">
         <v>37</v>
       </c>
-      <c r="D369" s="5" t="s">
+      <c r="D369" t="s">
         <v>38</v>
       </c>
-      <c r="E369" s="5">
+      <c r="E369">
         <v>1</v>
       </c>
-      <c r="F369" s="5" t="s">
+      <c r="F369" t="s">
         <v>15</v>
       </c>
       <c r="G369" s="2">
@@ -9905,22 +9906,22 @@
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A370" s="5" t="s">
+      <c r="A370" t="s">
         <v>131</v>
       </c>
-      <c r="B370" s="5">
+      <c r="B370">
         <v>4</v>
       </c>
-      <c r="C370" s="5" t="s">
+      <c r="C370" t="s">
         <v>39</v>
       </c>
-      <c r="D370" s="5" t="s">
+      <c r="D370" t="s">
         <v>40</v>
       </c>
-      <c r="E370" s="5">
+      <c r="E370">
         <v>0.68</v>
       </c>
-      <c r="F370" s="5" t="s">
+      <c r="F370" t="s">
         <v>15</v>
       </c>
       <c r="G370" s="2">
@@ -9928,22 +9929,22 @@
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A371" s="5" t="s">
+      <c r="A371" t="s">
         <v>131</v>
       </c>
-      <c r="B371" s="5">
+      <c r="B371">
         <v>4</v>
       </c>
-      <c r="C371" s="5" t="s">
+      <c r="C371" t="s">
         <v>24</v>
       </c>
-      <c r="D371" s="5" t="s">
+      <c r="D371" t="s">
         <v>25</v>
       </c>
-      <c r="E371" s="5">
+      <c r="E371">
         <v>1</v>
       </c>
-      <c r="F371" s="5" t="s">
+      <c r="F371" t="s">
         <v>15</v>
       </c>
       <c r="G371" s="2">
@@ -9951,22 +9952,22 @@
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A372" s="5" t="s">
+      <c r="A372" t="s">
         <v>131</v>
       </c>
-      <c r="B372" s="5">
+      <c r="B372">
         <v>4</v>
       </c>
-      <c r="C372" s="5" t="s">
+      <c r="C372" t="s">
         <v>41</v>
       </c>
-      <c r="D372" s="5" t="s">
+      <c r="D372" t="s">
         <v>42</v>
       </c>
-      <c r="E372" s="5">
-        <v>2</v>
-      </c>
-      <c r="F372" s="5" t="s">
+      <c r="E372">
+        <v>2</v>
+      </c>
+      <c r="F372" t="s">
         <v>15</v>
       </c>
       <c r="G372" s="2">
@@ -9974,22 +9975,22 @@
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A373" s="5" t="s">
+      <c r="A373" t="s">
         <v>131</v>
       </c>
-      <c r="B373" s="5">
+      <c r="B373">
         <v>4</v>
       </c>
-      <c r="C373" s="5" t="s">
+      <c r="C373" t="s">
         <v>43</v>
       </c>
-      <c r="D373" s="5" t="s">
+      <c r="D373" t="s">
         <v>44</v>
       </c>
-      <c r="E373" s="5">
+      <c r="E373">
         <v>200</v>
       </c>
-      <c r="F373" s="5" t="s">
+      <c r="F373" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2">
@@ -9997,22 +9998,22 @@
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A374" s="5" t="s">
+      <c r="A374" t="s">
         <v>131</v>
       </c>
-      <c r="B374" s="5">
+      <c r="B374">
         <v>4</v>
       </c>
-      <c r="C374" s="5" t="s">
+      <c r="C374" t="s">
         <v>45</v>
       </c>
-      <c r="D374" s="5" t="s">
+      <c r="D374" t="s">
         <v>46</v>
       </c>
-      <c r="E374" s="5">
+      <c r="E374">
         <v>40</v>
       </c>
-      <c r="F374" s="5" t="s">
+      <c r="F374" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2">
@@ -10020,22 +10021,22 @@
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A375" s="5" t="s">
+      <c r="A375" t="s">
         <v>131</v>
       </c>
-      <c r="B375" s="5">
+      <c r="B375">
         <v>4</v>
       </c>
-      <c r="C375" s="5" t="s">
+      <c r="C375" t="s">
         <v>47</v>
       </c>
-      <c r="D375" s="5" t="s">
+      <c r="D375" t="s">
         <v>48</v>
       </c>
-      <c r="E375" s="5">
+      <c r="E375">
         <v>50</v>
       </c>
-      <c r="F375" s="5" t="s">
+      <c r="F375" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2">
@@ -10043,22 +10044,22 @@
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A376" s="5" t="s">
+      <c r="A376" t="s">
         <v>131</v>
       </c>
-      <c r="B376" s="5">
+      <c r="B376">
         <v>4</v>
       </c>
-      <c r="C376" s="5" t="s">
+      <c r="C376" t="s">
         <v>20</v>
       </c>
-      <c r="D376" s="5" t="s">
+      <c r="D376" t="s">
         <v>21</v>
       </c>
-      <c r="E376" s="5">
+      <c r="E376">
         <v>50</v>
       </c>
-      <c r="F376" s="5" t="s">
+      <c r="F376" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2">
@@ -10066,22 +10067,22 @@
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A377" s="5" t="s">
+      <c r="A377" t="s">
         <v>131</v>
       </c>
-      <c r="B377" s="5">
+      <c r="B377">
         <v>4</v>
       </c>
-      <c r="C377" s="5" t="s">
+      <c r="C377" t="s">
         <v>22</v>
       </c>
-      <c r="D377" s="5" t="s">
+      <c r="D377" t="s">
         <v>23</v>
       </c>
-      <c r="E377" s="5">
+      <c r="E377">
         <v>40</v>
       </c>
-      <c r="F377" s="5" t="s">
+      <c r="F377" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2">
@@ -10089,22 +10090,22 @@
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A378" s="5" t="s">
+      <c r="A378" t="s">
         <v>131</v>
       </c>
-      <c r="B378" s="5">
+      <c r="B378">
         <v>4</v>
       </c>
-      <c r="C378" s="5" t="s">
+      <c r="C378" t="s">
         <v>49</v>
       </c>
-      <c r="D378" s="5" t="s">
+      <c r="D378" t="s">
         <v>50</v>
       </c>
-      <c r="E378" s="5">
+      <c r="E378">
         <v>120</v>
       </c>
-      <c r="F378" s="5" t="s">
+      <c r="F378" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2">
@@ -10112,22 +10113,22 @@
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A379" s="5" t="s">
+      <c r="A379" t="s">
         <v>131</v>
       </c>
-      <c r="B379" s="5">
+      <c r="B379">
         <v>4</v>
       </c>
-      <c r="C379" s="5" t="s">
+      <c r="C379" t="s">
         <v>51</v>
       </c>
-      <c r="D379" s="5" t="s">
+      <c r="D379" t="s">
         <v>52</v>
       </c>
-      <c r="E379" s="5">
+      <c r="E379">
         <v>12</v>
       </c>
-      <c r="F379" s="5" t="s">
+      <c r="F379" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2">
@@ -10135,22 +10136,22 @@
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A380" s="5" t="s">
+      <c r="A380" t="s">
         <v>131</v>
       </c>
-      <c r="B380" s="5">
+      <c r="B380">
         <v>4</v>
       </c>
-      <c r="C380" s="5" t="s">
+      <c r="C380" t="s">
         <v>8</v>
       </c>
-      <c r="D380" s="5" t="s">
+      <c r="D380" t="s">
         <v>9</v>
       </c>
-      <c r="E380" s="5">
+      <c r="E380">
         <v>400</v>
       </c>
-      <c r="F380" s="5" t="s">
+      <c r="F380" t="s">
         <v>10</v>
       </c>
       <c r="G380" s="2">
@@ -10158,22 +10159,22 @@
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A381" s="5" t="s">
+      <c r="A381" t="s">
         <v>130</v>
       </c>
-      <c r="B381" s="5">
-        <v>2</v>
-      </c>
-      <c r="C381" s="5" t="s">
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381" t="s">
         <v>35</v>
       </c>
-      <c r="D381" s="5" t="s">
+      <c r="D381" t="s">
         <v>36</v>
       </c>
-      <c r="E381" s="5">
+      <c r="E381">
         <v>128</v>
       </c>
-      <c r="F381" s="5" t="s">
+      <c r="F381" t="s">
         <v>10</v>
       </c>
       <c r="G381" s="2">
@@ -10181,22 +10182,22 @@
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A382" s="5" t="s">
+      <c r="A382" t="s">
         <v>130</v>
       </c>
-      <c r="B382" s="5">
-        <v>2</v>
-      </c>
-      <c r="C382" s="5" t="s">
+      <c r="B382">
+        <v>2</v>
+      </c>
+      <c r="C382" t="s">
         <v>37</v>
       </c>
-      <c r="D382" s="5" t="s">
+      <c r="D382" t="s">
         <v>38</v>
       </c>
-      <c r="E382" s="5">
+      <c r="E382">
         <v>0.5</v>
       </c>
-      <c r="F382" s="5" t="s">
+      <c r="F382" t="s">
         <v>15</v>
       </c>
       <c r="G382" s="2">
@@ -10204,22 +10205,22 @@
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A383" s="5" t="s">
+      <c r="A383" t="s">
         <v>130</v>
       </c>
-      <c r="B383" s="5">
-        <v>2</v>
-      </c>
-      <c r="C383" s="5" t="s">
+      <c r="B383">
+        <v>2</v>
+      </c>
+      <c r="C383" t="s">
         <v>39</v>
       </c>
-      <c r="D383" s="5" t="s">
+      <c r="D383" t="s">
         <v>40</v>
       </c>
-      <c r="E383" s="5">
+      <c r="E383">
         <v>0.34</v>
       </c>
-      <c r="F383" s="5" t="s">
+      <c r="F383" t="s">
         <v>15</v>
       </c>
       <c r="G383" s="2">
@@ -10227,22 +10228,22 @@
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A384" s="5" t="s">
+      <c r="A384" t="s">
         <v>130</v>
       </c>
-      <c r="B384" s="5">
-        <v>2</v>
-      </c>
-      <c r="C384" s="5" t="s">
+      <c r="B384">
+        <v>2</v>
+      </c>
+      <c r="C384" t="s">
         <v>24</v>
       </c>
-      <c r="D384" s="5" t="s">
+      <c r="D384" t="s">
         <v>25</v>
       </c>
-      <c r="E384" s="5">
+      <c r="E384">
         <v>0.5</v>
       </c>
-      <c r="F384" s="5" t="s">
+      <c r="F384" t="s">
         <v>15</v>
       </c>
       <c r="G384" s="2">
@@ -10250,22 +10251,22 @@
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A385" s="5" t="s">
+      <c r="A385" t="s">
         <v>130</v>
       </c>
-      <c r="B385" s="5">
-        <v>2</v>
-      </c>
-      <c r="C385" s="5" t="s">
+      <c r="B385">
+        <v>2</v>
+      </c>
+      <c r="C385" t="s">
         <v>41</v>
       </c>
-      <c r="D385" s="5" t="s">
+      <c r="D385" t="s">
         <v>42</v>
       </c>
-      <c r="E385" s="5">
+      <c r="E385">
         <v>1</v>
       </c>
-      <c r="F385" s="5" t="s">
+      <c r="F385" t="s">
         <v>15</v>
       </c>
       <c r="G385" s="2">
@@ -10273,22 +10274,22 @@
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A386" s="5" t="s">
+      <c r="A386" t="s">
         <v>130</v>
       </c>
-      <c r="B386" s="5">
-        <v>2</v>
-      </c>
-      <c r="C386" s="5" t="s">
+      <c r="B386">
+        <v>2</v>
+      </c>
+      <c r="C386" t="s">
         <v>43</v>
       </c>
-      <c r="D386" s="5" t="s">
+      <c r="D386" t="s">
         <v>44</v>
       </c>
-      <c r="E386" s="5">
+      <c r="E386">
         <v>100</v>
       </c>
-      <c r="F386" s="5" t="s">
+      <c r="F386" t="s">
         <v>10</v>
       </c>
       <c r="G386" s="2">
@@ -10296,22 +10297,22 @@
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A387" s="5" t="s">
+      <c r="A387" t="s">
         <v>130</v>
       </c>
-      <c r="B387" s="5">
-        <v>2</v>
-      </c>
-      <c r="C387" s="5" t="s">
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387" t="s">
         <v>45</v>
       </c>
-      <c r="D387" s="5" t="s">
+      <c r="D387" t="s">
         <v>46</v>
       </c>
-      <c r="E387" s="5">
+      <c r="E387">
         <v>20</v>
       </c>
-      <c r="F387" s="5" t="s">
+      <c r="F387" t="s">
         <v>10</v>
       </c>
       <c r="G387" s="2">
@@ -10319,22 +10320,22 @@
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A388" s="5" t="s">
+      <c r="A388" t="s">
         <v>130</v>
       </c>
-      <c r="B388" s="5">
-        <v>2</v>
-      </c>
-      <c r="C388" s="5" t="s">
+      <c r="B388">
+        <v>2</v>
+      </c>
+      <c r="C388" t="s">
         <v>47</v>
       </c>
-      <c r="D388" s="5" t="s">
+      <c r="D388" t="s">
         <v>48</v>
       </c>
-      <c r="E388" s="5">
+      <c r="E388">
         <v>25</v>
       </c>
-      <c r="F388" s="5" t="s">
+      <c r="F388" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2">
@@ -10342,22 +10343,22 @@
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A389" s="5" t="s">
+      <c r="A389" t="s">
         <v>130</v>
       </c>
-      <c r="B389" s="5">
-        <v>2</v>
-      </c>
-      <c r="C389" s="5" t="s">
+      <c r="B389">
+        <v>2</v>
+      </c>
+      <c r="C389" t="s">
         <v>20</v>
       </c>
-      <c r="D389" s="5" t="s">
+      <c r="D389" t="s">
         <v>21</v>
       </c>
-      <c r="E389" s="5">
+      <c r="E389">
         <v>25</v>
       </c>
-      <c r="F389" s="5" t="s">
+      <c r="F389" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2">
@@ -10365,22 +10366,22 @@
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A390" s="5" t="s">
+      <c r="A390" t="s">
         <v>130</v>
       </c>
-      <c r="B390" s="5">
-        <v>2</v>
-      </c>
-      <c r="C390" s="5" t="s">
+      <c r="B390">
+        <v>2</v>
+      </c>
+      <c r="C390" t="s">
         <v>22</v>
       </c>
-      <c r="D390" s="5" t="s">
+      <c r="D390" t="s">
         <v>23</v>
       </c>
-      <c r="E390" s="5">
+      <c r="E390">
         <v>20</v>
       </c>
-      <c r="F390" s="5" t="s">
+      <c r="F390" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2">
@@ -10388,22 +10389,22 @@
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A391" s="5" t="s">
+      <c r="A391" t="s">
         <v>130</v>
       </c>
-      <c r="B391" s="5">
-        <v>2</v>
-      </c>
-      <c r="C391" s="5" t="s">
+      <c r="B391">
+        <v>2</v>
+      </c>
+      <c r="C391" t="s">
         <v>49</v>
       </c>
-      <c r="D391" s="5" t="s">
+      <c r="D391" t="s">
         <v>50</v>
       </c>
-      <c r="E391" s="5">
+      <c r="E391">
         <v>60</v>
       </c>
-      <c r="F391" s="5" t="s">
+      <c r="F391" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2">
@@ -10411,22 +10412,22 @@
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A392" s="5" t="s">
+      <c r="A392" t="s">
         <v>130</v>
       </c>
-      <c r="B392" s="5">
-        <v>2</v>
-      </c>
-      <c r="C392" s="5" t="s">
+      <c r="B392">
+        <v>2</v>
+      </c>
+      <c r="C392" t="s">
         <v>51</v>
       </c>
-      <c r="D392" s="5" t="s">
+      <c r="D392" t="s">
         <v>52</v>
       </c>
-      <c r="E392" s="5">
+      <c r="E392">
         <v>6</v>
       </c>
-      <c r="F392" s="5" t="s">
+      <c r="F392" t="s">
         <v>10</v>
       </c>
       <c r="G392" s="2">
@@ -10434,22 +10435,22 @@
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A393" s="5" t="s">
+      <c r="A393" t="s">
         <v>34</v>
       </c>
-      <c r="B393" s="5">
+      <c r="B393">
         <v>4</v>
       </c>
-      <c r="C393" s="5" t="s">
+      <c r="C393" t="s">
         <v>16</v>
       </c>
-      <c r="D393" s="5" t="s">
+      <c r="D393" t="s">
         <v>17</v>
       </c>
-      <c r="E393" s="5">
+      <c r="E393">
         <v>240</v>
       </c>
-      <c r="F393" s="5" t="s">
+      <c r="F393" t="s">
         <v>10</v>
       </c>
       <c r="G393" s="2">
@@ -10457,22 +10458,22 @@
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A394" s="5" t="s">
+      <c r="A394" t="s">
         <v>34</v>
       </c>
-      <c r="B394" s="5">
+      <c r="B394">
         <v>4</v>
       </c>
-      <c r="C394" s="5" t="s">
+      <c r="C394" t="s">
         <v>35</v>
       </c>
-      <c r="D394" s="5" t="s">
+      <c r="D394" t="s">
         <v>36</v>
       </c>
-      <c r="E394" s="5">
+      <c r="E394">
         <v>256</v>
       </c>
-      <c r="F394" s="5" t="s">
+      <c r="F394" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2">
@@ -10480,22 +10481,22 @@
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A395" s="5" t="s">
+      <c r="A395" t="s">
         <v>34</v>
       </c>
-      <c r="B395" s="5">
+      <c r="B395">
         <v>4</v>
       </c>
-      <c r="C395" s="5" t="s">
+      <c r="C395" t="s">
         <v>37</v>
       </c>
-      <c r="D395" s="5" t="s">
+      <c r="D395" t="s">
         <v>38</v>
       </c>
-      <c r="E395" s="5">
+      <c r="E395">
         <v>1</v>
       </c>
-      <c r="F395" s="5" t="s">
+      <c r="F395" t="s">
         <v>15</v>
       </c>
       <c r="G395" s="2">
@@ -10503,22 +10504,22 @@
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A396" s="5" t="s">
+      <c r="A396" t="s">
         <v>34</v>
       </c>
-      <c r="B396" s="5">
+      <c r="B396">
         <v>4</v>
       </c>
-      <c r="C396" s="5" t="s">
+      <c r="C396" t="s">
         <v>39</v>
       </c>
-      <c r="D396" s="5" t="s">
+      <c r="D396" t="s">
         <v>40</v>
       </c>
-      <c r="E396" s="5">
+      <c r="E396">
         <v>0.68</v>
       </c>
-      <c r="F396" s="5" t="s">
+      <c r="F396" t="s">
         <v>15</v>
       </c>
       <c r="G396" s="2">
@@ -10526,22 +10527,22 @@
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A397" s="5" t="s">
+      <c r="A397" t="s">
         <v>34</v>
       </c>
-      <c r="B397" s="5">
+      <c r="B397">
         <v>4</v>
       </c>
-      <c r="C397" s="5" t="s">
+      <c r="C397" t="s">
         <v>24</v>
       </c>
-      <c r="D397" s="5" t="s">
+      <c r="D397" t="s">
         <v>25</v>
       </c>
-      <c r="E397" s="5">
+      <c r="E397">
         <v>1</v>
       </c>
-      <c r="F397" s="5" t="s">
+      <c r="F397" t="s">
         <v>15</v>
       </c>
       <c r="G397" s="2">
@@ -10549,22 +10550,22 @@
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A398" s="5" t="s">
+      <c r="A398" t="s">
         <v>34</v>
       </c>
-      <c r="B398" s="5">
+      <c r="B398">
         <v>4</v>
       </c>
-      <c r="C398" s="5" t="s">
+      <c r="C398" t="s">
         <v>41</v>
       </c>
-      <c r="D398" s="5" t="s">
+      <c r="D398" t="s">
         <v>42</v>
       </c>
-      <c r="E398" s="5">
-        <v>2</v>
-      </c>
-      <c r="F398" s="5" t="s">
+      <c r="E398">
+        <v>2</v>
+      </c>
+      <c r="F398" t="s">
         <v>15</v>
       </c>
       <c r="G398" s="2">
@@ -10572,22 +10573,22 @@
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A399" s="5" t="s">
+      <c r="A399" t="s">
         <v>34</v>
       </c>
-      <c r="B399" s="5">
+      <c r="B399">
         <v>4</v>
       </c>
-      <c r="C399" s="5" t="s">
+      <c r="C399" t="s">
         <v>43</v>
       </c>
-      <c r="D399" s="5" t="s">
+      <c r="D399" t="s">
         <v>44</v>
       </c>
-      <c r="E399" s="5">
+      <c r="E399">
         <v>200</v>
       </c>
-      <c r="F399" s="5" t="s">
+      <c r="F399" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2">
@@ -10595,22 +10596,22 @@
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A400" s="5" t="s">
+      <c r="A400" t="s">
         <v>34</v>
       </c>
-      <c r="B400" s="5">
+      <c r="B400">
         <v>4</v>
       </c>
-      <c r="C400" s="5" t="s">
+      <c r="C400" t="s">
         <v>45</v>
       </c>
-      <c r="D400" s="5" t="s">
+      <c r="D400" t="s">
         <v>46</v>
       </c>
-      <c r="E400" s="5">
+      <c r="E400">
         <v>40</v>
       </c>
-      <c r="F400" s="5" t="s">
+      <c r="F400" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="2">
@@ -10618,22 +10619,22 @@
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A401" s="5" t="s">
+      <c r="A401" t="s">
         <v>34</v>
       </c>
-      <c r="B401" s="5">
+      <c r="B401">
         <v>4</v>
       </c>
-      <c r="C401" s="5" t="s">
+      <c r="C401" t="s">
         <v>47</v>
       </c>
-      <c r="D401" s="5" t="s">
+      <c r="D401" t="s">
         <v>48</v>
       </c>
-      <c r="E401" s="5">
+      <c r="E401">
         <v>50</v>
       </c>
-      <c r="F401" s="5" t="s">
+      <c r="F401" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="2">
@@ -10641,22 +10642,22 @@
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A402" s="5" t="s">
+      <c r="A402" t="s">
         <v>34</v>
       </c>
-      <c r="B402" s="5">
+      <c r="B402">
         <v>4</v>
       </c>
-      <c r="C402" s="5" t="s">
+      <c r="C402" t="s">
         <v>20</v>
       </c>
-      <c r="D402" s="5" t="s">
+      <c r="D402" t="s">
         <v>21</v>
       </c>
-      <c r="E402" s="5">
+      <c r="E402">
         <v>50</v>
       </c>
-      <c r="F402" s="5" t="s">
+      <c r="F402" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="2">
@@ -10664,22 +10665,22 @@
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A403" s="5" t="s">
+      <c r="A403" t="s">
         <v>34</v>
       </c>
-      <c r="B403" s="5">
+      <c r="B403">
         <v>4</v>
       </c>
-      <c r="C403" s="5" t="s">
+      <c r="C403" t="s">
         <v>22</v>
       </c>
-      <c r="D403" s="5" t="s">
+      <c r="D403" t="s">
         <v>23</v>
       </c>
-      <c r="E403" s="5">
+      <c r="E403">
         <v>40</v>
       </c>
-      <c r="F403" s="5" t="s">
+      <c r="F403" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2">
@@ -10687,22 +10688,22 @@
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A404" s="5" t="s">
+      <c r="A404" t="s">
         <v>34</v>
       </c>
-      <c r="B404" s="5">
+      <c r="B404">
         <v>4</v>
       </c>
-      <c r="C404" s="5" t="s">
+      <c r="C404" t="s">
         <v>49</v>
       </c>
-      <c r="D404" s="5" t="s">
+      <c r="D404" t="s">
         <v>50</v>
       </c>
-      <c r="E404" s="5">
+      <c r="E404">
         <v>120</v>
       </c>
-      <c r="F404" s="5" t="s">
+      <c r="F404" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2">
@@ -10710,22 +10711,22 @@
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A405" s="5" t="s">
+      <c r="A405" t="s">
         <v>34</v>
       </c>
-      <c r="B405" s="5">
+      <c r="B405">
         <v>4</v>
       </c>
-      <c r="C405" s="5" t="s">
+      <c r="C405" t="s">
         <v>51</v>
       </c>
-      <c r="D405" s="5" t="s">
+      <c r="D405" t="s">
         <v>52</v>
       </c>
-      <c r="E405" s="5">
+      <c r="E405">
         <v>12</v>
       </c>
-      <c r="F405" s="5" t="s">
+      <c r="F405" t="s">
         <v>10</v>
       </c>
       <c r="G405" s="2">
@@ -10733,22 +10734,22 @@
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A406" s="5" t="s">
+      <c r="A406" t="s">
         <v>34</v>
       </c>
-      <c r="B406" s="5">
+      <c r="B406">
         <v>4</v>
       </c>
-      <c r="C406" s="5" t="s">
+      <c r="C406" t="s">
         <v>53</v>
       </c>
-      <c r="D406" s="5" t="s">
+      <c r="D406" t="s">
         <v>54</v>
       </c>
-      <c r="E406" s="5">
+      <c r="E406">
         <v>8</v>
       </c>
-      <c r="F406" s="5" t="s">
+      <c r="F406" t="s">
         <v>15</v>
       </c>
       <c r="G406" s="2">
@@ -10756,22 +10757,22 @@
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A407" s="5" t="s">
+      <c r="A407" t="s">
         <v>34</v>
       </c>
-      <c r="B407" s="5">
+      <c r="B407">
         <v>4</v>
       </c>
-      <c r="C407" s="5" t="s">
+      <c r="C407" t="s">
         <v>55</v>
       </c>
-      <c r="D407" s="5" t="s">
+      <c r="D407" t="s">
         <v>56</v>
       </c>
-      <c r="E407" s="5">
+      <c r="E407">
         <v>120</v>
       </c>
-      <c r="F407" s="5" t="s">
+      <c r="F407" t="s">
         <v>10</v>
       </c>
       <c r="G407" s="2">
@@ -10779,22 +10780,22 @@
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A408" s="5" t="s">
+      <c r="A408" t="s">
         <v>89</v>
       </c>
-      <c r="B408" s="5">
+      <c r="B408">
         <v>3</v>
       </c>
-      <c r="C408" s="5" t="s">
+      <c r="C408" t="s">
         <v>90</v>
       </c>
-      <c r="D408" s="5" t="s">
+      <c r="D408" t="s">
         <v>91</v>
       </c>
-      <c r="E408" s="5">
+      <c r="E408">
         <v>300</v>
       </c>
-      <c r="F408" s="5" t="s">
+      <c r="F408" t="s">
         <v>10</v>
       </c>
       <c r="G408" s="2">
@@ -10802,22 +10803,22 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A409" s="5" t="s">
+      <c r="A409" t="s">
         <v>89</v>
       </c>
-      <c r="B409" s="5">
+      <c r="B409">
         <v>3</v>
       </c>
-      <c r="C409" s="5" t="s">
+      <c r="C409" t="s">
         <v>92</v>
       </c>
-      <c r="D409" s="5" t="s">
+      <c r="D409" t="s">
         <v>93</v>
       </c>
-      <c r="E409" s="5">
+      <c r="E409">
         <v>480</v>
       </c>
-      <c r="F409" s="5" t="s">
+      <c r="F409" t="s">
         <v>10</v>
       </c>
       <c r="G409" s="2">
@@ -10825,22 +10826,22 @@
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A410" s="5" t="s">
+      <c r="A410" t="s">
         <v>89</v>
       </c>
-      <c r="B410" s="5">
+      <c r="B410">
         <v>3</v>
       </c>
-      <c r="C410" s="5" t="s">
+      <c r="C410" t="s">
         <v>64</v>
       </c>
-      <c r="D410" s="5" t="s">
+      <c r="D410" t="s">
         <v>65</v>
       </c>
-      <c r="E410" s="5">
+      <c r="E410">
         <v>150</v>
       </c>
-      <c r="F410" s="5" t="s">
+      <c r="F410" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="2">
@@ -10848,26 +10849,900 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A411" s="5" t="s">
+      <c r="A411" t="s">
         <v>89</v>
       </c>
-      <c r="B411" s="5">
+      <c r="B411">
         <v>3</v>
       </c>
-      <c r="C411" s="5" t="s">
+      <c r="C411" t="s">
         <v>68</v>
       </c>
-      <c r="D411" s="5" t="s">
+      <c r="D411" t="s">
         <v>69</v>
       </c>
-      <c r="E411" s="5">
+      <c r="E411">
         <v>135</v>
       </c>
-      <c r="F411" s="5" t="s">
+      <c r="F411" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2">
         <v>45844</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A412" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B412" s="5">
+        <v>7</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D412" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E412" s="5">
+        <v>700</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G412" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A413" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B413" s="5">
+        <v>7</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E413" s="5">
+        <v>1120</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G413" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A414" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B414" s="5">
+        <v>7</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D414" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E414" s="5">
+        <v>350</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G414" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A415" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B415" s="5">
+        <v>7</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E415" s="5">
+        <v>315</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G415" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A416" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B416" s="5">
+        <v>12</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D416" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E416" s="5">
+        <v>2</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G416" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A417" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B417" s="5">
+        <v>12</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D417" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E417" s="5">
+        <v>468</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G417" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A418" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B418" s="5">
+        <v>12</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D418" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E418" s="5">
+        <v>300</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G418" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A419" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B419" s="5">
+        <v>12</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D419" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E419" s="5">
+        <v>180</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G419" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A420" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B420" s="5">
+        <v>12</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D420" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E420" s="5">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G420" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A421" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B421" s="5">
+        <v>12</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D421" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E421" s="5">
+        <v>300</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G421" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A422" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B422" s="5">
+        <v>12</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D422" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E422" s="5">
+        <v>180</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G422" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A423" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B423" s="5">
+        <v>12</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D423" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E423" s="5">
+        <v>600</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G423" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A424" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B424" s="5">
+        <v>2</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D424" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E424" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G424" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A425" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B425" s="5">
+        <v>2</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D425" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E425" s="5">
+        <v>7</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G425" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A426" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B426" s="5">
+        <v>2</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E426" s="5">
+        <v>100</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G426" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A427" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B427" s="5">
+        <v>2</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D427" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E427" s="5">
+        <v>200</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G427" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A428" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B428" s="5">
+        <v>2</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D428" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E428" s="5">
+        <v>2</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G428" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A429" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B429" s="5">
+        <v>2</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D429" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E429" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G429" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A430" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B430" s="5">
+        <v>2</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D430" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E430" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G430" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A431" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B431" s="5">
+        <v>2</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D431" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E431" s="5">
+        <v>20</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G431" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A432" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B432" s="5">
+        <v>2</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E432" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G432" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A433" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B433" s="5">
+        <v>2</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D433" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E433" s="5">
+        <v>2</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G433" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A434" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B434" s="5">
+        <v>1</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E434" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G434" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A435" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B435" s="5">
+        <v>1</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D435" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E435" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G435" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A436" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B436" s="5">
+        <v>1</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D436" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E436" s="5">
+        <v>50</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G436" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A437" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B437" s="5">
+        <v>1</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D437" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E437" s="5">
+        <v>100</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G437" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A438" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B438" s="5">
+        <v>1</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D438" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E438" s="5">
+        <v>1</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G438" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A439" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B439" s="5">
+        <v>1</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D439" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E439" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G439" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A440" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B440" s="5">
+        <v>1</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D440" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E440" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G440" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A441" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B441" s="5">
+        <v>1</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D441" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E441" s="5">
+        <v>10</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G441" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A442" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B442" s="5">
+        <v>1</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D442" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E442" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G442" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A443" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B443" s="5">
+        <v>7</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D443" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E443" s="5">
+        <v>1225</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G443" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A444" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B444" s="5">
+        <v>7</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D444" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E444" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G444" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A445" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B445" s="5">
+        <v>7</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D445" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E445" s="5">
+        <v>7</v>
+      </c>
+      <c r="F445" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G445" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A446" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B446" s="5">
+        <v>7</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E446" s="5">
+        <v>420</v>
+      </c>
+      <c r="F446" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G446" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A447" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447" s="5">
+        <v>7</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D447" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E447" s="5">
+        <v>7</v>
+      </c>
+      <c r="F447" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G447" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A448" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B448" s="5">
+        <v>7</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D448" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E448" s="5">
+        <v>161</v>
+      </c>
+      <c r="F448" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G448" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A449" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B449" s="5">
+        <v>7</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E449" s="5">
+        <v>154</v>
+      </c>
+      <c r="F449" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G449" s="2">
+        <v>45852</v>
       </c>
     </row>
   </sheetData>
@@ -10885,10 +11760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D424"/>
   <sheetViews>
-    <sheetView topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="D354" sqref="D354:D386"/>
+    <sheetView topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="D387" sqref="D387:D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15840,13 +16715,13 @@
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A354" s="5" t="s">
+      <c r="A354" t="s">
         <v>132</v>
       </c>
-      <c r="B354" s="5">
-        <v>2</v>
-      </c>
-      <c r="C354" s="5" t="s">
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354" t="s">
         <v>15</v>
       </c>
       <c r="D354" s="2">
@@ -15854,13 +16729,13 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A355" s="5" t="s">
+      <c r="A355" t="s">
         <v>101</v>
       </c>
-      <c r="B355" s="5">
+      <c r="B355">
         <v>1</v>
       </c>
-      <c r="C355" s="5" t="s">
+      <c r="C355" t="s">
         <v>15</v>
       </c>
       <c r="D355" s="2">
@@ -15868,13 +16743,13 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A356" s="5" t="s">
+      <c r="A356" t="s">
         <v>102</v>
       </c>
-      <c r="B356" s="5">
+      <c r="B356">
         <v>20</v>
       </c>
-      <c r="C356" s="5" t="s">
+      <c r="C356" t="s">
         <v>15</v>
       </c>
       <c r="D356" s="2">
@@ -15882,13 +16757,13 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A357" s="5" t="s">
+      <c r="A357" t="s">
         <v>39</v>
       </c>
-      <c r="B357" s="5">
+      <c r="B357">
         <v>1.7</v>
       </c>
-      <c r="C357" s="5" t="s">
+      <c r="C357" t="s">
         <v>15</v>
       </c>
       <c r="D357" s="2">
@@ -15896,13 +16771,13 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A358" s="5" t="s">
+      <c r="A358" t="s">
         <v>133</v>
       </c>
-      <c r="B358" s="5">
+      <c r="B358">
         <v>4</v>
       </c>
-      <c r="C358" s="5" t="s">
+      <c r="C358" t="s">
         <v>15</v>
       </c>
       <c r="D358" s="2">
@@ -15910,13 +16785,13 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A359" s="5" t="s">
+      <c r="A359" t="s">
         <v>94</v>
       </c>
-      <c r="B359" s="5">
+      <c r="B359">
         <v>1</v>
       </c>
-      <c r="C359" s="5" t="s">
+      <c r="C359" t="s">
         <v>15</v>
       </c>
       <c r="D359" s="2">
@@ -15924,13 +16799,13 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A360" s="5" t="s">
+      <c r="A360" t="s">
         <v>35</v>
       </c>
-      <c r="B360" s="5">
+      <c r="B360">
         <v>640</v>
       </c>
-      <c r="C360" s="5" t="s">
+      <c r="C360" t="s">
         <v>10</v>
       </c>
       <c r="D360" s="2">
@@ -15938,13 +16813,13 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A361" s="5" t="s">
+      <c r="A361" t="s">
         <v>37</v>
       </c>
-      <c r="B361" s="5">
+      <c r="B361">
         <v>2.5</v>
       </c>
-      <c r="C361" s="5" t="s">
+      <c r="C361" t="s">
         <v>15</v>
       </c>
       <c r="D361" s="2">
@@ -15952,13 +16827,13 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A362" s="5" t="s">
+      <c r="A362" t="s">
         <v>95</v>
       </c>
-      <c r="B362" s="5">
+      <c r="B362">
         <v>1</v>
       </c>
-      <c r="C362" s="5" t="s">
+      <c r="C362" t="s">
         <v>15</v>
       </c>
       <c r="D362" s="2">
@@ -15966,13 +16841,13 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A363" s="5" t="s">
+      <c r="A363" t="s">
         <v>43</v>
       </c>
-      <c r="B363" s="5">
+      <c r="B363">
         <v>1850</v>
       </c>
-      <c r="C363" s="5" t="s">
+      <c r="C363" t="s">
         <v>10</v>
       </c>
       <c r="D363" s="2">
@@ -15980,13 +16855,13 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A364" s="5" t="s">
+      <c r="A364" t="s">
         <v>53</v>
       </c>
-      <c r="B364" s="5">
+      <c r="B364">
         <v>48</v>
       </c>
-      <c r="C364" s="5" t="s">
+      <c r="C364" t="s">
         <v>15</v>
       </c>
       <c r="D364" s="2">
@@ -15994,13 +16869,13 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A365" s="5" t="s">
+      <c r="A365" t="s">
         <v>178</v>
       </c>
-      <c r="B365" s="5">
+      <c r="B365">
         <v>1</v>
       </c>
-      <c r="C365" s="5" t="s">
+      <c r="C365" t="s">
         <v>15</v>
       </c>
       <c r="D365" s="2">
@@ -16008,13 +16883,13 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A366" s="5" t="s">
+      <c r="A366" t="s">
         <v>47</v>
       </c>
-      <c r="B366" s="5">
+      <c r="B366">
         <v>225</v>
       </c>
-      <c r="C366" s="5" t="s">
+      <c r="C366" t="s">
         <v>10</v>
       </c>
       <c r="D366" s="2">
@@ -16022,13 +16897,13 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A367" s="5" t="s">
+      <c r="A367" t="s">
         <v>45</v>
       </c>
-      <c r="B367" s="5">
+      <c r="B367">
         <v>100</v>
       </c>
-      <c r="C367" s="5" t="s">
+      <c r="C367" t="s">
         <v>10</v>
       </c>
       <c r="D367" s="2">
@@ -16036,13 +16911,13 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A368" s="5" t="s">
+      <c r="A368" t="s">
         <v>55</v>
       </c>
-      <c r="B368" s="5">
+      <c r="B368">
         <v>120</v>
       </c>
-      <c r="C368" s="5" t="s">
+      <c r="C368" t="s">
         <v>10</v>
       </c>
       <c r="D368" s="2">
@@ -16050,13 +16925,13 @@
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A369" s="5" t="s">
+      <c r="A369" t="s">
         <v>55</v>
       </c>
-      <c r="B369" s="5">
+      <c r="B369">
         <v>4</v>
       </c>
-      <c r="C369" s="5" t="s">
+      <c r="C369" t="s">
         <v>15</v>
       </c>
       <c r="D369" s="2">
@@ -16064,13 +16939,13 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A370" s="5" t="s">
+      <c r="A370" t="s">
         <v>22</v>
       </c>
-      <c r="B370" s="5">
+      <c r="B370">
         <v>100</v>
       </c>
-      <c r="C370" s="5" t="s">
+      <c r="C370" t="s">
         <v>10</v>
       </c>
       <c r="D370" s="2">
@@ -16078,13 +16953,13 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A371" s="5" t="s">
+      <c r="A371" t="s">
         <v>134</v>
       </c>
-      <c r="B371" s="5">
+      <c r="B371">
         <v>48</v>
       </c>
-      <c r="C371" s="5" t="s">
+      <c r="C371" t="s">
         <v>10</v>
       </c>
       <c r="D371" s="2">
@@ -16092,13 +16967,13 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A372" s="5" t="s">
+      <c r="A372" t="s">
         <v>64</v>
       </c>
-      <c r="B372" s="5">
+      <c r="B372">
         <v>350</v>
       </c>
-      <c r="C372" s="5" t="s">
+      <c r="C372" t="s">
         <v>10</v>
       </c>
       <c r="D372" s="2">
@@ -16106,13 +16981,13 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A373" s="5" t="s">
+      <c r="A373" t="s">
         <v>16</v>
       </c>
-      <c r="B373" s="5">
+      <c r="B373">
         <v>240</v>
       </c>
-      <c r="C373" s="5" t="s">
+      <c r="C373" t="s">
         <v>10</v>
       </c>
       <c r="D373" s="2">
@@ -16120,13 +16995,13 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A374" s="5" t="s">
+      <c r="A374" t="s">
         <v>49</v>
       </c>
-      <c r="B374" s="5">
+      <c r="B374">
         <v>300</v>
       </c>
-      <c r="C374" s="5" t="s">
+      <c r="C374" t="s">
         <v>10</v>
       </c>
       <c r="D374" s="2">
@@ -16134,13 +17009,13 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A375" s="5" t="s">
+      <c r="A375" t="s">
         <v>24</v>
       </c>
-      <c r="B375" s="5">
+      <c r="B375">
         <v>2.5</v>
       </c>
-      <c r="C375" s="5" t="s">
+      <c r="C375" t="s">
         <v>15</v>
       </c>
       <c r="D375" s="2">
@@ -16148,13 +17023,13 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A376" s="5" t="s">
+      <c r="A376" t="s">
         <v>68</v>
       </c>
-      <c r="B376" s="5">
+      <c r="B376">
         <v>135</v>
       </c>
-      <c r="C376" s="5" t="s">
+      <c r="C376" t="s">
         <v>10</v>
       </c>
       <c r="D376" s="2">
@@ -16162,13 +17037,13 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A377" s="5" t="s">
+      <c r="A377" t="s">
         <v>96</v>
       </c>
-      <c r="B377" s="5">
+      <c r="B377">
         <v>4</v>
       </c>
-      <c r="C377" s="5" t="s">
+      <c r="C377" t="s">
         <v>15</v>
       </c>
       <c r="D377" s="2">
@@ -16176,13 +17051,13 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A378" s="5" t="s">
+      <c r="A378" t="s">
         <v>109</v>
       </c>
-      <c r="B378" s="5">
+      <c r="B378">
         <v>4</v>
       </c>
-      <c r="C378" s="5" t="s">
+      <c r="C378" t="s">
         <v>15</v>
       </c>
       <c r="D378" s="2">
@@ -16190,13 +17065,13 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A379" s="5" t="s">
+      <c r="A379" t="s">
         <v>20</v>
       </c>
-      <c r="B379" s="5">
+      <c r="B379">
         <v>125</v>
       </c>
-      <c r="C379" s="5" t="s">
+      <c r="C379" t="s">
         <v>10</v>
       </c>
       <c r="D379" s="2">
@@ -16204,13 +17079,13 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A380" s="5" t="s">
+      <c r="A380" t="s">
         <v>90</v>
       </c>
-      <c r="B380" s="5">
+      <c r="B380">
         <v>300</v>
       </c>
-      <c r="C380" s="5" t="s">
+      <c r="C380" t="s">
         <v>10</v>
       </c>
       <c r="D380" s="2">
@@ -16218,13 +17093,13 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A381" s="5" t="s">
+      <c r="A381" t="s">
         <v>92</v>
       </c>
-      <c r="B381" s="5">
+      <c r="B381">
         <v>480</v>
       </c>
-      <c r="C381" s="5" t="s">
+      <c r="C381" t="s">
         <v>10</v>
       </c>
       <c r="D381" s="2">
@@ -16232,13 +17107,13 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A382" s="5" t="s">
+      <c r="A382" t="s">
         <v>51</v>
       </c>
-      <c r="B382" s="5">
+      <c r="B382">
         <v>30</v>
       </c>
-      <c r="C382" s="5" t="s">
+      <c r="C382" t="s">
         <v>10</v>
       </c>
       <c r="D382" s="2">
@@ -16246,13 +17121,13 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A383" s="5" t="s">
+      <c r="A383" t="s">
         <v>135</v>
       </c>
-      <c r="B383" s="5">
+      <c r="B383">
         <v>300</v>
       </c>
-      <c r="C383" s="5" t="s">
+      <c r="C383" t="s">
         <v>10</v>
       </c>
       <c r="D383" s="2">
@@ -16260,13 +17135,13 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A384" s="5" t="s">
+      <c r="A384" t="s">
         <v>8</v>
       </c>
-      <c r="B384" s="5">
+      <c r="B384">
         <v>400</v>
       </c>
-      <c r="C384" s="5" t="s">
+      <c r="C384" t="s">
         <v>10</v>
       </c>
       <c r="D384" s="2">
@@ -16274,13 +17149,13 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A385" s="5" t="s">
+      <c r="A385" t="s">
         <v>97</v>
       </c>
-      <c r="B385" s="5">
+      <c r="B385">
         <v>3</v>
       </c>
-      <c r="C385" s="5" t="s">
+      <c r="C385" t="s">
         <v>15</v>
       </c>
       <c r="D385" s="2">
@@ -16288,17 +17163,549 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A386" s="5" t="s">
+      <c r="A386" t="s">
         <v>41</v>
       </c>
-      <c r="B386" s="5">
+      <c r="B386">
         <v>5</v>
       </c>
-      <c r="C386" s="5" t="s">
+      <c r="C386" t="s">
         <v>15</v>
       </c>
       <c r="D386" s="2">
         <v>45844</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A387" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B387" s="6">
+        <v>2</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D387" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A388" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B388" s="6">
+        <v>1</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D388" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A389" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B389" s="6">
+        <v>18</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D389" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A390" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B390" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D390" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A391" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B391" s="6">
+        <v>2</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D391" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A392" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B392" s="6">
+        <v>2</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D392" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A393" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B393" s="6">
+        <v>2</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D393" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A394" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B394" s="6">
+        <v>1400</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D394" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A395" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B395" s="6">
+        <v>300</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D395" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A396" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B396" s="6">
+        <v>1</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D396" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A397" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B397" s="6">
+        <v>1350</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D397" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A398" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B398" s="6">
+        <v>45.6</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D398" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A399" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B399" s="6">
+        <v>1</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D399" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A400" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400" s="6">
+        <v>7</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D400" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A401" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B401" s="6">
+        <v>7</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D401" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A402" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B402" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="C402" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D402" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A403" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B403" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D403" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A404" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B404" s="6">
+        <v>4</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D404" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A405" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B405" s="6">
+        <v>154</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D405" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B406" s="6">
+        <v>180</v>
+      </c>
+      <c r="C406" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D406" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A407" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B407" s="6">
+        <v>530</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D407" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A408" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B408" s="6">
+        <v>468</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D408" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A409" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B409" s="6">
+        <v>420</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D409" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A410" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B410" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D410" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A411" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B411" s="6">
+        <v>30</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D411" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A412" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B412" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D412" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A413" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B413" s="6">
+        <v>1215</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D413" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A414" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B414" s="6">
+        <v>4</v>
+      </c>
+      <c r="C414" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D414" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A415" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B415" s="6">
+        <v>4</v>
+      </c>
+      <c r="C415" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D415" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A416" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B416" s="6">
+        <v>161</v>
+      </c>
+      <c r="C416" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D416" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A417" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B417" s="6">
+        <v>700</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D417" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A418" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B418" s="6">
+        <v>1120</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D418" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A419" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B419" s="6">
+        <v>150</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D419" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A420" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B420" s="6">
+        <v>1225</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D420" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A421" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B421" s="6">
+        <v>3</v>
+      </c>
+      <c r="C421" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D421" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A422" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B422" s="6">
+        <v>2</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D422" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A423" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B423" s="6">
+        <v>300</v>
+      </c>
+      <c r="C423" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D423" s="2">
+        <v>45852</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A424" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B424" s="6">
+        <v>2</v>
+      </c>
+      <c r="C424" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D424" s="2">
+        <v>45852</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306D653-8306-4A50-B1D8-4CCFF075089E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13822E9D-2759-4235-B9EC-CA2556230ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11454" yWindow="354" windowWidth="11208" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="702" yWindow="702" windowWidth="11208" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="187">
   <si>
     <t>Recipe</t>
   </si>
@@ -1406,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G449"/>
+  <dimension ref="A1:G484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B427" workbookViewId="0">
-      <selection activeCell="G412" sqref="G412:G449"/>
+    <sheetView tabSelected="1" topLeftCell="B460" workbookViewId="0">
+      <selection activeCell="G450" sqref="G450:G484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10872,22 +10872,22 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A412" s="5" t="s">
+      <c r="A412" t="s">
         <v>89</v>
       </c>
-      <c r="B412" s="5">
+      <c r="B412">
         <v>7</v>
       </c>
-      <c r="C412" s="5" t="s">
+      <c r="C412" t="s">
         <v>90</v>
       </c>
-      <c r="D412" s="5" t="s">
+      <c r="D412" t="s">
         <v>91</v>
       </c>
-      <c r="E412" s="5">
+      <c r="E412">
         <v>700</v>
       </c>
-      <c r="F412" s="5" t="s">
+      <c r="F412" t="s">
         <v>10</v>
       </c>
       <c r="G412" s="2">
@@ -10895,22 +10895,22 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A413" s="5" t="s">
+      <c r="A413" t="s">
         <v>89</v>
       </c>
-      <c r="B413" s="5">
+      <c r="B413">
         <v>7</v>
       </c>
-      <c r="C413" s="5" t="s">
+      <c r="C413" t="s">
         <v>92</v>
       </c>
-      <c r="D413" s="5" t="s">
+      <c r="D413" t="s">
         <v>93</v>
       </c>
-      <c r="E413" s="5">
+      <c r="E413">
         <v>1120</v>
       </c>
-      <c r="F413" s="5" t="s">
+      <c r="F413" t="s">
         <v>10</v>
       </c>
       <c r="G413" s="2">
@@ -10918,22 +10918,22 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A414" s="5" t="s">
+      <c r="A414" t="s">
         <v>89</v>
       </c>
-      <c r="B414" s="5">
+      <c r="B414">
         <v>7</v>
       </c>
-      <c r="C414" s="5" t="s">
+      <c r="C414" t="s">
         <v>64</v>
       </c>
-      <c r="D414" s="5" t="s">
+      <c r="D414" t="s">
         <v>65</v>
       </c>
-      <c r="E414" s="5">
+      <c r="E414">
         <v>350</v>
       </c>
-      <c r="F414" s="5" t="s">
+      <c r="F414" t="s">
         <v>10</v>
       </c>
       <c r="G414" s="2">
@@ -10941,22 +10941,22 @@
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A415" s="5" t="s">
+      <c r="A415" t="s">
         <v>89</v>
       </c>
-      <c r="B415" s="5">
+      <c r="B415">
         <v>7</v>
       </c>
-      <c r="C415" s="5" t="s">
+      <c r="C415" t="s">
         <v>68</v>
       </c>
-      <c r="D415" s="5" t="s">
+      <c r="D415" t="s">
         <v>69</v>
       </c>
-      <c r="E415" s="5">
+      <c r="E415">
         <v>315</v>
       </c>
-      <c r="F415" s="5" t="s">
+      <c r="F415" t="s">
         <v>10</v>
       </c>
       <c r="G415" s="2">
@@ -10964,22 +10964,22 @@
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A416" s="5" t="s">
+      <c r="A416" t="s">
         <v>57</v>
       </c>
-      <c r="B416" s="5">
+      <c r="B416">
         <v>12</v>
       </c>
-      <c r="C416" s="5" t="s">
+      <c r="C416" t="s">
         <v>58</v>
       </c>
-      <c r="D416" s="5" t="s">
+      <c r="D416" t="s">
         <v>59</v>
       </c>
-      <c r="E416" s="5">
+      <c r="E416">
         <v>2</v>
       </c>
-      <c r="F416" s="5" t="s">
+      <c r="F416" t="s">
         <v>15</v>
       </c>
       <c r="G416" s="2">
@@ -10987,22 +10987,22 @@
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A417" s="5" t="s">
+      <c r="A417" t="s">
         <v>57</v>
       </c>
-      <c r="B417" s="5">
+      <c r="B417">
         <v>12</v>
       </c>
-      <c r="C417" s="5" t="s">
+      <c r="C417" t="s">
         <v>60</v>
       </c>
-      <c r="D417" s="5" t="s">
+      <c r="D417" t="s">
         <v>61</v>
       </c>
-      <c r="E417" s="5">
+      <c r="E417">
         <v>468</v>
       </c>
-      <c r="F417" s="5" t="s">
+      <c r="F417" t="s">
         <v>10</v>
       </c>
       <c r="G417" s="2">
@@ -11010,22 +11010,22 @@
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A418" s="5" t="s">
+      <c r="A418" t="s">
         <v>57</v>
       </c>
-      <c r="B418" s="5">
+      <c r="B418">
         <v>12</v>
       </c>
-      <c r="C418" s="5" t="s">
+      <c r="C418" t="s">
         <v>62</v>
       </c>
-      <c r="D418" s="5" t="s">
+      <c r="D418" t="s">
         <v>63</v>
       </c>
-      <c r="E418" s="5">
+      <c r="E418">
         <v>300</v>
       </c>
-      <c r="F418" s="5" t="s">
+      <c r="F418" t="s">
         <v>10</v>
       </c>
       <c r="G418" s="2">
@@ -11033,22 +11033,22 @@
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A419" s="5" t="s">
+      <c r="A419" t="s">
         <v>57</v>
       </c>
-      <c r="B419" s="5">
+      <c r="B419">
         <v>12</v>
       </c>
-      <c r="C419" s="5" t="s">
+      <c r="C419" t="s">
         <v>64</v>
       </c>
-      <c r="D419" s="5" t="s">
+      <c r="D419" t="s">
         <v>65</v>
       </c>
-      <c r="E419" s="5">
+      <c r="E419">
         <v>180</v>
       </c>
-      <c r="F419" s="5" t="s">
+      <c r="F419" t="s">
         <v>10</v>
       </c>
       <c r="G419" s="2">
@@ -11056,22 +11056,22 @@
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A420" s="5" t="s">
+      <c r="A420" t="s">
         <v>57</v>
       </c>
-      <c r="B420" s="5">
+      <c r="B420">
         <v>12</v>
       </c>
-      <c r="C420" s="5" t="s">
+      <c r="C420" t="s">
         <v>53</v>
       </c>
-      <c r="D420" s="5" t="s">
+      <c r="D420" t="s">
         <v>54</v>
       </c>
-      <c r="E420" s="5">
+      <c r="E420">
         <v>9.6000000000000014</v>
       </c>
-      <c r="F420" s="5" t="s">
+      <c r="F420" t="s">
         <v>15</v>
       </c>
       <c r="G420" s="2">
@@ -11079,22 +11079,22 @@
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A421" s="5" t="s">
+      <c r="A421" t="s">
         <v>57</v>
       </c>
-      <c r="B421" s="5">
+      <c r="B421">
         <v>12</v>
       </c>
-      <c r="C421" s="5" t="s">
+      <c r="C421" t="s">
         <v>35</v>
       </c>
-      <c r="D421" s="5" t="s">
+      <c r="D421" t="s">
         <v>36</v>
       </c>
-      <c r="E421" s="5">
+      <c r="E421">
         <v>300</v>
       </c>
-      <c r="F421" s="5" t="s">
+      <c r="F421" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="2">
@@ -11102,22 +11102,22 @@
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A422" s="5" t="s">
+      <c r="A422" t="s">
         <v>57</v>
       </c>
-      <c r="B422" s="5">
+      <c r="B422">
         <v>12</v>
       </c>
-      <c r="C422" s="5" t="s">
+      <c r="C422" t="s">
         <v>66</v>
       </c>
-      <c r="D422" s="5" t="s">
+      <c r="D422" t="s">
         <v>67</v>
       </c>
-      <c r="E422" s="5">
+      <c r="E422">
         <v>180</v>
       </c>
-      <c r="F422" s="5" t="s">
+      <c r="F422" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="2">
@@ -11125,22 +11125,22 @@
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A423" s="5" t="s">
+      <c r="A423" t="s">
         <v>57</v>
       </c>
-      <c r="B423" s="5">
+      <c r="B423">
         <v>12</v>
       </c>
-      <c r="C423" s="5" t="s">
+      <c r="C423" t="s">
         <v>68</v>
       </c>
-      <c r="D423" s="5" t="s">
+      <c r="D423" t="s">
         <v>69</v>
       </c>
-      <c r="E423" s="5">
+      <c r="E423">
         <v>600</v>
       </c>
-      <c r="F423" s="5" t="s">
+      <c r="F423" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="2">
@@ -11148,22 +11148,22 @@
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A424" s="5" t="s">
+      <c r="A424" t="s">
         <v>114</v>
       </c>
-      <c r="B424" s="5">
+      <c r="B424">
         <v>2</v>
       </c>
-      <c r="C424" s="5" t="s">
+      <c r="C424" t="s">
         <v>103</v>
       </c>
-      <c r="D424" s="5" t="s">
+      <c r="D424" t="s">
         <v>115</v>
       </c>
-      <c r="E424" s="5">
+      <c r="E424">
         <v>0.5</v>
       </c>
-      <c r="F424" s="5" t="s">
+      <c r="F424" t="s">
         <v>116</v>
       </c>
       <c r="G424" s="2">
@@ -11171,22 +11171,22 @@
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A425" s="5" t="s">
+      <c r="A425" t="s">
         <v>114</v>
       </c>
-      <c r="B425" s="5">
+      <c r="B425">
         <v>2</v>
       </c>
-      <c r="C425" s="5" t="s">
+      <c r="C425" t="s">
         <v>30</v>
       </c>
-      <c r="D425" s="5" t="s">
+      <c r="D425" t="s">
         <v>31</v>
       </c>
-      <c r="E425" s="5">
+      <c r="E425">
         <v>7</v>
       </c>
-      <c r="F425" s="5" t="s">
+      <c r="F425" t="s">
         <v>70</v>
       </c>
       <c r="G425" s="2">
@@ -11194,22 +11194,22 @@
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A426" s="5" t="s">
+      <c r="A426" t="s">
         <v>114</v>
       </c>
-      <c r="B426" s="5">
+      <c r="B426">
         <v>2</v>
       </c>
-      <c r="C426" s="5" t="s">
+      <c r="C426" t="s">
         <v>110</v>
       </c>
-      <c r="D426" s="5" t="s">
+      <c r="D426" t="s">
         <v>117</v>
       </c>
-      <c r="E426" s="5">
+      <c r="E426">
         <v>100</v>
       </c>
-      <c r="F426" s="5" t="s">
+      <c r="F426" t="s">
         <v>70</v>
       </c>
       <c r="G426" s="2">
@@ -11217,22 +11217,22 @@
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A427" s="5" t="s">
+      <c r="A427" t="s">
         <v>114</v>
       </c>
-      <c r="B427" s="5">
+      <c r="B427">
         <v>2</v>
       </c>
-      <c r="C427" s="5" t="s">
+      <c r="C427" t="s">
         <v>68</v>
       </c>
-      <c r="D427" s="5" t="s">
+      <c r="D427" t="s">
         <v>69</v>
       </c>
-      <c r="E427" s="5">
+      <c r="E427">
         <v>200</v>
       </c>
-      <c r="F427" s="5" t="s">
+      <c r="F427" t="s">
         <v>70</v>
       </c>
       <c r="G427" s="2">
@@ -11240,22 +11240,22 @@
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A428" s="5" t="s">
+      <c r="A428" t="s">
         <v>114</v>
       </c>
-      <c r="B428" s="5">
+      <c r="B428">
         <v>2</v>
       </c>
-      <c r="C428" s="5" t="s">
+      <c r="C428" t="s">
         <v>32</v>
       </c>
-      <c r="D428" s="5" t="s">
+      <c r="D428" t="s">
         <v>33</v>
       </c>
-      <c r="E428" s="5">
+      <c r="E428">
         <v>2</v>
       </c>
-      <c r="F428" s="5" t="s">
+      <c r="F428" t="s">
         <v>118</v>
       </c>
       <c r="G428" s="2">
@@ -11263,22 +11263,22 @@
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A429" s="5" t="s">
+      <c r="A429" t="s">
         <v>114</v>
       </c>
-      <c r="B429" s="5">
+      <c r="B429">
         <v>2</v>
       </c>
-      <c r="C429" s="5" t="s">
+      <c r="C429" t="s">
         <v>26</v>
       </c>
-      <c r="D429" s="5" t="s">
+      <c r="D429" t="s">
         <v>27</v>
       </c>
-      <c r="E429" s="5">
+      <c r="E429">
         <v>0.5</v>
       </c>
-      <c r="F429" s="5" t="s">
+      <c r="F429" t="s">
         <v>116</v>
       </c>
       <c r="G429" s="2">
@@ -11286,22 +11286,22 @@
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A430" s="5" t="s">
+      <c r="A430" t="s">
         <v>114</v>
       </c>
-      <c r="B430" s="5">
+      <c r="B430">
         <v>2</v>
       </c>
-      <c r="C430" s="5" t="s">
+      <c r="C430" t="s">
         <v>45</v>
       </c>
-      <c r="D430" s="5" t="s">
+      <c r="D430" t="s">
         <v>46</v>
       </c>
-      <c r="E430" s="5">
+      <c r="E430">
         <v>0.5</v>
       </c>
-      <c r="F430" s="5" t="s">
+      <c r="F430" t="s">
         <v>116</v>
       </c>
       <c r="G430" s="2">
@@ -11309,22 +11309,22 @@
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A431" s="5" t="s">
+      <c r="A431" t="s">
         <v>114</v>
       </c>
-      <c r="B431" s="5">
+      <c r="B431">
         <v>2</v>
       </c>
-      <c r="C431" s="5" t="s">
+      <c r="C431" t="s">
         <v>108</v>
       </c>
-      <c r="D431" s="5" t="s">
+      <c r="D431" t="s">
         <v>119</v>
       </c>
-      <c r="E431" s="5">
+      <c r="E431">
         <v>20</v>
       </c>
-      <c r="F431" s="5" t="s">
+      <c r="F431" t="s">
         <v>70</v>
       </c>
       <c r="G431" s="2">
@@ -11332,22 +11332,22 @@
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A432" s="5" t="s">
+      <c r="A432" t="s">
         <v>114</v>
       </c>
-      <c r="B432" s="5">
+      <c r="B432">
         <v>2</v>
       </c>
-      <c r="C432" s="5" t="s">
+      <c r="C432" t="s">
         <v>24</v>
       </c>
-      <c r="D432" s="5" t="s">
+      <c r="D432" t="s">
         <v>25</v>
       </c>
-      <c r="E432" s="5">
+      <c r="E432">
         <v>0.5</v>
       </c>
-      <c r="F432" s="5" t="s">
+      <c r="F432" t="s">
         <v>116</v>
       </c>
       <c r="G432" s="2">
@@ -11355,22 +11355,22 @@
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A433" s="5" t="s">
+      <c r="A433" t="s">
         <v>114</v>
       </c>
-      <c r="B433" s="5">
+      <c r="B433">
         <v>2</v>
       </c>
-      <c r="C433" s="5" t="s">
+      <c r="C433" t="s">
         <v>112</v>
       </c>
-      <c r="D433" s="5" t="s">
+      <c r="D433" t="s">
         <v>120</v>
       </c>
-      <c r="E433" s="5">
+      <c r="E433">
         <v>2</v>
       </c>
-      <c r="F433" s="5" t="s">
+      <c r="F433" t="s">
         <v>15</v>
       </c>
       <c r="G433" s="2">
@@ -11378,22 +11378,22 @@
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A434" s="5" t="s">
+      <c r="A434" t="s">
         <v>121</v>
       </c>
-      <c r="B434" s="5">
+      <c r="B434">
         <v>1</v>
       </c>
-      <c r="C434" s="5" t="s">
+      <c r="C434" t="s">
         <v>103</v>
       </c>
-      <c r="D434" s="5" t="s">
+      <c r="D434" t="s">
         <v>115</v>
       </c>
-      <c r="E434" s="5">
+      <c r="E434">
         <v>0.25</v>
       </c>
-      <c r="F434" s="5" t="s">
+      <c r="F434" t="s">
         <v>116</v>
       </c>
       <c r="G434" s="2">
@@ -11401,22 +11401,22 @@
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A435" s="5" t="s">
+      <c r="A435" t="s">
         <v>121</v>
       </c>
-      <c r="B435" s="5">
+      <c r="B435">
         <v>1</v>
       </c>
-      <c r="C435" s="5" t="s">
+      <c r="C435" t="s">
         <v>30</v>
       </c>
-      <c r="D435" s="5" t="s">
+      <c r="D435" t="s">
         <v>31</v>
       </c>
-      <c r="E435" s="5">
+      <c r="E435">
         <v>3.5</v>
       </c>
-      <c r="F435" s="5" t="s">
+      <c r="F435" t="s">
         <v>70</v>
       </c>
       <c r="G435" s="2">
@@ -11424,22 +11424,22 @@
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A436" s="5" t="s">
+      <c r="A436" t="s">
         <v>121</v>
       </c>
-      <c r="B436" s="5">
+      <c r="B436">
         <v>1</v>
       </c>
-      <c r="C436" s="5" t="s">
+      <c r="C436" t="s">
         <v>110</v>
       </c>
-      <c r="D436" s="5" t="s">
+      <c r="D436" t="s">
         <v>117</v>
       </c>
-      <c r="E436" s="5">
+      <c r="E436">
         <v>50</v>
       </c>
-      <c r="F436" s="5" t="s">
+      <c r="F436" t="s">
         <v>70</v>
       </c>
       <c r="G436" s="2">
@@ -11447,22 +11447,22 @@
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A437" s="5" t="s">
+      <c r="A437" t="s">
         <v>121</v>
       </c>
-      <c r="B437" s="5">
+      <c r="B437">
         <v>1</v>
       </c>
-      <c r="C437" s="5" t="s">
+      <c r="C437" t="s">
         <v>68</v>
       </c>
-      <c r="D437" s="5" t="s">
+      <c r="D437" t="s">
         <v>69</v>
       </c>
-      <c r="E437" s="5">
+      <c r="E437">
         <v>100</v>
       </c>
-      <c r="F437" s="5" t="s">
+      <c r="F437" t="s">
         <v>70</v>
       </c>
       <c r="G437" s="2">
@@ -11470,22 +11470,22 @@
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A438" s="5" t="s">
+      <c r="A438" t="s">
         <v>121</v>
       </c>
-      <c r="B438" s="5">
+      <c r="B438">
         <v>1</v>
       </c>
-      <c r="C438" s="5" t="s">
+      <c r="C438" t="s">
         <v>32</v>
       </c>
-      <c r="D438" s="5" t="s">
+      <c r="D438" t="s">
         <v>33</v>
       </c>
-      <c r="E438" s="5">
+      <c r="E438">
         <v>1</v>
       </c>
-      <c r="F438" s="5" t="s">
+      <c r="F438" t="s">
         <v>118</v>
       </c>
       <c r="G438" s="2">
@@ -11493,22 +11493,22 @@
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A439" s="5" t="s">
+      <c r="A439" t="s">
         <v>121</v>
       </c>
-      <c r="B439" s="5">
+      <c r="B439">
         <v>1</v>
       </c>
-      <c r="C439" s="5" t="s">
+      <c r="C439" t="s">
         <v>26</v>
       </c>
-      <c r="D439" s="5" t="s">
+      <c r="D439" t="s">
         <v>27</v>
       </c>
-      <c r="E439" s="5">
+      <c r="E439">
         <v>0.25</v>
       </c>
-      <c r="F439" s="5" t="s">
+      <c r="F439" t="s">
         <v>116</v>
       </c>
       <c r="G439" s="2">
@@ -11516,22 +11516,22 @@
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A440" s="5" t="s">
+      <c r="A440" t="s">
         <v>121</v>
       </c>
-      <c r="B440" s="5">
+      <c r="B440">
         <v>1</v>
       </c>
-      <c r="C440" s="5" t="s">
+      <c r="C440" t="s">
         <v>45</v>
       </c>
-      <c r="D440" s="5" t="s">
+      <c r="D440" t="s">
         <v>46</v>
       </c>
-      <c r="E440" s="5">
+      <c r="E440">
         <v>0.25</v>
       </c>
-      <c r="F440" s="5" t="s">
+      <c r="F440" t="s">
         <v>116</v>
       </c>
       <c r="G440" s="2">
@@ -11539,22 +11539,22 @@
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A441" s="5" t="s">
+      <c r="A441" t="s">
         <v>121</v>
       </c>
-      <c r="B441" s="5">
+      <c r="B441">
         <v>1</v>
       </c>
-      <c r="C441" s="5" t="s">
+      <c r="C441" t="s">
         <v>108</v>
       </c>
-      <c r="D441" s="5" t="s">
+      <c r="D441" t="s">
         <v>119</v>
       </c>
-      <c r="E441" s="5">
-        <v>10</v>
-      </c>
-      <c r="F441" s="5" t="s">
+      <c r="E441">
+        <v>10</v>
+      </c>
+      <c r="F441" t="s">
         <v>70</v>
       </c>
       <c r="G441" s="2">
@@ -11562,22 +11562,22 @@
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A442" s="5" t="s">
+      <c r="A442" t="s">
         <v>121</v>
       </c>
-      <c r="B442" s="5">
+      <c r="B442">
         <v>1</v>
       </c>
-      <c r="C442" s="5" t="s">
+      <c r="C442" t="s">
         <v>24</v>
       </c>
-      <c r="D442" s="5" t="s">
+      <c r="D442" t="s">
         <v>25</v>
       </c>
-      <c r="E442" s="5">
+      <c r="E442">
         <v>0.25</v>
       </c>
-      <c r="F442" s="5" t="s">
+      <c r="F442" t="s">
         <v>116</v>
       </c>
       <c r="G442" s="2">
@@ -11585,22 +11585,22 @@
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A443" s="5" t="s">
+      <c r="A443" t="s">
         <v>7</v>
       </c>
-      <c r="B443" s="5">
+      <c r="B443">
         <v>7</v>
       </c>
-      <c r="C443" s="5" t="s">
+      <c r="C443" t="s">
         <v>8</v>
       </c>
-      <c r="D443" s="5" t="s">
+      <c r="D443" t="s">
         <v>9</v>
       </c>
-      <c r="E443" s="5">
+      <c r="E443">
         <v>1225</v>
       </c>
-      <c r="F443" s="5" t="s">
+      <c r="F443" t="s">
         <v>10</v>
       </c>
       <c r="G443" s="2">
@@ -11608,22 +11608,22 @@
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A444" s="5" t="s">
+      <c r="A444" t="s">
         <v>7</v>
       </c>
-      <c r="B444" s="5">
+      <c r="B444">
         <v>7</v>
       </c>
-      <c r="C444" s="5" t="s">
+      <c r="C444" t="s">
         <v>11</v>
       </c>
-      <c r="D444" s="5" t="s">
+      <c r="D444" t="s">
         <v>12</v>
       </c>
-      <c r="E444" s="5">
+      <c r="E444">
         <v>1400</v>
       </c>
-      <c r="F444" s="5" t="s">
+      <c r="F444" t="s">
         <v>10</v>
       </c>
       <c r="G444" s="2">
@@ -11631,22 +11631,22 @@
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A445" s="5" t="s">
+      <c r="A445" t="s">
         <v>7</v>
       </c>
-      <c r="B445" s="5">
+      <c r="B445">
         <v>7</v>
       </c>
-      <c r="C445" s="5" t="s">
+      <c r="C445" t="s">
         <v>13</v>
       </c>
-      <c r="D445" s="5" t="s">
+      <c r="D445" t="s">
         <v>14</v>
       </c>
-      <c r="E445" s="5">
+      <c r="E445">
         <v>7</v>
       </c>
-      <c r="F445" s="5" t="s">
+      <c r="F445" t="s">
         <v>15</v>
       </c>
       <c r="G445" s="2">
@@ -11654,22 +11654,22 @@
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A446" s="5" t="s">
+      <c r="A446" t="s">
         <v>7</v>
       </c>
-      <c r="B446" s="5">
+      <c r="B446">
         <v>7</v>
       </c>
-      <c r="C446" s="5" t="s">
+      <c r="C446" t="s">
         <v>16</v>
       </c>
-      <c r="D446" s="5" t="s">
+      <c r="D446" t="s">
         <v>17</v>
       </c>
-      <c r="E446" s="5">
+      <c r="E446">
         <v>420</v>
       </c>
-      <c r="F446" s="5" t="s">
+      <c r="F446" t="s">
         <v>10</v>
       </c>
       <c r="G446" s="2">
@@ -11677,22 +11677,22 @@
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A447" s="5" t="s">
+      <c r="A447" t="s">
         <v>7</v>
       </c>
-      <c r="B447" s="5">
+      <c r="B447">
         <v>7</v>
       </c>
-      <c r="C447" s="5" t="s">
+      <c r="C447" t="s">
         <v>18</v>
       </c>
-      <c r="D447" s="5" t="s">
+      <c r="D447" t="s">
         <v>19</v>
       </c>
-      <c r="E447" s="5">
+      <c r="E447">
         <v>7</v>
       </c>
-      <c r="F447" s="5" t="s">
+      <c r="F447" t="s">
         <v>15</v>
       </c>
       <c r="G447" s="2">
@@ -11700,22 +11700,22 @@
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A448" s="5" t="s">
+      <c r="A448" t="s">
         <v>7</v>
       </c>
-      <c r="B448" s="5">
+      <c r="B448">
         <v>7</v>
       </c>
-      <c r="C448" s="5" t="s">
+      <c r="C448" t="s">
         <v>20</v>
       </c>
-      <c r="D448" s="5" t="s">
+      <c r="D448" t="s">
         <v>21</v>
       </c>
-      <c r="E448" s="5">
+      <c r="E448">
         <v>161</v>
       </c>
-      <c r="F448" s="5" t="s">
+      <c r="F448" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="2">
@@ -11723,26 +11723,831 @@
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A449" s="5" t="s">
+      <c r="A449" t="s">
         <v>7</v>
       </c>
-      <c r="B449" s="5">
+      <c r="B449">
         <v>7</v>
       </c>
-      <c r="C449" s="5" t="s">
+      <c r="C449" t="s">
         <v>22</v>
       </c>
-      <c r="D449" s="5" t="s">
+      <c r="D449" t="s">
         <v>23</v>
       </c>
-      <c r="E449" s="5">
+      <c r="E449">
         <v>154</v>
       </c>
-      <c r="F449" s="5" t="s">
+      <c r="F449" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="2">
         <v>45852</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A450" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B450" s="6">
+        <v>7</v>
+      </c>
+      <c r="C450" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D450" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E450" s="6">
+        <v>1225</v>
+      </c>
+      <c r="F450" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G450" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A451" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B451" s="6">
+        <v>7</v>
+      </c>
+      <c r="C451" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E451" s="6">
+        <v>1400</v>
+      </c>
+      <c r="F451" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G451" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A452" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B452" s="6">
+        <v>7</v>
+      </c>
+      <c r="C452" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D452" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E452" s="6">
+        <v>7</v>
+      </c>
+      <c r="F452" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G452" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A453" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B453" s="6">
+        <v>7</v>
+      </c>
+      <c r="C453" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D453" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E453" s="6">
+        <v>420</v>
+      </c>
+      <c r="F453" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G453" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A454" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454" s="6">
+        <v>7</v>
+      </c>
+      <c r="C454" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D454" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E454" s="6">
+        <v>7</v>
+      </c>
+      <c r="F454" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G454" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A455" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B455" s="6">
+        <v>7</v>
+      </c>
+      <c r="C455" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D455" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E455" s="6">
+        <v>161</v>
+      </c>
+      <c r="F455" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G455" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A456" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B456" s="6">
+        <v>7</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D456" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E456" s="6">
+        <v>154</v>
+      </c>
+      <c r="F456" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G456" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A457" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B457" s="6">
+        <v>6</v>
+      </c>
+      <c r="C457" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D457" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E457" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F457" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G457" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A458" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B458" s="6">
+        <v>6</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D458" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E458" s="6">
+        <v>21</v>
+      </c>
+      <c r="F458" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G458" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A459" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B459" s="6">
+        <v>6</v>
+      </c>
+      <c r="C459" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D459" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E459" s="6">
+        <v>300</v>
+      </c>
+      <c r="F459" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G459" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A460" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B460" s="6">
+        <v>6</v>
+      </c>
+      <c r="C460" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D460" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E460" s="6">
+        <v>600</v>
+      </c>
+      <c r="F460" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G460" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A461" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B461" s="6">
+        <v>6</v>
+      </c>
+      <c r="C461" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D461" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E461" s="6">
+        <v>6</v>
+      </c>
+      <c r="F461" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G461" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A462" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B462" s="6">
+        <v>6</v>
+      </c>
+      <c r="C462" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D462" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E462" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F462" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G462" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A463" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B463" s="6">
+        <v>6</v>
+      </c>
+      <c r="C463" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D463" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E463" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F463" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G463" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A464" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B464" s="6">
+        <v>6</v>
+      </c>
+      <c r="C464" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D464" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E464" s="6">
+        <v>60</v>
+      </c>
+      <c r="F464" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G464" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A465" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B465" s="6">
+        <v>6</v>
+      </c>
+      <c r="C465" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D465" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E465" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F465" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G465" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A466" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B466" s="6">
+        <v>6</v>
+      </c>
+      <c r="C466" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D466" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E466" s="6">
+        <v>6</v>
+      </c>
+      <c r="F466" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G466" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A467" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B467" s="6">
+        <v>4</v>
+      </c>
+      <c r="C467" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D467" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E467" s="6">
+        <v>1</v>
+      </c>
+      <c r="F467" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G467" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A468" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B468" s="6">
+        <v>4</v>
+      </c>
+      <c r="C468" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D468" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E468" s="6">
+        <v>14</v>
+      </c>
+      <c r="F468" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G468" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A469" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B469" s="6">
+        <v>4</v>
+      </c>
+      <c r="C469" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D469" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E469" s="6">
+        <v>200</v>
+      </c>
+      <c r="F469" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G469" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A470" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B470" s="6">
+        <v>4</v>
+      </c>
+      <c r="C470" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D470" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E470" s="6">
+        <v>400</v>
+      </c>
+      <c r="F470" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G470" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A471" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B471" s="6">
+        <v>4</v>
+      </c>
+      <c r="C471" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D471" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E471" s="6">
+        <v>4</v>
+      </c>
+      <c r="F471" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G471" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A472" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B472" s="6">
+        <v>4</v>
+      </c>
+      <c r="C472" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E472" s="6">
+        <v>1</v>
+      </c>
+      <c r="F472" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G472" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A473" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B473" s="6">
+        <v>4</v>
+      </c>
+      <c r="C473" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D473" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E473" s="6">
+        <v>1</v>
+      </c>
+      <c r="F473" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G473" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A474" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B474" s="6">
+        <v>4</v>
+      </c>
+      <c r="C474" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E474" s="6">
+        <v>40</v>
+      </c>
+      <c r="F474" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G474" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A475" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B475" s="6">
+        <v>4</v>
+      </c>
+      <c r="C475" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E475" s="6">
+        <v>1</v>
+      </c>
+      <c r="F475" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G475" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A476" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B476" s="6">
+        <v>1</v>
+      </c>
+      <c r="C476" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D476" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E476" s="6">
+        <v>1</v>
+      </c>
+      <c r="F476" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G476" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A477" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B477" s="6">
+        <v>1</v>
+      </c>
+      <c r="C477" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D477" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E477" s="6">
+        <v>75</v>
+      </c>
+      <c r="F477" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G477" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A478" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B478" s="6">
+        <v>1</v>
+      </c>
+      <c r="C478" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D478" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E478" s="6">
+        <v>50</v>
+      </c>
+      <c r="F478" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G478" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A479" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B479" s="6">
+        <v>1</v>
+      </c>
+      <c r="C479" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D479" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E479" s="6">
+        <v>1</v>
+      </c>
+      <c r="F479" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G479" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A480" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B480" s="6">
+        <v>1</v>
+      </c>
+      <c r="C480" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D480" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E480" s="6">
+        <v>75</v>
+      </c>
+      <c r="F480" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G480" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A481" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B481" s="6">
+        <v>1</v>
+      </c>
+      <c r="C481" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D481" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E481" s="6">
+        <v>50</v>
+      </c>
+      <c r="F481" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G481" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A482" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B482" s="6">
+        <v>1</v>
+      </c>
+      <c r="C482" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D482" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E482" s="6">
+        <v>25</v>
+      </c>
+      <c r="F482" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G482" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A483" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B483" s="6">
+        <v>1</v>
+      </c>
+      <c r="C483" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D483" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E483" s="6">
+        <v>1</v>
+      </c>
+      <c r="F483" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G483" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A484" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B484" s="6">
+        <v>1</v>
+      </c>
+      <c r="C484" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D484" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E484" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F484" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G484" s="2">
+        <v>45859</v>
       </c>
     </row>
   </sheetData>
@@ -11760,10 +12565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D424"/>
+  <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="D387" sqref="D387:D424"/>
+    <sheetView topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="D425" sqref="D425:D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -17177,13 +17982,13 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A387" s="6" t="s">
+      <c r="A387" t="s">
         <v>132</v>
       </c>
-      <c r="B387" s="6">
+      <c r="B387">
         <v>2</v>
       </c>
-      <c r="C387" s="6" t="s">
+      <c r="C387" t="s">
         <v>15</v>
       </c>
       <c r="D387" s="2">
@@ -17191,13 +17996,13 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A388" s="6" t="s">
+      <c r="A388" t="s">
         <v>101</v>
       </c>
-      <c r="B388" s="6">
+      <c r="B388">
         <v>1</v>
       </c>
-      <c r="C388" s="6" t="s">
+      <c r="C388" t="s">
         <v>15</v>
       </c>
       <c r="D388" s="2">
@@ -17205,13 +18010,13 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A389" s="6" t="s">
+      <c r="A389" t="s">
         <v>102</v>
       </c>
-      <c r="B389" s="6">
+      <c r="B389">
         <v>18</v>
       </c>
-      <c r="C389" s="6" t="s">
+      <c r="C389" t="s">
         <v>15</v>
       </c>
       <c r="D389" s="2">
@@ -17219,13 +18024,13 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A390" s="6" t="s">
+      <c r="A390" t="s">
         <v>103</v>
       </c>
-      <c r="B390" s="6">
+      <c r="B390">
         <v>0.75</v>
       </c>
-      <c r="C390" s="6" t="s">
+      <c r="C390" t="s">
         <v>15</v>
       </c>
       <c r="D390" s="2">
@@ -17233,13 +18038,13 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A391" s="6" t="s">
+      <c r="A391" t="s">
         <v>133</v>
       </c>
-      <c r="B391" s="6">
+      <c r="B391">
         <v>2</v>
       </c>
-      <c r="C391" s="6" t="s">
+      <c r="C391" t="s">
         <v>15</v>
       </c>
       <c r="D391" s="2">
@@ -17247,13 +18052,13 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A392" s="6" t="s">
+      <c r="A392" t="s">
         <v>94</v>
       </c>
-      <c r="B392" s="6">
+      <c r="B392">
         <v>2</v>
       </c>
-      <c r="C392" s="6" t="s">
+      <c r="C392" t="s">
         <v>15</v>
       </c>
       <c r="D392" s="2">
@@ -17261,13 +18066,13 @@
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A393" s="6" t="s">
+      <c r="A393" t="s">
         <v>58</v>
       </c>
-      <c r="B393" s="6">
+      <c r="B393">
         <v>2</v>
       </c>
-      <c r="C393" s="6" t="s">
+      <c r="C393" t="s">
         <v>15</v>
       </c>
       <c r="D393" s="2">
@@ -17275,13 +18080,13 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A394" s="6" t="s">
+      <c r="A394" t="s">
         <v>11</v>
       </c>
-      <c r="B394" s="6">
+      <c r="B394">
         <v>1400</v>
       </c>
-      <c r="C394" s="6" t="s">
+      <c r="C394" t="s">
         <v>10</v>
       </c>
       <c r="D394" s="2">
@@ -17289,13 +18094,13 @@
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A395" s="6" t="s">
+      <c r="A395" t="s">
         <v>35</v>
       </c>
-      <c r="B395" s="6">
+      <c r="B395">
         <v>300</v>
       </c>
-      <c r="C395" s="6" t="s">
+      <c r="C395" t="s">
         <v>10</v>
       </c>
       <c r="D395" s="2">
@@ -17303,13 +18108,13 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A396" s="6" t="s">
+      <c r="A396" t="s">
         <v>95</v>
       </c>
-      <c r="B396" s="6">
+      <c r="B396">
         <v>1</v>
       </c>
-      <c r="C396" s="6" t="s">
+      <c r="C396" t="s">
         <v>15</v>
       </c>
       <c r="D396" s="2">
@@ -17317,13 +18122,13 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A397" s="6" t="s">
+      <c r="A397" t="s">
         <v>43</v>
       </c>
-      <c r="B397" s="6">
+      <c r="B397">
         <v>1350</v>
       </c>
-      <c r="C397" s="6" t="s">
+      <c r="C397" t="s">
         <v>10</v>
       </c>
       <c r="D397" s="2">
@@ -17331,13 +18136,13 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A398" s="6" t="s">
+      <c r="A398" t="s">
         <v>53</v>
       </c>
-      <c r="B398" s="6">
+      <c r="B398">
         <v>45.6</v>
       </c>
-      <c r="C398" s="6" t="s">
+      <c r="C398" t="s">
         <v>15</v>
       </c>
       <c r="D398" s="2">
@@ -17345,13 +18150,13 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A399" s="6" t="s">
+      <c r="A399" t="s">
         <v>178</v>
       </c>
-      <c r="B399" s="6">
+      <c r="B399">
         <v>1</v>
       </c>
-      <c r="C399" s="6" t="s">
+      <c r="C399" t="s">
         <v>15</v>
       </c>
       <c r="D399" s="2">
@@ -17359,13 +18164,13 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A400" s="6" t="s">
+      <c r="A400" t="s">
         <v>18</v>
       </c>
-      <c r="B400" s="6">
+      <c r="B400">
         <v>7</v>
       </c>
-      <c r="C400" s="6" t="s">
+      <c r="C400" t="s">
         <v>15</v>
       </c>
       <c r="D400" s="2">
@@ -17373,13 +18178,13 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A401" s="6" t="s">
+      <c r="A401" t="s">
         <v>13</v>
       </c>
-      <c r="B401" s="6">
+      <c r="B401">
         <v>7</v>
       </c>
-      <c r="C401" s="6" t="s">
+      <c r="C401" t="s">
         <v>15</v>
       </c>
       <c r="D401" s="2">
@@ -17387,13 +18192,13 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A402" s="6" t="s">
+      <c r="A402" t="s">
         <v>30</v>
       </c>
-      <c r="B402" s="6">
+      <c r="B402">
         <v>10.5</v>
       </c>
-      <c r="C402" s="6" t="s">
+      <c r="C402" t="s">
         <v>10</v>
       </c>
       <c r="D402" s="2">
@@ -17401,13 +18206,13 @@
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A403" s="6" t="s">
+      <c r="A403" t="s">
         <v>45</v>
       </c>
-      <c r="B403" s="6">
+      <c r="B403">
         <v>0.75</v>
       </c>
-      <c r="C403" s="6" t="s">
+      <c r="C403" t="s">
         <v>15</v>
       </c>
       <c r="D403" s="2">
@@ -17415,13 +18220,13 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A404" s="6" t="s">
+      <c r="A404" t="s">
         <v>55</v>
       </c>
-      <c r="B404" s="6">
+      <c r="B404">
         <v>4</v>
       </c>
-      <c r="C404" s="6" t="s">
+      <c r="C404" t="s">
         <v>15</v>
       </c>
       <c r="D404" s="2">
@@ -17429,13 +18234,13 @@
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A405" s="6" t="s">
+      <c r="A405" t="s">
         <v>22</v>
       </c>
-      <c r="B405" s="6">
+      <c r="B405">
         <v>154</v>
       </c>
-      <c r="C405" s="6" t="s">
+      <c r="C405" t="s">
         <v>10</v>
       </c>
       <c r="D405" s="2">
@@ -17443,13 +18248,13 @@
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A406" s="6" t="s">
+      <c r="A406" t="s">
         <v>66</v>
       </c>
-      <c r="B406" s="6">
+      <c r="B406">
         <v>180</v>
       </c>
-      <c r="C406" s="6" t="s">
+      <c r="C406" t="s">
         <v>10</v>
       </c>
       <c r="D406" s="2">
@@ -17457,13 +18262,13 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A407" s="6" t="s">
+      <c r="A407" t="s">
         <v>64</v>
       </c>
-      <c r="B407" s="6">
+      <c r="B407">
         <v>530</v>
       </c>
-      <c r="C407" s="6" t="s">
+      <c r="C407" t="s">
         <v>10</v>
       </c>
       <c r="D407" s="2">
@@ -17471,13 +18276,13 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A408" s="6" t="s">
+      <c r="A408" t="s">
         <v>60</v>
       </c>
-      <c r="B408" s="6">
+      <c r="B408">
         <v>468</v>
       </c>
-      <c r="C408" s="6" t="s">
+      <c r="C408" t="s">
         <v>10</v>
       </c>
       <c r="D408" s="2">
@@ -17485,13 +18290,13 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A409" s="6" t="s">
+      <c r="A409" t="s">
         <v>16</v>
       </c>
-      <c r="B409" s="6">
+      <c r="B409">
         <v>420</v>
       </c>
-      <c r="C409" s="6" t="s">
+      <c r="C409" t="s">
         <v>10</v>
       </c>
       <c r="D409" s="2">
@@ -17499,13 +18304,13 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A410" s="6" t="s">
+      <c r="A410" t="s">
         <v>26</v>
       </c>
-      <c r="B410" s="6">
+      <c r="B410">
         <v>0.75</v>
       </c>
-      <c r="C410" s="6" t="s">
+      <c r="C410" t="s">
         <v>15</v>
       </c>
       <c r="D410" s="2">
@@ -17513,13 +18318,13 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A411" s="6" t="s">
+      <c r="A411" t="s">
         <v>108</v>
       </c>
-      <c r="B411" s="6">
+      <c r="B411">
         <v>30</v>
       </c>
-      <c r="C411" s="6" t="s">
+      <c r="C411" t="s">
         <v>10</v>
       </c>
       <c r="D411" s="2">
@@ -17527,13 +18332,13 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A412" s="6" t="s">
+      <c r="A412" t="s">
         <v>24</v>
       </c>
-      <c r="B412" s="6">
+      <c r="B412">
         <v>0.75</v>
       </c>
-      <c r="C412" s="6" t="s">
+      <c r="C412" t="s">
         <v>15</v>
       </c>
       <c r="D412" s="2">
@@ -17541,13 +18346,13 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A413" s="6" t="s">
+      <c r="A413" t="s">
         <v>68</v>
       </c>
-      <c r="B413" s="6">
+      <c r="B413">
         <v>1215</v>
       </c>
-      <c r="C413" s="6" t="s">
+      <c r="C413" t="s">
         <v>10</v>
       </c>
       <c r="D413" s="2">
@@ -17555,13 +18360,13 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A414" s="6" t="s">
+      <c r="A414" t="s">
         <v>96</v>
       </c>
-      <c r="B414" s="6">
+      <c r="B414">
         <v>4</v>
       </c>
-      <c r="C414" s="6" t="s">
+      <c r="C414" t="s">
         <v>15</v>
       </c>
       <c r="D414" s="2">
@@ -17569,13 +18374,13 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A415" s="6" t="s">
+      <c r="A415" t="s">
         <v>109</v>
       </c>
-      <c r="B415" s="6">
+      <c r="B415">
         <v>4</v>
       </c>
-      <c r="C415" s="6" t="s">
+      <c r="C415" t="s">
         <v>15</v>
       </c>
       <c r="D415" s="2">
@@ -17583,13 +18388,13 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A416" s="6" t="s">
+      <c r="A416" t="s">
         <v>20</v>
       </c>
-      <c r="B416" s="6">
+      <c r="B416">
         <v>161</v>
       </c>
-      <c r="C416" s="6" t="s">
+      <c r="C416" t="s">
         <v>10</v>
       </c>
       <c r="D416" s="2">
@@ -17597,13 +18402,13 @@
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A417" s="6" t="s">
+      <c r="A417" t="s">
         <v>90</v>
       </c>
-      <c r="B417" s="6">
+      <c r="B417">
         <v>700</v>
       </c>
-      <c r="C417" s="6" t="s">
+      <c r="C417" t="s">
         <v>10</v>
       </c>
       <c r="D417" s="2">
@@ -17611,13 +18416,13 @@
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A418" s="6" t="s">
+      <c r="A418" t="s">
         <v>92</v>
       </c>
-      <c r="B418" s="6">
+      <c r="B418">
         <v>1120</v>
       </c>
-      <c r="C418" s="6" t="s">
+      <c r="C418" t="s">
         <v>10</v>
       </c>
       <c r="D418" s="2">
@@ -17625,13 +18430,13 @@
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A419" s="6" t="s">
+      <c r="A419" t="s">
         <v>110</v>
       </c>
-      <c r="B419" s="6">
+      <c r="B419">
         <v>150</v>
       </c>
-      <c r="C419" s="6" t="s">
+      <c r="C419" t="s">
         <v>10</v>
       </c>
       <c r="D419" s="2">
@@ -17639,13 +18444,13 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A420" s="6" t="s">
+      <c r="A420" t="s">
         <v>8</v>
       </c>
-      <c r="B420" s="6">
+      <c r="B420">
         <v>1225</v>
       </c>
-      <c r="C420" s="6" t="s">
+      <c r="C420" t="s">
         <v>10</v>
       </c>
       <c r="D420" s="2">
@@ -17653,13 +18458,13 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A421" s="6" t="s">
+      <c r="A421" t="s">
         <v>32</v>
       </c>
-      <c r="B421" s="6">
+      <c r="B421">
         <v>3</v>
       </c>
-      <c r="C421" s="6" t="s">
+      <c r="C421" t="s">
         <v>15</v>
       </c>
       <c r="D421" s="2">
@@ -17667,13 +18472,13 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A422" s="6" t="s">
+      <c r="A422" t="s">
         <v>97</v>
       </c>
-      <c r="B422" s="6">
+      <c r="B422">
         <v>2</v>
       </c>
-      <c r="C422" s="6" t="s">
+      <c r="C422" t="s">
         <v>15</v>
       </c>
       <c r="D422" s="2">
@@ -17681,13 +18486,13 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A423" s="6" t="s">
+      <c r="A423" t="s">
         <v>62</v>
       </c>
-      <c r="B423" s="6">
+      <c r="B423">
         <v>300</v>
       </c>
-      <c r="C423" s="6" t="s">
+      <c r="C423" t="s">
         <v>10</v>
       </c>
       <c r="D423" s="2">
@@ -17695,17 +18500,479 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A424" s="6" t="s">
+      <c r="A424" t="s">
         <v>112</v>
       </c>
-      <c r="B424" s="6">
+      <c r="B424">
         <v>2</v>
       </c>
-      <c r="C424" s="6" t="s">
+      <c r="C424" t="s">
         <v>15</v>
       </c>
       <c r="D424" s="2">
         <v>45852</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A425" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B425" s="5">
+        <v>1</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D425" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A426" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B426" s="5">
+        <v>25</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D426" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A427" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B427" s="5">
+        <v>18</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D427" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A428" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B428" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D428" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A429" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B429" s="5">
+        <v>2</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D429" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A430" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B430" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D430" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A431" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B431" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D431" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A432" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B432" s="5">
+        <v>1</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D432" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A433" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B433" s="5">
+        <v>1350</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D433" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A434" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B434" s="5">
+        <v>36</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D434" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A435" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B435" s="5">
+        <v>1</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D435" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A436" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436" s="5">
+        <v>7</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D436" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A437" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B437" s="5">
+        <v>7</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D437" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A438" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B438" s="5">
+        <v>35</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D438" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A439" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B439" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D439" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A440" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B440" s="5">
+        <v>4</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D440" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A441" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B441" s="5">
+        <v>154</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D441" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A442" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B442" s="5">
+        <v>100</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D442" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A443" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B443" s="5">
+        <v>150</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D443" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A444" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B444" s="5">
+        <v>2</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D444" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A445" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B445" s="5">
+        <v>420</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D445" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A446" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B446" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D446" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A447" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B447" s="5">
+        <v>100</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D447" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A448" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B448" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D448" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A449" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B449" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D449" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A450" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B450" s="5">
+        <v>4</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D450" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A451" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B451" s="5">
+        <v>4</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D451" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A452" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B452" s="5">
+        <v>161</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D452" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A453" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B453" s="5">
+        <v>500</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D453" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A454" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B454" s="5">
+        <v>1225</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D454" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A455" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B455" s="5">
+        <v>10</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D455" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A456" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B456" s="5">
+        <v>2</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D456" s="2">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A457" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B457" s="5">
+        <v>6</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D457" s="2">
+        <v>45859</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13822E9D-2759-4235-B9EC-CA2556230ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751246AA-B94F-4CB1-B84E-4CCB0E2DE316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="702" yWindow="702" windowWidth="11208" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,12 @@
   <definedNames>
     <definedName name="AvailableIngredients">[1]Ingredients!$A$2:$A$85</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="188">
   <si>
     <t>Recipe</t>
   </si>
@@ -589,6 +589,9 @@
   <si>
     <t>OREGANO</t>
   </si>
+  <si>
+    <t>QUICHE(TOFU)</t>
+  </si>
 </sst>
 </file>
 
@@ -655,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -663,8 +666,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1406,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G484"/>
+  <dimension ref="A1:G519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B460" workbookViewId="0">
-      <selection activeCell="G450" sqref="G450:G484"/>
+    <sheetView topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="G485" sqref="G485:G519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11746,22 +11747,22 @@
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A450" s="6" t="s">
+      <c r="A450" t="s">
         <v>7</v>
       </c>
-      <c r="B450" s="6">
+      <c r="B450">
         <v>7</v>
       </c>
-      <c r="C450" s="6" t="s">
+      <c r="C450" t="s">
         <v>8</v>
       </c>
-      <c r="D450" s="6" t="s">
+      <c r="D450" t="s">
         <v>9</v>
       </c>
-      <c r="E450" s="6">
+      <c r="E450">
         <v>1225</v>
       </c>
-      <c r="F450" s="6" t="s">
+      <c r="F450" t="s">
         <v>10</v>
       </c>
       <c r="G450" s="2">
@@ -11769,22 +11770,22 @@
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A451" s="6" t="s">
+      <c r="A451" t="s">
         <v>7</v>
       </c>
-      <c r="B451" s="6">
+      <c r="B451">
         <v>7</v>
       </c>
-      <c r="C451" s="6" t="s">
+      <c r="C451" t="s">
         <v>11</v>
       </c>
-      <c r="D451" s="6" t="s">
+      <c r="D451" t="s">
         <v>12</v>
       </c>
-      <c r="E451" s="6">
+      <c r="E451">
         <v>1400</v>
       </c>
-      <c r="F451" s="6" t="s">
+      <c r="F451" t="s">
         <v>10</v>
       </c>
       <c r="G451" s="2">
@@ -11792,22 +11793,22 @@
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A452" s="6" t="s">
+      <c r="A452" t="s">
         <v>7</v>
       </c>
-      <c r="B452" s="6">
+      <c r="B452">
         <v>7</v>
       </c>
-      <c r="C452" s="6" t="s">
+      <c r="C452" t="s">
         <v>13</v>
       </c>
-      <c r="D452" s="6" t="s">
+      <c r="D452" t="s">
         <v>14</v>
       </c>
-      <c r="E452" s="6">
+      <c r="E452">
         <v>7</v>
       </c>
-      <c r="F452" s="6" t="s">
+      <c r="F452" t="s">
         <v>15</v>
       </c>
       <c r="G452" s="2">
@@ -11815,22 +11816,22 @@
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A453" s="6" t="s">
+      <c r="A453" t="s">
         <v>7</v>
       </c>
-      <c r="B453" s="6">
+      <c r="B453">
         <v>7</v>
       </c>
-      <c r="C453" s="6" t="s">
+      <c r="C453" t="s">
         <v>16</v>
       </c>
-      <c r="D453" s="6" t="s">
+      <c r="D453" t="s">
         <v>17</v>
       </c>
-      <c r="E453" s="6">
+      <c r="E453">
         <v>420</v>
       </c>
-      <c r="F453" s="6" t="s">
+      <c r="F453" t="s">
         <v>10</v>
       </c>
       <c r="G453" s="2">
@@ -11838,22 +11839,22 @@
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A454" s="6" t="s">
+      <c r="A454" t="s">
         <v>7</v>
       </c>
-      <c r="B454" s="6">
+      <c r="B454">
         <v>7</v>
       </c>
-      <c r="C454" s="6" t="s">
+      <c r="C454" t="s">
         <v>18</v>
       </c>
-      <c r="D454" s="6" t="s">
+      <c r="D454" t="s">
         <v>19</v>
       </c>
-      <c r="E454" s="6">
+      <c r="E454">
         <v>7</v>
       </c>
-      <c r="F454" s="6" t="s">
+      <c r="F454" t="s">
         <v>15</v>
       </c>
       <c r="G454" s="2">
@@ -11861,22 +11862,22 @@
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A455" s="6" t="s">
+      <c r="A455" t="s">
         <v>7</v>
       </c>
-      <c r="B455" s="6">
+      <c r="B455">
         <v>7</v>
       </c>
-      <c r="C455" s="6" t="s">
+      <c r="C455" t="s">
         <v>20</v>
       </c>
-      <c r="D455" s="6" t="s">
+      <c r="D455" t="s">
         <v>21</v>
       </c>
-      <c r="E455" s="6">
+      <c r="E455">
         <v>161</v>
       </c>
-      <c r="F455" s="6" t="s">
+      <c r="F455" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="2">
@@ -11884,22 +11885,22 @@
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A456" s="6" t="s">
+      <c r="A456" t="s">
         <v>7</v>
       </c>
-      <c r="B456" s="6">
+      <c r="B456">
         <v>7</v>
       </c>
-      <c r="C456" s="6" t="s">
+      <c r="C456" t="s">
         <v>22</v>
       </c>
-      <c r="D456" s="6" t="s">
+      <c r="D456" t="s">
         <v>23</v>
       </c>
-      <c r="E456" s="6">
+      <c r="E456">
         <v>154</v>
       </c>
-      <c r="F456" s="6" t="s">
+      <c r="F456" t="s">
         <v>10</v>
       </c>
       <c r="G456" s="2">
@@ -11907,22 +11908,22 @@
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A457" s="6" t="s">
+      <c r="A457" t="s">
         <v>114</v>
       </c>
-      <c r="B457" s="6">
+      <c r="B457">
         <v>6</v>
       </c>
-      <c r="C457" s="6" t="s">
+      <c r="C457" t="s">
         <v>103</v>
       </c>
-      <c r="D457" s="6" t="s">
+      <c r="D457" t="s">
         <v>115</v>
       </c>
-      <c r="E457" s="6">
+      <c r="E457">
         <v>1.5</v>
       </c>
-      <c r="F457" s="6" t="s">
+      <c r="F457" t="s">
         <v>116</v>
       </c>
       <c r="G457" s="2">
@@ -11930,22 +11931,22 @@
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A458" s="6" t="s">
+      <c r="A458" t="s">
         <v>114</v>
       </c>
-      <c r="B458" s="6">
+      <c r="B458">
         <v>6</v>
       </c>
-      <c r="C458" s="6" t="s">
+      <c r="C458" t="s">
         <v>30</v>
       </c>
-      <c r="D458" s="6" t="s">
+      <c r="D458" t="s">
         <v>31</v>
       </c>
-      <c r="E458" s="6">
+      <c r="E458">
         <v>21</v>
       </c>
-      <c r="F458" s="6" t="s">
+      <c r="F458" t="s">
         <v>70</v>
       </c>
       <c r="G458" s="2">
@@ -11953,22 +11954,22 @@
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A459" s="6" t="s">
+      <c r="A459" t="s">
         <v>114</v>
       </c>
-      <c r="B459" s="6">
+      <c r="B459">
         <v>6</v>
       </c>
-      <c r="C459" s="6" t="s">
+      <c r="C459" t="s">
         <v>110</v>
       </c>
-      <c r="D459" s="6" t="s">
+      <c r="D459" t="s">
         <v>117</v>
       </c>
-      <c r="E459" s="6">
+      <c r="E459">
         <v>300</v>
       </c>
-      <c r="F459" s="6" t="s">
+      <c r="F459" t="s">
         <v>70</v>
       </c>
       <c r="G459" s="2">
@@ -11976,22 +11977,22 @@
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A460" s="6" t="s">
+      <c r="A460" t="s">
         <v>114</v>
       </c>
-      <c r="B460" s="6">
+      <c r="B460">
         <v>6</v>
       </c>
-      <c r="C460" s="6" t="s">
+      <c r="C460" t="s">
         <v>68</v>
       </c>
-      <c r="D460" s="6" t="s">
+      <c r="D460" t="s">
         <v>69</v>
       </c>
-      <c r="E460" s="6">
+      <c r="E460">
         <v>600</v>
       </c>
-      <c r="F460" s="6" t="s">
+      <c r="F460" t="s">
         <v>70</v>
       </c>
       <c r="G460" s="2">
@@ -11999,22 +12000,22 @@
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A461" s="6" t="s">
+      <c r="A461" t="s">
         <v>114</v>
       </c>
-      <c r="B461" s="6">
+      <c r="B461">
         <v>6</v>
       </c>
-      <c r="C461" s="6" t="s">
+      <c r="C461" t="s">
         <v>32</v>
       </c>
-      <c r="D461" s="6" t="s">
+      <c r="D461" t="s">
         <v>33</v>
       </c>
-      <c r="E461" s="6">
+      <c r="E461">
         <v>6</v>
       </c>
-      <c r="F461" s="6" t="s">
+      <c r="F461" t="s">
         <v>118</v>
       </c>
       <c r="G461" s="2">
@@ -12022,22 +12023,22 @@
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A462" s="6" t="s">
+      <c r="A462" t="s">
         <v>114</v>
       </c>
-      <c r="B462" s="6">
+      <c r="B462">
         <v>6</v>
       </c>
-      <c r="C462" s="6" t="s">
+      <c r="C462" t="s">
         <v>26</v>
       </c>
-      <c r="D462" s="6" t="s">
+      <c r="D462" t="s">
         <v>27</v>
       </c>
-      <c r="E462" s="6">
+      <c r="E462">
         <v>1.5</v>
       </c>
-      <c r="F462" s="6" t="s">
+      <c r="F462" t="s">
         <v>116</v>
       </c>
       <c r="G462" s="2">
@@ -12045,22 +12046,22 @@
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A463" s="6" t="s">
+      <c r="A463" t="s">
         <v>114</v>
       </c>
-      <c r="B463" s="6">
+      <c r="B463">
         <v>6</v>
       </c>
-      <c r="C463" s="6" t="s">
+      <c r="C463" t="s">
         <v>45</v>
       </c>
-      <c r="D463" s="6" t="s">
+      <c r="D463" t="s">
         <v>46</v>
       </c>
-      <c r="E463" s="6">
+      <c r="E463">
         <v>1.5</v>
       </c>
-      <c r="F463" s="6" t="s">
+      <c r="F463" t="s">
         <v>116</v>
       </c>
       <c r="G463" s="2">
@@ -12068,22 +12069,22 @@
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A464" s="6" t="s">
+      <c r="A464" t="s">
         <v>114</v>
       </c>
-      <c r="B464" s="6">
+      <c r="B464">
         <v>6</v>
       </c>
-      <c r="C464" s="6" t="s">
+      <c r="C464" t="s">
         <v>108</v>
       </c>
-      <c r="D464" s="6" t="s">
+      <c r="D464" t="s">
         <v>119</v>
       </c>
-      <c r="E464" s="6">
+      <c r="E464">
         <v>60</v>
       </c>
-      <c r="F464" s="6" t="s">
+      <c r="F464" t="s">
         <v>70</v>
       </c>
       <c r="G464" s="2">
@@ -12091,22 +12092,22 @@
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A465" s="6" t="s">
+      <c r="A465" t="s">
         <v>114</v>
       </c>
-      <c r="B465" s="6">
+      <c r="B465">
         <v>6</v>
       </c>
-      <c r="C465" s="6" t="s">
+      <c r="C465" t="s">
         <v>24</v>
       </c>
-      <c r="D465" s="6" t="s">
+      <c r="D465" t="s">
         <v>25</v>
       </c>
-      <c r="E465" s="6">
+      <c r="E465">
         <v>1.5</v>
       </c>
-      <c r="F465" s="6" t="s">
+      <c r="F465" t="s">
         <v>116</v>
       </c>
       <c r="G465" s="2">
@@ -12114,22 +12115,22 @@
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A466" s="6" t="s">
+      <c r="A466" t="s">
         <v>114</v>
       </c>
-      <c r="B466" s="6">
+      <c r="B466">
         <v>6</v>
       </c>
-      <c r="C466" s="6" t="s">
+      <c r="C466" t="s">
         <v>112</v>
       </c>
-      <c r="D466" s="6" t="s">
+      <c r="D466" t="s">
         <v>120</v>
       </c>
-      <c r="E466" s="6">
+      <c r="E466">
         <v>6</v>
       </c>
-      <c r="F466" s="6" t="s">
+      <c r="F466" t="s">
         <v>15</v>
       </c>
       <c r="G466" s="2">
@@ -12137,22 +12138,22 @@
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A467" s="6" t="s">
+      <c r="A467" t="s">
         <v>121</v>
       </c>
-      <c r="B467" s="6">
+      <c r="B467">
         <v>4</v>
       </c>
-      <c r="C467" s="6" t="s">
+      <c r="C467" t="s">
         <v>103</v>
       </c>
-      <c r="D467" s="6" t="s">
+      <c r="D467" t="s">
         <v>115</v>
       </c>
-      <c r="E467" s="6">
+      <c r="E467">
         <v>1</v>
       </c>
-      <c r="F467" s="6" t="s">
+      <c r="F467" t="s">
         <v>116</v>
       </c>
       <c r="G467" s="2">
@@ -12160,22 +12161,22 @@
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A468" s="6" t="s">
+      <c r="A468" t="s">
         <v>121</v>
       </c>
-      <c r="B468" s="6">
+      <c r="B468">
         <v>4</v>
       </c>
-      <c r="C468" s="6" t="s">
+      <c r="C468" t="s">
         <v>30</v>
       </c>
-      <c r="D468" s="6" t="s">
+      <c r="D468" t="s">
         <v>31</v>
       </c>
-      <c r="E468" s="6">
+      <c r="E468">
         <v>14</v>
       </c>
-      <c r="F468" s="6" t="s">
+      <c r="F468" t="s">
         <v>70</v>
       </c>
       <c r="G468" s="2">
@@ -12183,22 +12184,22 @@
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A469" s="6" t="s">
+      <c r="A469" t="s">
         <v>121</v>
       </c>
-      <c r="B469" s="6">
+      <c r="B469">
         <v>4</v>
       </c>
-      <c r="C469" s="6" t="s">
+      <c r="C469" t="s">
         <v>110</v>
       </c>
-      <c r="D469" s="6" t="s">
+      <c r="D469" t="s">
         <v>117</v>
       </c>
-      <c r="E469" s="6">
+      <c r="E469">
         <v>200</v>
       </c>
-      <c r="F469" s="6" t="s">
+      <c r="F469" t="s">
         <v>70</v>
       </c>
       <c r="G469" s="2">
@@ -12206,22 +12207,22 @@
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A470" s="6" t="s">
+      <c r="A470" t="s">
         <v>121</v>
       </c>
-      <c r="B470" s="6">
+      <c r="B470">
         <v>4</v>
       </c>
-      <c r="C470" s="6" t="s">
+      <c r="C470" t="s">
         <v>68</v>
       </c>
-      <c r="D470" s="6" t="s">
+      <c r="D470" t="s">
         <v>69</v>
       </c>
-      <c r="E470" s="6">
+      <c r="E470">
         <v>400</v>
       </c>
-      <c r="F470" s="6" t="s">
+      <c r="F470" t="s">
         <v>70</v>
       </c>
       <c r="G470" s="2">
@@ -12229,22 +12230,22 @@
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A471" s="6" t="s">
+      <c r="A471" t="s">
         <v>121</v>
       </c>
-      <c r="B471" s="6">
+      <c r="B471">
         <v>4</v>
       </c>
-      <c r="C471" s="6" t="s">
+      <c r="C471" t="s">
         <v>32</v>
       </c>
-      <c r="D471" s="6" t="s">
+      <c r="D471" t="s">
         <v>33</v>
       </c>
-      <c r="E471" s="6">
+      <c r="E471">
         <v>4</v>
       </c>
-      <c r="F471" s="6" t="s">
+      <c r="F471" t="s">
         <v>118</v>
       </c>
       <c r="G471" s="2">
@@ -12252,22 +12253,22 @@
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A472" s="6" t="s">
+      <c r="A472" t="s">
         <v>121</v>
       </c>
-      <c r="B472" s="6">
+      <c r="B472">
         <v>4</v>
       </c>
-      <c r="C472" s="6" t="s">
+      <c r="C472" t="s">
         <v>26</v>
       </c>
-      <c r="D472" s="6" t="s">
+      <c r="D472" t="s">
         <v>27</v>
       </c>
-      <c r="E472" s="6">
+      <c r="E472">
         <v>1</v>
       </c>
-      <c r="F472" s="6" t="s">
+      <c r="F472" t="s">
         <v>116</v>
       </c>
       <c r="G472" s="2">
@@ -12275,22 +12276,22 @@
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A473" s="6" t="s">
+      <c r="A473" t="s">
         <v>121</v>
       </c>
-      <c r="B473" s="6">
+      <c r="B473">
         <v>4</v>
       </c>
-      <c r="C473" s="6" t="s">
+      <c r="C473" t="s">
         <v>45</v>
       </c>
-      <c r="D473" s="6" t="s">
+      <c r="D473" t="s">
         <v>46</v>
       </c>
-      <c r="E473" s="6">
+      <c r="E473">
         <v>1</v>
       </c>
-      <c r="F473" s="6" t="s">
+      <c r="F473" t="s">
         <v>116</v>
       </c>
       <c r="G473" s="2">
@@ -12298,22 +12299,22 @@
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A474" s="6" t="s">
+      <c r="A474" t="s">
         <v>121</v>
       </c>
-      <c r="B474" s="6">
+      <c r="B474">
         <v>4</v>
       </c>
-      <c r="C474" s="6" t="s">
+      <c r="C474" t="s">
         <v>108</v>
       </c>
-      <c r="D474" s="6" t="s">
+      <c r="D474" t="s">
         <v>119</v>
       </c>
-      <c r="E474" s="6">
+      <c r="E474">
         <v>40</v>
       </c>
-      <c r="F474" s="6" t="s">
+      <c r="F474" t="s">
         <v>70</v>
       </c>
       <c r="G474" s="2">
@@ -12321,22 +12322,22 @@
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A475" s="6" t="s">
+      <c r="A475" t="s">
         <v>121</v>
       </c>
-      <c r="B475" s="6">
+      <c r="B475">
         <v>4</v>
       </c>
-      <c r="C475" s="6" t="s">
+      <c r="C475" t="s">
         <v>24</v>
       </c>
-      <c r="D475" s="6" t="s">
+      <c r="D475" t="s">
         <v>25</v>
       </c>
-      <c r="E475" s="6">
+      <c r="E475">
         <v>1</v>
       </c>
-      <c r="F475" s="6" t="s">
+      <c r="F475" t="s">
         <v>116</v>
       </c>
       <c r="G475" s="2">
@@ -12344,22 +12345,22 @@
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A476" s="6" t="s">
+      <c r="A476" t="s">
         <v>81</v>
       </c>
-      <c r="B476" s="6">
+      <c r="B476">
         <v>1</v>
       </c>
-      <c r="C476" s="6" t="s">
+      <c r="C476" t="s">
         <v>82</v>
       </c>
-      <c r="D476" s="6" t="s">
+      <c r="D476" t="s">
         <v>83</v>
       </c>
-      <c r="E476" s="6">
+      <c r="E476">
         <v>1</v>
       </c>
-      <c r="F476" s="6" t="s">
+      <c r="F476" t="s">
         <v>15</v>
       </c>
       <c r="G476" s="2">
@@ -12367,22 +12368,22 @@
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A477" s="6" t="s">
+      <c r="A477" t="s">
         <v>81</v>
       </c>
-      <c r="B477" s="6">
+      <c r="B477">
         <v>1</v>
       </c>
-      <c r="C477" s="6" t="s">
+      <c r="C477" t="s">
         <v>84</v>
       </c>
-      <c r="D477" s="6" t="s">
+      <c r="D477" t="s">
         <v>85</v>
       </c>
-      <c r="E477" s="6">
+      <c r="E477">
         <v>75</v>
       </c>
-      <c r="F477" s="6" t="s">
+      <c r="F477" t="s">
         <v>10</v>
       </c>
       <c r="G477" s="2">
@@ -12390,22 +12391,22 @@
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A478" s="6" t="s">
+      <c r="A478" t="s">
         <v>81</v>
       </c>
-      <c r="B478" s="6">
+      <c r="B478">
         <v>1</v>
       </c>
-      <c r="C478" s="6" t="s">
+      <c r="C478" t="s">
         <v>64</v>
       </c>
-      <c r="D478" s="6" t="s">
+      <c r="D478" t="s">
         <v>65</v>
       </c>
-      <c r="E478" s="6">
+      <c r="E478">
         <v>50</v>
       </c>
-      <c r="F478" s="6" t="s">
+      <c r="F478" t="s">
         <v>10</v>
       </c>
       <c r="G478" s="2">
@@ -12413,22 +12414,22 @@
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A479" s="6" t="s">
+      <c r="A479" t="s">
         <v>86</v>
       </c>
-      <c r="B479" s="6">
+      <c r="B479">
         <v>1</v>
       </c>
-      <c r="C479" s="6" t="s">
+      <c r="C479" t="s">
         <v>82</v>
       </c>
-      <c r="D479" s="6" t="s">
+      <c r="D479" t="s">
         <v>83</v>
       </c>
-      <c r="E479" s="6">
+      <c r="E479">
         <v>1</v>
       </c>
-      <c r="F479" s="6" t="s">
+      <c r="F479" t="s">
         <v>15</v>
       </c>
       <c r="G479" s="2">
@@ -12436,22 +12437,22 @@
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A480" s="6" t="s">
+      <c r="A480" t="s">
         <v>86</v>
       </c>
-      <c r="B480" s="6">
+      <c r="B480">
         <v>1</v>
       </c>
-      <c r="C480" s="6" t="s">
+      <c r="C480" t="s">
         <v>84</v>
       </c>
-      <c r="D480" s="6" t="s">
+      <c r="D480" t="s">
         <v>85</v>
       </c>
-      <c r="E480" s="6">
+      <c r="E480">
         <v>75</v>
       </c>
-      <c r="F480" s="6" t="s">
+      <c r="F480" t="s">
         <v>10</v>
       </c>
       <c r="G480" s="2">
@@ -12459,22 +12460,22 @@
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A481" s="6" t="s">
+      <c r="A481" t="s">
         <v>86</v>
       </c>
-      <c r="B481" s="6">
+      <c r="B481">
         <v>1</v>
       </c>
-      <c r="C481" s="6" t="s">
+      <c r="C481" t="s">
         <v>64</v>
       </c>
-      <c r="D481" s="6" t="s">
+      <c r="D481" t="s">
         <v>65</v>
       </c>
-      <c r="E481" s="6">
+      <c r="E481">
         <v>50</v>
       </c>
-      <c r="F481" s="6" t="s">
+      <c r="F481" t="s">
         <v>10</v>
       </c>
       <c r="G481" s="2">
@@ -12482,22 +12483,22 @@
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A482" s="6" t="s">
+      <c r="A482" t="s">
         <v>86</v>
       </c>
-      <c r="B482" s="6">
+      <c r="B482">
         <v>1</v>
       </c>
-      <c r="C482" s="6" t="s">
+      <c r="C482" t="s">
         <v>87</v>
       </c>
-      <c r="D482" s="6" t="s">
+      <c r="D482" t="s">
         <v>88</v>
       </c>
-      <c r="E482" s="6">
+      <c r="E482">
         <v>25</v>
       </c>
-      <c r="F482" s="6" t="s">
+      <c r="F482" t="s">
         <v>10</v>
       </c>
       <c r="G482" s="2">
@@ -12505,22 +12506,22 @@
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A483" s="6" t="s">
+      <c r="A483" t="s">
         <v>86</v>
       </c>
-      <c r="B483" s="6">
+      <c r="B483">
         <v>1</v>
       </c>
-      <c r="C483" s="6" t="s">
+      <c r="C483" t="s">
         <v>24</v>
       </c>
-      <c r="D483" s="6" t="s">
+      <c r="D483" t="s">
         <v>25</v>
       </c>
-      <c r="E483" s="6">
+      <c r="E483">
         <v>1</v>
       </c>
-      <c r="F483" s="6" t="s">
+      <c r="F483" t="s">
         <v>15</v>
       </c>
       <c r="G483" s="2">
@@ -12528,26 +12529,831 @@
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A484" s="6" t="s">
+      <c r="A484" t="s">
         <v>86</v>
       </c>
-      <c r="B484" s="6">
+      <c r="B484">
         <v>1</v>
       </c>
-      <c r="C484" s="6" t="s">
+      <c r="C484" t="s">
         <v>37</v>
       </c>
-      <c r="D484" s="6" t="s">
+      <c r="D484" t="s">
         <v>38</v>
       </c>
-      <c r="E484" s="6">
+      <c r="E484">
         <v>0.5</v>
       </c>
-      <c r="F484" s="6" t="s">
+      <c r="F484" t="s">
         <v>15</v>
       </c>
       <c r="G484" s="2">
         <v>45859</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A485" t="s">
+        <v>89</v>
+      </c>
+      <c r="B485">
+        <v>6</v>
+      </c>
+      <c r="C485" t="s">
+        <v>90</v>
+      </c>
+      <c r="D485" t="s">
+        <v>91</v>
+      </c>
+      <c r="E485">
+        <v>600</v>
+      </c>
+      <c r="F485" t="s">
+        <v>10</v>
+      </c>
+      <c r="G485" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A486" t="s">
+        <v>89</v>
+      </c>
+      <c r="B486">
+        <v>6</v>
+      </c>
+      <c r="C486" t="s">
+        <v>92</v>
+      </c>
+      <c r="D486" t="s">
+        <v>93</v>
+      </c>
+      <c r="E486">
+        <v>960</v>
+      </c>
+      <c r="F486" t="s">
+        <v>10</v>
+      </c>
+      <c r="G486" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A487" t="s">
+        <v>89</v>
+      </c>
+      <c r="B487">
+        <v>6</v>
+      </c>
+      <c r="C487" t="s">
+        <v>64</v>
+      </c>
+      <c r="D487" t="s">
+        <v>65</v>
+      </c>
+      <c r="E487">
+        <v>300</v>
+      </c>
+      <c r="F487" t="s">
+        <v>10</v>
+      </c>
+      <c r="G487" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A488" t="s">
+        <v>89</v>
+      </c>
+      <c r="B488">
+        <v>6</v>
+      </c>
+      <c r="C488" t="s">
+        <v>68</v>
+      </c>
+      <c r="D488" t="s">
+        <v>69</v>
+      </c>
+      <c r="E488">
+        <v>270</v>
+      </c>
+      <c r="F488" t="s">
+        <v>10</v>
+      </c>
+      <c r="G488" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A489" t="s">
+        <v>71</v>
+      </c>
+      <c r="B489">
+        <v>4</v>
+      </c>
+      <c r="C489" t="s">
+        <v>72</v>
+      </c>
+      <c r="D489" t="s">
+        <v>73</v>
+      </c>
+      <c r="E489">
+        <v>1000</v>
+      </c>
+      <c r="F489" t="s">
+        <v>10</v>
+      </c>
+      <c r="G489" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A490" t="s">
+        <v>71</v>
+      </c>
+      <c r="B490">
+        <v>4</v>
+      </c>
+      <c r="C490" t="s">
+        <v>28</v>
+      </c>
+      <c r="D490" t="s">
+        <v>29</v>
+      </c>
+      <c r="E490">
+        <v>400</v>
+      </c>
+      <c r="F490" t="s">
+        <v>10</v>
+      </c>
+      <c r="G490" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A491" t="s">
+        <v>71</v>
+      </c>
+      <c r="B491">
+        <v>4</v>
+      </c>
+      <c r="C491" t="s">
+        <v>74</v>
+      </c>
+      <c r="D491" t="s">
+        <v>75</v>
+      </c>
+      <c r="E491">
+        <v>400</v>
+      </c>
+      <c r="F491" t="s">
+        <v>10</v>
+      </c>
+      <c r="G491" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A492" t="s">
+        <v>71</v>
+      </c>
+      <c r="B492">
+        <v>4</v>
+      </c>
+      <c r="C492" t="s">
+        <v>76</v>
+      </c>
+      <c r="D492" t="s">
+        <v>77</v>
+      </c>
+      <c r="E492">
+        <v>200</v>
+      </c>
+      <c r="F492" t="s">
+        <v>10</v>
+      </c>
+      <c r="G492" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A493" t="s">
+        <v>71</v>
+      </c>
+      <c r="B493">
+        <v>4</v>
+      </c>
+      <c r="C493" t="s">
+        <v>18</v>
+      </c>
+      <c r="D493" t="s">
+        <v>19</v>
+      </c>
+      <c r="E493">
+        <v>16</v>
+      </c>
+      <c r="F493" t="s">
+        <v>15</v>
+      </c>
+      <c r="G493" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A494" t="s">
+        <v>71</v>
+      </c>
+      <c r="B494">
+        <v>4</v>
+      </c>
+      <c r="C494" t="s">
+        <v>78</v>
+      </c>
+      <c r="D494" t="s">
+        <v>79</v>
+      </c>
+      <c r="E494">
+        <v>8</v>
+      </c>
+      <c r="F494" t="s">
+        <v>10</v>
+      </c>
+      <c r="G494" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A495" t="s">
+        <v>114</v>
+      </c>
+      <c r="B495">
+        <v>2</v>
+      </c>
+      <c r="C495" t="s">
+        <v>103</v>
+      </c>
+      <c r="D495" t="s">
+        <v>115</v>
+      </c>
+      <c r="E495">
+        <v>0.5</v>
+      </c>
+      <c r="F495" t="s">
+        <v>116</v>
+      </c>
+      <c r="G495" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A496" t="s">
+        <v>114</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496" t="s">
+        <v>30</v>
+      </c>
+      <c r="D496" t="s">
+        <v>31</v>
+      </c>
+      <c r="E496">
+        <v>7</v>
+      </c>
+      <c r="F496" t="s">
+        <v>70</v>
+      </c>
+      <c r="G496" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A497" t="s">
+        <v>114</v>
+      </c>
+      <c r="B497">
+        <v>2</v>
+      </c>
+      <c r="C497" t="s">
+        <v>110</v>
+      </c>
+      <c r="D497" t="s">
+        <v>117</v>
+      </c>
+      <c r="E497">
+        <v>100</v>
+      </c>
+      <c r="F497" t="s">
+        <v>70</v>
+      </c>
+      <c r="G497" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A498" t="s">
+        <v>114</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+      <c r="C498" t="s">
+        <v>68</v>
+      </c>
+      <c r="D498" t="s">
+        <v>69</v>
+      </c>
+      <c r="E498">
+        <v>200</v>
+      </c>
+      <c r="F498" t="s">
+        <v>70</v>
+      </c>
+      <c r="G498" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A499" t="s">
+        <v>114</v>
+      </c>
+      <c r="B499">
+        <v>2</v>
+      </c>
+      <c r="C499" t="s">
+        <v>32</v>
+      </c>
+      <c r="D499" t="s">
+        <v>33</v>
+      </c>
+      <c r="E499">
+        <v>2</v>
+      </c>
+      <c r="F499" t="s">
+        <v>118</v>
+      </c>
+      <c r="G499" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A500" t="s">
+        <v>114</v>
+      </c>
+      <c r="B500">
+        <v>2</v>
+      </c>
+      <c r="C500" t="s">
+        <v>26</v>
+      </c>
+      <c r="D500" t="s">
+        <v>27</v>
+      </c>
+      <c r="E500">
+        <v>0.5</v>
+      </c>
+      <c r="F500" t="s">
+        <v>116</v>
+      </c>
+      <c r="G500" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A501" t="s">
+        <v>114</v>
+      </c>
+      <c r="B501">
+        <v>2</v>
+      </c>
+      <c r="C501" t="s">
+        <v>45</v>
+      </c>
+      <c r="D501" t="s">
+        <v>46</v>
+      </c>
+      <c r="E501">
+        <v>0.5</v>
+      </c>
+      <c r="F501" t="s">
+        <v>116</v>
+      </c>
+      <c r="G501" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A502" t="s">
+        <v>114</v>
+      </c>
+      <c r="B502">
+        <v>2</v>
+      </c>
+      <c r="C502" t="s">
+        <v>108</v>
+      </c>
+      <c r="D502" t="s">
+        <v>119</v>
+      </c>
+      <c r="E502">
+        <v>20</v>
+      </c>
+      <c r="F502" t="s">
+        <v>70</v>
+      </c>
+      <c r="G502" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A503" t="s">
+        <v>114</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
+      <c r="C503" t="s">
+        <v>24</v>
+      </c>
+      <c r="D503" t="s">
+        <v>25</v>
+      </c>
+      <c r="E503">
+        <v>0.5</v>
+      </c>
+      <c r="F503" t="s">
+        <v>116</v>
+      </c>
+      <c r="G503" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A504" t="s">
+        <v>114</v>
+      </c>
+      <c r="B504">
+        <v>2</v>
+      </c>
+      <c r="C504" t="s">
+        <v>112</v>
+      </c>
+      <c r="D504" t="s">
+        <v>120</v>
+      </c>
+      <c r="E504">
+        <v>2</v>
+      </c>
+      <c r="F504" t="s">
+        <v>15</v>
+      </c>
+      <c r="G504" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A505" t="s">
+        <v>187</v>
+      </c>
+      <c r="B505">
+        <v>12</v>
+      </c>
+      <c r="C505" t="s">
+        <v>58</v>
+      </c>
+      <c r="D505" t="s">
+        <v>59</v>
+      </c>
+      <c r="E505">
+        <v>2</v>
+      </c>
+      <c r="F505" t="s">
+        <v>15</v>
+      </c>
+      <c r="G505" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A506" t="s">
+        <v>187</v>
+      </c>
+      <c r="B506">
+        <v>12</v>
+      </c>
+      <c r="C506" t="s">
+        <v>60</v>
+      </c>
+      <c r="D506" t="s">
+        <v>61</v>
+      </c>
+      <c r="E506">
+        <v>468</v>
+      </c>
+      <c r="F506" t="s">
+        <v>10</v>
+      </c>
+      <c r="G506" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A507" t="s">
+        <v>187</v>
+      </c>
+      <c r="B507">
+        <v>12</v>
+      </c>
+      <c r="C507" t="s">
+        <v>62</v>
+      </c>
+      <c r="D507" t="s">
+        <v>63</v>
+      </c>
+      <c r="E507">
+        <v>300</v>
+      </c>
+      <c r="F507" t="s">
+        <v>10</v>
+      </c>
+      <c r="G507" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A508" t="s">
+        <v>187</v>
+      </c>
+      <c r="B508">
+        <v>12</v>
+      </c>
+      <c r="C508" t="s">
+        <v>64</v>
+      </c>
+      <c r="D508" t="s">
+        <v>65</v>
+      </c>
+      <c r="E508">
+        <v>180</v>
+      </c>
+      <c r="F508" t="s">
+        <v>10</v>
+      </c>
+      <c r="G508" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A509" t="s">
+        <v>187</v>
+      </c>
+      <c r="B509">
+        <v>12</v>
+      </c>
+      <c r="C509" t="s">
+        <v>53</v>
+      </c>
+      <c r="D509" t="s">
+        <v>54</v>
+      </c>
+      <c r="E509">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F509" t="s">
+        <v>15</v>
+      </c>
+      <c r="G509" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A510" t="s">
+        <v>187</v>
+      </c>
+      <c r="B510">
+        <v>12</v>
+      </c>
+      <c r="C510" t="s">
+        <v>35</v>
+      </c>
+      <c r="D510" t="s">
+        <v>36</v>
+      </c>
+      <c r="E510">
+        <v>300</v>
+      </c>
+      <c r="F510" t="s">
+        <v>10</v>
+      </c>
+      <c r="G510" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A511" t="s">
+        <v>187</v>
+      </c>
+      <c r="B511">
+        <v>12</v>
+      </c>
+      <c r="C511" t="s">
+        <v>66</v>
+      </c>
+      <c r="D511" t="s">
+        <v>67</v>
+      </c>
+      <c r="E511">
+        <v>180</v>
+      </c>
+      <c r="F511" t="s">
+        <v>10</v>
+      </c>
+      <c r="G511" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A512" t="s">
+        <v>187</v>
+      </c>
+      <c r="B512">
+        <v>12</v>
+      </c>
+      <c r="C512" t="s">
+        <v>8</v>
+      </c>
+      <c r="D512" t="s">
+        <v>9</v>
+      </c>
+      <c r="E512">
+        <v>1200</v>
+      </c>
+      <c r="F512" t="s">
+        <v>10</v>
+      </c>
+      <c r="G512" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A513" t="s">
+        <v>7</v>
+      </c>
+      <c r="B513">
+        <v>17</v>
+      </c>
+      <c r="C513" t="s">
+        <v>8</v>
+      </c>
+      <c r="D513" t="s">
+        <v>9</v>
+      </c>
+      <c r="E513">
+        <v>2975</v>
+      </c>
+      <c r="F513" t="s">
+        <v>10</v>
+      </c>
+      <c r="G513" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A514" t="s">
+        <v>7</v>
+      </c>
+      <c r="B514">
+        <v>17</v>
+      </c>
+      <c r="C514" t="s">
+        <v>11</v>
+      </c>
+      <c r="D514" t="s">
+        <v>12</v>
+      </c>
+      <c r="E514">
+        <v>3400</v>
+      </c>
+      <c r="F514" t="s">
+        <v>10</v>
+      </c>
+      <c r="G514" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A515" t="s">
+        <v>7</v>
+      </c>
+      <c r="B515">
+        <v>17</v>
+      </c>
+      <c r="C515" t="s">
+        <v>13</v>
+      </c>
+      <c r="D515" t="s">
+        <v>14</v>
+      </c>
+      <c r="E515">
+        <v>17</v>
+      </c>
+      <c r="F515" t="s">
+        <v>15</v>
+      </c>
+      <c r="G515" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A516" t="s">
+        <v>7</v>
+      </c>
+      <c r="B516">
+        <v>17</v>
+      </c>
+      <c r="C516" t="s">
+        <v>16</v>
+      </c>
+      <c r="D516" t="s">
+        <v>17</v>
+      </c>
+      <c r="E516">
+        <v>1020</v>
+      </c>
+      <c r="F516" t="s">
+        <v>10</v>
+      </c>
+      <c r="G516" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A517" t="s">
+        <v>7</v>
+      </c>
+      <c r="B517">
+        <v>17</v>
+      </c>
+      <c r="C517" t="s">
+        <v>18</v>
+      </c>
+      <c r="D517" t="s">
+        <v>19</v>
+      </c>
+      <c r="E517">
+        <v>17</v>
+      </c>
+      <c r="F517" t="s">
+        <v>15</v>
+      </c>
+      <c r="G517" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A518" t="s">
+        <v>7</v>
+      </c>
+      <c r="B518">
+        <v>17</v>
+      </c>
+      <c r="C518" t="s">
+        <v>20</v>
+      </c>
+      <c r="D518" t="s">
+        <v>21</v>
+      </c>
+      <c r="E518">
+        <v>391</v>
+      </c>
+      <c r="F518" t="s">
+        <v>10</v>
+      </c>
+      <c r="G518" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A519" t="s">
+        <v>7</v>
+      </c>
+      <c r="B519">
+        <v>17</v>
+      </c>
+      <c r="C519" t="s">
+        <v>22</v>
+      </c>
+      <c r="D519" t="s">
+        <v>23</v>
+      </c>
+      <c r="E519">
+        <v>374</v>
+      </c>
+      <c r="F519" t="s">
+        <v>10</v>
+      </c>
+      <c r="G519" s="2">
+        <v>45900</v>
       </c>
     </row>
   </sheetData>
@@ -12565,10 +13371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
-    <sheetView topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="D425" sqref="D425:D430"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="F499" sqref="F499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18514,13 +19320,13 @@
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A425" s="5" t="s">
+      <c r="A425" t="s">
         <v>101</v>
       </c>
-      <c r="B425" s="5">
+      <c r="B425">
         <v>1</v>
       </c>
-      <c r="C425" s="5" t="s">
+      <c r="C425" t="s">
         <v>15</v>
       </c>
       <c r="D425" s="2">
@@ -18528,13 +19334,13 @@
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A426" s="5" t="s">
+      <c r="A426" t="s">
         <v>87</v>
       </c>
-      <c r="B426" s="5">
+      <c r="B426">
         <v>25</v>
       </c>
-      <c r="C426" s="5" t="s">
+      <c r="C426" t="s">
         <v>10</v>
       </c>
       <c r="D426" s="2">
@@ -18542,13 +19348,13 @@
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A427" s="5" t="s">
+      <c r="A427" t="s">
         <v>102</v>
       </c>
-      <c r="B427" s="5">
+      <c r="B427">
         <v>18</v>
       </c>
-      <c r="C427" s="5" t="s">
+      <c r="C427" t="s">
         <v>15</v>
       </c>
       <c r="D427" s="2">
@@ -18556,13 +19362,13 @@
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A428" s="5" t="s">
+      <c r="A428" t="s">
         <v>103</v>
       </c>
-      <c r="B428" s="5">
+      <c r="B428">
         <v>2.5</v>
       </c>
-      <c r="C428" s="5" t="s">
+      <c r="C428" t="s">
         <v>15</v>
       </c>
       <c r="D428" s="2">
@@ -18570,13 +19376,13 @@
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A429" s="5" t="s">
+      <c r="A429" t="s">
         <v>94</v>
       </c>
-      <c r="B429" s="5">
+      <c r="B429">
         <v>2</v>
       </c>
-      <c r="C429" s="5" t="s">
+      <c r="C429" t="s">
         <v>15</v>
       </c>
       <c r="D429" s="2">
@@ -18584,13 +19390,13 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A430" s="5" t="s">
+      <c r="A430" t="s">
         <v>11</v>
       </c>
-      <c r="B430" s="5">
+      <c r="B430">
         <v>1400</v>
       </c>
-      <c r="C430" s="5" t="s">
+      <c r="C430" t="s">
         <v>10</v>
       </c>
       <c r="D430" s="2">
@@ -18598,13 +19404,13 @@
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A431" s="5" t="s">
+      <c r="A431" t="s">
         <v>37</v>
       </c>
-      <c r="B431" s="5">
+      <c r="B431">
         <v>0.5</v>
       </c>
-      <c r="C431" s="5" t="s">
+      <c r="C431" t="s">
         <v>15</v>
       </c>
       <c r="D431" s="2">
@@ -18612,13 +19418,13 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A432" s="5" t="s">
+      <c r="A432" t="s">
         <v>95</v>
       </c>
-      <c r="B432" s="5">
+      <c r="B432">
         <v>1</v>
       </c>
-      <c r="C432" s="5" t="s">
+      <c r="C432" t="s">
         <v>15</v>
       </c>
       <c r="D432" s="2">
@@ -18626,13 +19432,13 @@
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A433" s="5" t="s">
+      <c r="A433" t="s">
         <v>43</v>
       </c>
-      <c r="B433" s="5">
+      <c r="B433">
         <v>1350</v>
       </c>
-      <c r="C433" s="5" t="s">
+      <c r="C433" t="s">
         <v>10</v>
       </c>
       <c r="D433" s="2">
@@ -18640,13 +19446,13 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A434" s="5" t="s">
+      <c r="A434" t="s">
         <v>53</v>
       </c>
-      <c r="B434" s="5">
+      <c r="B434">
         <v>36</v>
       </c>
-      <c r="C434" s="5" t="s">
+      <c r="C434" t="s">
         <v>15</v>
       </c>
       <c r="D434" s="2">
@@ -18654,13 +19460,13 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A435" s="5" t="s">
+      <c r="A435" t="s">
         <v>178</v>
       </c>
-      <c r="B435" s="5">
+      <c r="B435">
         <v>1</v>
       </c>
-      <c r="C435" s="5" t="s">
+      <c r="C435" t="s">
         <v>15</v>
       </c>
       <c r="D435" s="2">
@@ -18668,13 +19474,13 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A436" s="5" t="s">
+      <c r="A436" t="s">
         <v>18</v>
       </c>
-      <c r="B436" s="5">
+      <c r="B436">
         <v>7</v>
       </c>
-      <c r="C436" s="5" t="s">
+      <c r="C436" t="s">
         <v>15</v>
       </c>
       <c r="D436" s="2">
@@ -18682,13 +19488,13 @@
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A437" s="5" t="s">
+      <c r="A437" t="s">
         <v>13</v>
       </c>
-      <c r="B437" s="5">
+      <c r="B437">
         <v>7</v>
       </c>
-      <c r="C437" s="5" t="s">
+      <c r="C437" t="s">
         <v>15</v>
       </c>
       <c r="D437" s="2">
@@ -18696,13 +19502,13 @@
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A438" s="5" t="s">
+      <c r="A438" t="s">
         <v>30</v>
       </c>
-      <c r="B438" s="5">
+      <c r="B438">
         <v>35</v>
       </c>
-      <c r="C438" s="5" t="s">
+      <c r="C438" t="s">
         <v>10</v>
       </c>
       <c r="D438" s="2">
@@ -18710,13 +19516,13 @@
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A439" s="5" t="s">
+      <c r="A439" t="s">
         <v>45</v>
       </c>
-      <c r="B439" s="5">
+      <c r="B439">
         <v>2.5</v>
       </c>
-      <c r="C439" s="5" t="s">
+      <c r="C439" t="s">
         <v>15</v>
       </c>
       <c r="D439" s="2">
@@ -18724,13 +19530,13 @@
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A440" s="5" t="s">
+      <c r="A440" t="s">
         <v>55</v>
       </c>
-      <c r="B440" s="5">
+      <c r="B440">
         <v>4</v>
       </c>
-      <c r="C440" s="5" t="s">
+      <c r="C440" t="s">
         <v>15</v>
       </c>
       <c r="D440" s="2">
@@ -18738,13 +19544,13 @@
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A441" s="5" t="s">
+      <c r="A441" t="s">
         <v>22</v>
       </c>
-      <c r="B441" s="5">
+      <c r="B441">
         <v>154</v>
       </c>
-      <c r="C441" s="5" t="s">
+      <c r="C441" t="s">
         <v>10</v>
       </c>
       <c r="D441" s="2">
@@ -18752,13 +19558,13 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A442" s="5" t="s">
+      <c r="A442" t="s">
         <v>64</v>
       </c>
-      <c r="B442" s="5">
+      <c r="B442">
         <v>100</v>
       </c>
-      <c r="C442" s="5" t="s">
+      <c r="C442" t="s">
         <v>10</v>
       </c>
       <c r="D442" s="2">
@@ -18766,13 +19572,13 @@
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A443" s="5" t="s">
+      <c r="A443" t="s">
         <v>84</v>
       </c>
-      <c r="B443" s="5">
+      <c r="B443">
         <v>150</v>
       </c>
-      <c r="C443" s="5" t="s">
+      <c r="C443" t="s">
         <v>10</v>
       </c>
       <c r="D443" s="2">
@@ -18780,13 +19586,13 @@
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A444" s="5" t="s">
+      <c r="A444" t="s">
         <v>82</v>
       </c>
-      <c r="B444" s="5">
+      <c r="B444">
         <v>2</v>
       </c>
-      <c r="C444" s="5" t="s">
+      <c r="C444" t="s">
         <v>15</v>
       </c>
       <c r="D444" s="2">
@@ -18794,13 +19600,13 @@
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A445" s="5" t="s">
+      <c r="A445" t="s">
         <v>16</v>
       </c>
-      <c r="B445" s="5">
+      <c r="B445">
         <v>420</v>
       </c>
-      <c r="C445" s="5" t="s">
+      <c r="C445" t="s">
         <v>10</v>
       </c>
       <c r="D445" s="2">
@@ -18808,13 +19614,13 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A446" s="5" t="s">
+      <c r="A446" t="s">
         <v>26</v>
       </c>
-      <c r="B446" s="5">
+      <c r="B446">
         <v>2.5</v>
       </c>
-      <c r="C446" s="5" t="s">
+      <c r="C446" t="s">
         <v>15</v>
       </c>
       <c r="D446" s="2">
@@ -18822,13 +19628,13 @@
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A447" s="5" t="s">
+      <c r="A447" t="s">
         <v>108</v>
       </c>
-      <c r="B447" s="5">
+      <c r="B447">
         <v>100</v>
       </c>
-      <c r="C447" s="5" t="s">
+      <c r="C447" t="s">
         <v>10</v>
       </c>
       <c r="D447" s="2">
@@ -18836,13 +19642,13 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A448" s="5" t="s">
+      <c r="A448" t="s">
         <v>24</v>
       </c>
-      <c r="B448" s="5">
+      <c r="B448">
         <v>3.5</v>
       </c>
-      <c r="C448" s="5" t="s">
+      <c r="C448" t="s">
         <v>15</v>
       </c>
       <c r="D448" s="2">
@@ -18850,13 +19656,13 @@
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A449" s="5" t="s">
+      <c r="A449" t="s">
         <v>68</v>
       </c>
-      <c r="B449" s="5">
+      <c r="B449">
         <v>1000</v>
       </c>
-      <c r="C449" s="5" t="s">
+      <c r="C449" t="s">
         <v>10</v>
       </c>
       <c r="D449" s="2">
@@ -18864,13 +19670,13 @@
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A450" s="5" t="s">
+      <c r="A450" t="s">
         <v>96</v>
       </c>
-      <c r="B450" s="5">
+      <c r="B450">
         <v>4</v>
       </c>
-      <c r="C450" s="5" t="s">
+      <c r="C450" t="s">
         <v>15</v>
       </c>
       <c r="D450" s="2">
@@ -18878,13 +19684,13 @@
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A451" s="5" t="s">
+      <c r="A451" t="s">
         <v>109</v>
       </c>
-      <c r="B451" s="5">
+      <c r="B451">
         <v>4</v>
       </c>
-      <c r="C451" s="5" t="s">
+      <c r="C451" t="s">
         <v>15</v>
       </c>
       <c r="D451" s="2">
@@ -18892,13 +19698,13 @@
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A452" s="5" t="s">
+      <c r="A452" t="s">
         <v>20</v>
       </c>
-      <c r="B452" s="5">
+      <c r="B452">
         <v>161</v>
       </c>
-      <c r="C452" s="5" t="s">
+      <c r="C452" t="s">
         <v>10</v>
       </c>
       <c r="D452" s="2">
@@ -18906,13 +19712,13 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A453" s="5" t="s">
+      <c r="A453" t="s">
         <v>110</v>
       </c>
-      <c r="B453" s="5">
+      <c r="B453">
         <v>500</v>
       </c>
-      <c r="C453" s="5" t="s">
+      <c r="C453" t="s">
         <v>10</v>
       </c>
       <c r="D453" s="2">
@@ -18920,13 +19726,13 @@
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A454" s="5" t="s">
+      <c r="A454" t="s">
         <v>8</v>
       </c>
-      <c r="B454" s="5">
+      <c r="B454">
         <v>1225</v>
       </c>
-      <c r="C454" s="5" t="s">
+      <c r="C454" t="s">
         <v>10</v>
       </c>
       <c r="D454" s="2">
@@ -18934,13 +19740,13 @@
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A455" s="5" t="s">
+      <c r="A455" t="s">
         <v>32</v>
       </c>
-      <c r="B455" s="5">
-        <v>10</v>
-      </c>
-      <c r="C455" s="5" t="s">
+      <c r="B455">
+        <v>10</v>
+      </c>
+      <c r="C455" t="s">
         <v>15</v>
       </c>
       <c r="D455" s="2">
@@ -18948,13 +19754,13 @@
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A456" s="5" t="s">
+      <c r="A456" t="s">
         <v>97</v>
       </c>
-      <c r="B456" s="5">
+      <c r="B456">
         <v>2</v>
       </c>
-      <c r="C456" s="5" t="s">
+      <c r="C456" t="s">
         <v>15</v>
       </c>
       <c r="D456" s="2">
@@ -18962,17 +19768,591 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A457" s="5" t="s">
+      <c r="A457" t="s">
         <v>112</v>
       </c>
-      <c r="B457" s="5">
+      <c r="B457">
         <v>6</v>
       </c>
-      <c r="C457" s="5" t="s">
+      <c r="C457" t="s">
         <v>15</v>
       </c>
       <c r="D457" s="2">
         <v>45859</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A458" t="s">
+        <v>101</v>
+      </c>
+      <c r="B458">
+        <v>2</v>
+      </c>
+      <c r="C458" t="s">
+        <v>15</v>
+      </c>
+      <c r="D458" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A459" t="s">
+        <v>102</v>
+      </c>
+      <c r="B459">
+        <v>34</v>
+      </c>
+      <c r="C459" t="s">
+        <v>15</v>
+      </c>
+      <c r="D459" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A460" t="s">
+        <v>103</v>
+      </c>
+      <c r="B460">
+        <v>0.5</v>
+      </c>
+      <c r="C460" t="s">
+        <v>15</v>
+      </c>
+      <c r="D460" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A461" t="s">
+        <v>94</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461" t="s">
+        <v>15</v>
+      </c>
+      <c r="D461" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A462" t="s">
+        <v>58</v>
+      </c>
+      <c r="B462">
+        <v>2</v>
+      </c>
+      <c r="C462" t="s">
+        <v>15</v>
+      </c>
+      <c r="D462" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A463" t="s">
+        <v>11</v>
+      </c>
+      <c r="B463">
+        <v>3400</v>
+      </c>
+      <c r="C463" t="s">
+        <v>10</v>
+      </c>
+      <c r="D463" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A464" t="s">
+        <v>76</v>
+      </c>
+      <c r="B464">
+        <v>200</v>
+      </c>
+      <c r="C464" t="s">
+        <v>10</v>
+      </c>
+      <c r="D464" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A465" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465">
+        <v>300</v>
+      </c>
+      <c r="C465" t="s">
+        <v>10</v>
+      </c>
+      <c r="D465" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A466" t="s">
+        <v>95</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+      <c r="C466" t="s">
+        <v>15</v>
+      </c>
+      <c r="D466" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A467" t="s">
+        <v>43</v>
+      </c>
+      <c r="B467">
+        <v>2550</v>
+      </c>
+      <c r="C467" t="s">
+        <v>10</v>
+      </c>
+      <c r="D467" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A468" t="s">
+        <v>53</v>
+      </c>
+      <c r="B468">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="C468" t="s">
+        <v>15</v>
+      </c>
+      <c r="D468" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A469" t="s">
+        <v>28</v>
+      </c>
+      <c r="B469">
+        <v>400</v>
+      </c>
+      <c r="C469" t="s">
+        <v>10</v>
+      </c>
+      <c r="D469" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A470" t="s">
+        <v>178</v>
+      </c>
+      <c r="B470">
+        <v>2</v>
+      </c>
+      <c r="C470" t="s">
+        <v>15</v>
+      </c>
+      <c r="D470" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A471" t="s">
+        <v>78</v>
+      </c>
+      <c r="B471">
+        <v>8</v>
+      </c>
+      <c r="C471" t="s">
+        <v>10</v>
+      </c>
+      <c r="D471" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A472" t="s">
+        <v>72</v>
+      </c>
+      <c r="B472">
+        <v>1000</v>
+      </c>
+      <c r="C472" t="s">
+        <v>10</v>
+      </c>
+      <c r="D472" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A473" t="s">
+        <v>18</v>
+      </c>
+      <c r="B473">
+        <v>33</v>
+      </c>
+      <c r="C473" t="s">
+        <v>15</v>
+      </c>
+      <c r="D473" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A474" t="s">
+        <v>13</v>
+      </c>
+      <c r="B474">
+        <v>17</v>
+      </c>
+      <c r="C474" t="s">
+        <v>15</v>
+      </c>
+      <c r="D474" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A475" t="s">
+        <v>30</v>
+      </c>
+      <c r="B475">
+        <v>7</v>
+      </c>
+      <c r="C475" t="s">
+        <v>10</v>
+      </c>
+      <c r="D475" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A476" t="s">
+        <v>45</v>
+      </c>
+      <c r="B476">
+        <v>0.5</v>
+      </c>
+      <c r="C476" t="s">
+        <v>15</v>
+      </c>
+      <c r="D476" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A477" t="s">
+        <v>55</v>
+      </c>
+      <c r="B477">
+        <v>6</v>
+      </c>
+      <c r="C477" t="s">
+        <v>15</v>
+      </c>
+      <c r="D477" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A478" t="s">
+        <v>22</v>
+      </c>
+      <c r="B478">
+        <v>374</v>
+      </c>
+      <c r="C478" t="s">
+        <v>10</v>
+      </c>
+      <c r="D478" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A479" t="s">
+        <v>66</v>
+      </c>
+      <c r="B479">
+        <v>180</v>
+      </c>
+      <c r="C479" t="s">
+        <v>10</v>
+      </c>
+      <c r="D479" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A480" t="s">
+        <v>64</v>
+      </c>
+      <c r="B480">
+        <v>480</v>
+      </c>
+      <c r="C480" t="s">
+        <v>10</v>
+      </c>
+      <c r="D480" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A481" t="s">
+        <v>60</v>
+      </c>
+      <c r="B481">
+        <v>468</v>
+      </c>
+      <c r="C481" t="s">
+        <v>10</v>
+      </c>
+      <c r="D481" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A482" t="s">
+        <v>16</v>
+      </c>
+      <c r="B482">
+        <v>1020</v>
+      </c>
+      <c r="C482" t="s">
+        <v>10</v>
+      </c>
+      <c r="D482" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A483" t="s">
+        <v>26</v>
+      </c>
+      <c r="B483">
+        <v>0.5</v>
+      </c>
+      <c r="C483" t="s">
+        <v>15</v>
+      </c>
+      <c r="D483" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A484" t="s">
+        <v>108</v>
+      </c>
+      <c r="B484">
+        <v>20</v>
+      </c>
+      <c r="C484" t="s">
+        <v>10</v>
+      </c>
+      <c r="D484" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A485" t="s">
+        <v>24</v>
+      </c>
+      <c r="B485">
+        <v>0.5</v>
+      </c>
+      <c r="C485" t="s">
+        <v>15</v>
+      </c>
+      <c r="D485" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A486" t="s">
+        <v>74</v>
+      </c>
+      <c r="B486">
+        <v>400</v>
+      </c>
+      <c r="C486" t="s">
+        <v>10</v>
+      </c>
+      <c r="D486" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A487" t="s">
+        <v>68</v>
+      </c>
+      <c r="B487">
+        <v>470</v>
+      </c>
+      <c r="C487" t="s">
+        <v>10</v>
+      </c>
+      <c r="D487" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A488" t="s">
+        <v>96</v>
+      </c>
+      <c r="B488">
+        <v>8</v>
+      </c>
+      <c r="C488" t="s">
+        <v>15</v>
+      </c>
+      <c r="D488" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A489" t="s">
+        <v>109</v>
+      </c>
+      <c r="B489">
+        <v>6</v>
+      </c>
+      <c r="C489" t="s">
+        <v>15</v>
+      </c>
+      <c r="D489" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A490" t="s">
+        <v>20</v>
+      </c>
+      <c r="B490">
+        <v>391</v>
+      </c>
+      <c r="C490" t="s">
+        <v>10</v>
+      </c>
+      <c r="D490" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A491" t="s">
+        <v>90</v>
+      </c>
+      <c r="B491">
+        <v>600</v>
+      </c>
+      <c r="C491" t="s">
+        <v>10</v>
+      </c>
+      <c r="D491" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A492" t="s">
+        <v>92</v>
+      </c>
+      <c r="B492">
+        <v>960</v>
+      </c>
+      <c r="C492" t="s">
+        <v>10</v>
+      </c>
+      <c r="D492" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A493" t="s">
+        <v>110</v>
+      </c>
+      <c r="B493">
+        <v>100</v>
+      </c>
+      <c r="C493" t="s">
+        <v>10</v>
+      </c>
+      <c r="D493" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A494" t="s">
+        <v>8</v>
+      </c>
+      <c r="B494">
+        <v>4175</v>
+      </c>
+      <c r="C494" t="s">
+        <v>10</v>
+      </c>
+      <c r="D494" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A495" t="s">
+        <v>32</v>
+      </c>
+      <c r="B495">
+        <v>2</v>
+      </c>
+      <c r="C495" t="s">
+        <v>15</v>
+      </c>
+      <c r="D495" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A496" t="s">
+        <v>97</v>
+      </c>
+      <c r="B496">
+        <v>4</v>
+      </c>
+      <c r="C496" t="s">
+        <v>15</v>
+      </c>
+      <c r="D496" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A497" t="s">
+        <v>62</v>
+      </c>
+      <c r="B497">
+        <v>300</v>
+      </c>
+      <c r="C497" t="s">
+        <v>10</v>
+      </c>
+      <c r="D497" s="2">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A498" t="s">
+        <v>112</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+      <c r="C498" t="s">
+        <v>15</v>
+      </c>
+      <c r="D498" s="2">
+        <v>45900</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751246AA-B94F-4CB1-B84E-4CCB0E2DE316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE816CC-EBFC-445A-9951-20C5BF2DF576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="366" yWindow="366" windowWidth="10692" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="188">
   <si>
     <t>Recipe</t>
   </si>
@@ -1407,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G519"/>
+  <dimension ref="A1:G555"/>
   <sheetViews>
-    <sheetView topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="G485" sqref="G485:G519"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="E553" sqref="E553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13355,6 +13355,634 @@
       <c r="G519" s="2">
         <v>45900</v>
       </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A520" t="s">
+        <v>136</v>
+      </c>
+      <c r="B520">
+        <v>2</v>
+      </c>
+      <c r="C520" t="s">
+        <v>133</v>
+      </c>
+      <c r="D520" t="s">
+        <v>137</v>
+      </c>
+      <c r="E520">
+        <v>1</v>
+      </c>
+      <c r="F520" t="s">
+        <v>15</v>
+      </c>
+      <c r="G520" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A521" t="s">
+        <v>136</v>
+      </c>
+      <c r="B521">
+        <v>2</v>
+      </c>
+      <c r="C521" t="s">
+        <v>47</v>
+      </c>
+      <c r="D521" t="s">
+        <v>48</v>
+      </c>
+      <c r="E521">
+        <v>50</v>
+      </c>
+      <c r="F521" t="s">
+        <v>70</v>
+      </c>
+      <c r="G521" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A522" t="s">
+        <v>136</v>
+      </c>
+      <c r="B522">
+        <v>2</v>
+      </c>
+      <c r="C522" t="s">
+        <v>134</v>
+      </c>
+      <c r="D522" t="s">
+        <v>138</v>
+      </c>
+      <c r="E522">
+        <v>24</v>
+      </c>
+      <c r="F522" t="s">
+        <v>10</v>
+      </c>
+      <c r="G522" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A523" t="s">
+        <v>136</v>
+      </c>
+      <c r="B523">
+        <v>2</v>
+      </c>
+      <c r="C523" t="s">
+        <v>64</v>
+      </c>
+      <c r="D523" t="s">
+        <v>65</v>
+      </c>
+      <c r="E523">
+        <v>100</v>
+      </c>
+      <c r="F523" t="s">
+        <v>70</v>
+      </c>
+      <c r="G523" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A524" t="s">
+        <v>136</v>
+      </c>
+      <c r="B524">
+        <v>2</v>
+      </c>
+      <c r="C524" t="s">
+        <v>135</v>
+      </c>
+      <c r="D524" t="s">
+        <v>139</v>
+      </c>
+      <c r="E524">
+        <v>150</v>
+      </c>
+      <c r="F524" t="s">
+        <v>70</v>
+      </c>
+      <c r="G524" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A525" t="s">
+        <v>89</v>
+      </c>
+      <c r="B525">
+        <v>6</v>
+      </c>
+      <c r="C525" t="s">
+        <v>90</v>
+      </c>
+      <c r="D525" t="s">
+        <v>91</v>
+      </c>
+      <c r="E525">
+        <v>600</v>
+      </c>
+      <c r="F525" t="s">
+        <v>10</v>
+      </c>
+      <c r="G525" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A526" t="s">
+        <v>89</v>
+      </c>
+      <c r="B526">
+        <v>6</v>
+      </c>
+      <c r="C526" t="s">
+        <v>92</v>
+      </c>
+      <c r="D526" t="s">
+        <v>93</v>
+      </c>
+      <c r="E526">
+        <v>960</v>
+      </c>
+      <c r="F526" t="s">
+        <v>10</v>
+      </c>
+      <c r="G526" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A527" t="s">
+        <v>89</v>
+      </c>
+      <c r="B527">
+        <v>6</v>
+      </c>
+      <c r="C527" t="s">
+        <v>64</v>
+      </c>
+      <c r="D527" t="s">
+        <v>65</v>
+      </c>
+      <c r="E527">
+        <v>300</v>
+      </c>
+      <c r="F527" t="s">
+        <v>10</v>
+      </c>
+      <c r="G527" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A528" t="s">
+        <v>89</v>
+      </c>
+      <c r="B528">
+        <v>6</v>
+      </c>
+      <c r="C528" t="s">
+        <v>68</v>
+      </c>
+      <c r="D528" t="s">
+        <v>69</v>
+      </c>
+      <c r="E528">
+        <v>270</v>
+      </c>
+      <c r="F528" t="s">
+        <v>10</v>
+      </c>
+      <c r="G528" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A529" t="s">
+        <v>7</v>
+      </c>
+      <c r="B529">
+        <v>13</v>
+      </c>
+      <c r="C529" t="s">
+        <v>8</v>
+      </c>
+      <c r="D529" t="s">
+        <v>9</v>
+      </c>
+      <c r="E529">
+        <v>2275</v>
+      </c>
+      <c r="F529" t="s">
+        <v>10</v>
+      </c>
+      <c r="G529" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A530" t="s">
+        <v>7</v>
+      </c>
+      <c r="B530">
+        <v>13</v>
+      </c>
+      <c r="C530" t="s">
+        <v>11</v>
+      </c>
+      <c r="D530" t="s">
+        <v>12</v>
+      </c>
+      <c r="E530">
+        <v>2600</v>
+      </c>
+      <c r="F530" t="s">
+        <v>10</v>
+      </c>
+      <c r="G530" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A531" t="s">
+        <v>7</v>
+      </c>
+      <c r="B531">
+        <v>13</v>
+      </c>
+      <c r="C531" t="s">
+        <v>13</v>
+      </c>
+      <c r="D531" t="s">
+        <v>14</v>
+      </c>
+      <c r="E531">
+        <v>13</v>
+      </c>
+      <c r="F531" t="s">
+        <v>15</v>
+      </c>
+      <c r="G531" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A532" t="s">
+        <v>7</v>
+      </c>
+      <c r="B532">
+        <v>13</v>
+      </c>
+      <c r="C532" t="s">
+        <v>16</v>
+      </c>
+      <c r="D532" t="s">
+        <v>17</v>
+      </c>
+      <c r="E532">
+        <v>780</v>
+      </c>
+      <c r="F532" t="s">
+        <v>10</v>
+      </c>
+      <c r="G532" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A533" t="s">
+        <v>7</v>
+      </c>
+      <c r="B533">
+        <v>13</v>
+      </c>
+      <c r="C533" t="s">
+        <v>18</v>
+      </c>
+      <c r="D533" t="s">
+        <v>19</v>
+      </c>
+      <c r="E533">
+        <v>13</v>
+      </c>
+      <c r="F533" t="s">
+        <v>15</v>
+      </c>
+      <c r="G533" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A534" t="s">
+        <v>7</v>
+      </c>
+      <c r="B534">
+        <v>13</v>
+      </c>
+      <c r="C534" t="s">
+        <v>20</v>
+      </c>
+      <c r="D534" t="s">
+        <v>21</v>
+      </c>
+      <c r="E534">
+        <v>299</v>
+      </c>
+      <c r="F534" t="s">
+        <v>10</v>
+      </c>
+      <c r="G534" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A535" t="s">
+        <v>7</v>
+      </c>
+      <c r="B535">
+        <v>13</v>
+      </c>
+      <c r="C535" t="s">
+        <v>22</v>
+      </c>
+      <c r="D535" t="s">
+        <v>23</v>
+      </c>
+      <c r="E535">
+        <v>286</v>
+      </c>
+      <c r="F535" t="s">
+        <v>10</v>
+      </c>
+      <c r="G535" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A536" t="s">
+        <v>114</v>
+      </c>
+      <c r="B536">
+        <v>2</v>
+      </c>
+      <c r="C536" t="s">
+        <v>103</v>
+      </c>
+      <c r="D536" t="s">
+        <v>115</v>
+      </c>
+      <c r="E536">
+        <v>0.5</v>
+      </c>
+      <c r="F536" t="s">
+        <v>116</v>
+      </c>
+      <c r="G536" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A537" t="s">
+        <v>114</v>
+      </c>
+      <c r="B537">
+        <v>2</v>
+      </c>
+      <c r="C537" t="s">
+        <v>30</v>
+      </c>
+      <c r="D537" t="s">
+        <v>31</v>
+      </c>
+      <c r="E537">
+        <v>7</v>
+      </c>
+      <c r="F537" t="s">
+        <v>70</v>
+      </c>
+      <c r="G537" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A538" t="s">
+        <v>114</v>
+      </c>
+      <c r="B538">
+        <v>2</v>
+      </c>
+      <c r="C538" t="s">
+        <v>110</v>
+      </c>
+      <c r="D538" t="s">
+        <v>117</v>
+      </c>
+      <c r="E538">
+        <v>100</v>
+      </c>
+      <c r="F538" t="s">
+        <v>70</v>
+      </c>
+      <c r="G538" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A539" t="s">
+        <v>114</v>
+      </c>
+      <c r="B539">
+        <v>2</v>
+      </c>
+      <c r="C539" t="s">
+        <v>68</v>
+      </c>
+      <c r="D539" t="s">
+        <v>69</v>
+      </c>
+      <c r="E539">
+        <v>200</v>
+      </c>
+      <c r="F539" t="s">
+        <v>70</v>
+      </c>
+      <c r="G539" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A540" t="s">
+        <v>114</v>
+      </c>
+      <c r="B540">
+        <v>2</v>
+      </c>
+      <c r="C540" t="s">
+        <v>32</v>
+      </c>
+      <c r="D540" t="s">
+        <v>33</v>
+      </c>
+      <c r="E540">
+        <v>2</v>
+      </c>
+      <c r="F540" t="s">
+        <v>118</v>
+      </c>
+      <c r="G540" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A541" t="s">
+        <v>114</v>
+      </c>
+      <c r="B541">
+        <v>2</v>
+      </c>
+      <c r="C541" t="s">
+        <v>26</v>
+      </c>
+      <c r="D541" t="s">
+        <v>27</v>
+      </c>
+      <c r="E541">
+        <v>0.5</v>
+      </c>
+      <c r="F541" t="s">
+        <v>116</v>
+      </c>
+      <c r="G541" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A542" t="s">
+        <v>114</v>
+      </c>
+      <c r="B542">
+        <v>2</v>
+      </c>
+      <c r="C542" t="s">
+        <v>45</v>
+      </c>
+      <c r="D542" t="s">
+        <v>46</v>
+      </c>
+      <c r="E542">
+        <v>0.5</v>
+      </c>
+      <c r="F542" t="s">
+        <v>116</v>
+      </c>
+      <c r="G542" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A543" t="s">
+        <v>114</v>
+      </c>
+      <c r="B543">
+        <v>2</v>
+      </c>
+      <c r="C543" t="s">
+        <v>108</v>
+      </c>
+      <c r="D543" t="s">
+        <v>119</v>
+      </c>
+      <c r="E543">
+        <v>20</v>
+      </c>
+      <c r="F543" t="s">
+        <v>70</v>
+      </c>
+      <c r="G543" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A544" t="s">
+        <v>114</v>
+      </c>
+      <c r="B544">
+        <v>2</v>
+      </c>
+      <c r="C544" t="s">
+        <v>24</v>
+      </c>
+      <c r="D544" t="s">
+        <v>25</v>
+      </c>
+      <c r="E544">
+        <v>0.5</v>
+      </c>
+      <c r="F544" t="s">
+        <v>116</v>
+      </c>
+      <c r="G544" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A545" t="s">
+        <v>114</v>
+      </c>
+      <c r="B545">
+        <v>2</v>
+      </c>
+      <c r="C545" t="s">
+        <v>112</v>
+      </c>
+      <c r="D545" t="s">
+        <v>120</v>
+      </c>
+      <c r="E545">
+        <v>2</v>
+      </c>
+      <c r="F545" t="s">
+        <v>15</v>
+      </c>
+      <c r="G545" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G546" s="2"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G547" s="2"/>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G548" s="2"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G549" s="2"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G550" s="2"/>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G551" s="2"/>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G552" s="2"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G553" s="2"/>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G554" s="2"/>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G555" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -13371,10 +13999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="F499" sqref="F499"/>
+    <sheetView topLeftCell="A510" workbookViewId="0">
+      <selection activeCell="D499" sqref="D499:D534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -20355,6 +20983,510 @@
         <v>45900</v>
       </c>
     </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A499" t="s">
+        <v>101</v>
+      </c>
+      <c r="B499">
+        <v>1</v>
+      </c>
+      <c r="C499" t="s">
+        <v>15</v>
+      </c>
+      <c r="D499" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A500" t="s">
+        <v>102</v>
+      </c>
+      <c r="B500">
+        <v>18</v>
+      </c>
+      <c r="C500" t="s">
+        <v>15</v>
+      </c>
+      <c r="D500" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A501" t="s">
+        <v>103</v>
+      </c>
+      <c r="B501">
+        <v>0.5</v>
+      </c>
+      <c r="C501" t="s">
+        <v>15</v>
+      </c>
+      <c r="D501" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A502" t="s">
+        <v>133</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502" t="s">
+        <v>15</v>
+      </c>
+      <c r="D502" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A503" t="s">
+        <v>94</v>
+      </c>
+      <c r="B503">
+        <v>1</v>
+      </c>
+      <c r="C503" t="s">
+        <v>15</v>
+      </c>
+      <c r="D503" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A504" t="s">
+        <v>11</v>
+      </c>
+      <c r="B504">
+        <v>2600</v>
+      </c>
+      <c r="C504" t="s">
+        <v>10</v>
+      </c>
+      <c r="D504" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A505" t="s">
+        <v>95</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505" t="s">
+        <v>15</v>
+      </c>
+      <c r="D505" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A506" t="s">
+        <v>43</v>
+      </c>
+      <c r="B506">
+        <v>1350</v>
+      </c>
+      <c r="C506" t="s">
+        <v>10</v>
+      </c>
+      <c r="D506" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A507" t="s">
+        <v>53</v>
+      </c>
+      <c r="B507">
+        <v>36</v>
+      </c>
+      <c r="C507" t="s">
+        <v>15</v>
+      </c>
+      <c r="D507" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A508" t="s">
+        <v>178</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508" t="s">
+        <v>15</v>
+      </c>
+      <c r="D508" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A509" t="s">
+        <v>47</v>
+      </c>
+      <c r="B509">
+        <v>50</v>
+      </c>
+      <c r="C509" t="s">
+        <v>10</v>
+      </c>
+      <c r="D509" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A510" t="s">
+        <v>18</v>
+      </c>
+      <c r="B510">
+        <v>13</v>
+      </c>
+      <c r="C510" t="s">
+        <v>15</v>
+      </c>
+      <c r="D510" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A511" t="s">
+        <v>13</v>
+      </c>
+      <c r="B511">
+        <v>13</v>
+      </c>
+      <c r="C511" t="s">
+        <v>15</v>
+      </c>
+      <c r="D511" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A512" t="s">
+        <v>30</v>
+      </c>
+      <c r="B512">
+        <v>7</v>
+      </c>
+      <c r="C512" t="s">
+        <v>10</v>
+      </c>
+      <c r="D512" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A513" t="s">
+        <v>45</v>
+      </c>
+      <c r="B513">
+        <v>0.5</v>
+      </c>
+      <c r="C513" t="s">
+        <v>15</v>
+      </c>
+      <c r="D513" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A514" t="s">
+        <v>55</v>
+      </c>
+      <c r="B514">
+        <v>4</v>
+      </c>
+      <c r="C514" t="s">
+        <v>15</v>
+      </c>
+      <c r="D514" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A515" t="s">
+        <v>22</v>
+      </c>
+      <c r="B515">
+        <v>286</v>
+      </c>
+      <c r="C515" t="s">
+        <v>10</v>
+      </c>
+      <c r="D515" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A516" t="s">
+        <v>134</v>
+      </c>
+      <c r="B516">
+        <v>24</v>
+      </c>
+      <c r="C516" t="s">
+        <v>10</v>
+      </c>
+      <c r="D516" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A517" t="s">
+        <v>64</v>
+      </c>
+      <c r="B517">
+        <v>400</v>
+      </c>
+      <c r="C517" t="s">
+        <v>10</v>
+      </c>
+      <c r="D517" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A518" t="s">
+        <v>16</v>
+      </c>
+      <c r="B518">
+        <v>780</v>
+      </c>
+      <c r="C518" t="s">
+        <v>10</v>
+      </c>
+      <c r="D518" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A519" t="s">
+        <v>26</v>
+      </c>
+      <c r="B519">
+        <v>0.5</v>
+      </c>
+      <c r="C519" t="s">
+        <v>15</v>
+      </c>
+      <c r="D519" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A520" t="s">
+        <v>108</v>
+      </c>
+      <c r="B520">
+        <v>20</v>
+      </c>
+      <c r="C520" t="s">
+        <v>10</v>
+      </c>
+      <c r="D520" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A521" t="s">
+        <v>24</v>
+      </c>
+      <c r="B521">
+        <v>0.5</v>
+      </c>
+      <c r="C521" t="s">
+        <v>15</v>
+      </c>
+      <c r="D521" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A522" t="s">
+        <v>68</v>
+      </c>
+      <c r="B522">
+        <v>470</v>
+      </c>
+      <c r="C522" t="s">
+        <v>10</v>
+      </c>
+      <c r="D522" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A523" t="s">
+        <v>96</v>
+      </c>
+      <c r="B523">
+        <v>4</v>
+      </c>
+      <c r="C523" t="s">
+        <v>15</v>
+      </c>
+      <c r="D523" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A524" t="s">
+        <v>109</v>
+      </c>
+      <c r="B524">
+        <v>4</v>
+      </c>
+      <c r="C524" t="s">
+        <v>15</v>
+      </c>
+      <c r="D524" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A525" t="s">
+        <v>20</v>
+      </c>
+      <c r="B525">
+        <v>299</v>
+      </c>
+      <c r="C525" t="s">
+        <v>10</v>
+      </c>
+      <c r="D525" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A526" t="s">
+        <v>90</v>
+      </c>
+      <c r="B526">
+        <v>600</v>
+      </c>
+      <c r="C526" t="s">
+        <v>10</v>
+      </c>
+      <c r="D526" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A527" t="s">
+        <v>92</v>
+      </c>
+      <c r="B527">
+        <v>960</v>
+      </c>
+      <c r="C527" t="s">
+        <v>10</v>
+      </c>
+      <c r="D527" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A528" t="s">
+        <v>110</v>
+      </c>
+      <c r="B528">
+        <v>100</v>
+      </c>
+      <c r="C528" t="s">
+        <v>10</v>
+      </c>
+      <c r="D528" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A529" t="s">
+        <v>135</v>
+      </c>
+      <c r="B529">
+        <v>150</v>
+      </c>
+      <c r="C529" t="s">
+        <v>10</v>
+      </c>
+      <c r="D529" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A530" t="s">
+        <v>8</v>
+      </c>
+      <c r="B530">
+        <v>2275</v>
+      </c>
+      <c r="C530" t="s">
+        <v>10</v>
+      </c>
+      <c r="D530" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A531" t="s">
+        <v>32</v>
+      </c>
+      <c r="B531">
+        <v>2</v>
+      </c>
+      <c r="C531" t="s">
+        <v>15</v>
+      </c>
+      <c r="D531" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A532" t="s">
+        <v>97</v>
+      </c>
+      <c r="B532">
+        <v>2</v>
+      </c>
+      <c r="C532" t="s">
+        <v>15</v>
+      </c>
+      <c r="D532" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A533" t="s">
+        <v>112</v>
+      </c>
+      <c r="B533">
+        <v>2</v>
+      </c>
+      <c r="C533" t="s">
+        <v>15</v>
+      </c>
+      <c r="D533" s="2">
+        <v>45912</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A534" t="s">
+        <v>98</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534" t="s">
+        <v>15</v>
+      </c>
+      <c r="D534" s="2">
+        <v>45912</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel_files/Log/Grocery_List_Log.xlsx
+++ b/Excel_files/Log/Grocery_List_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elskn\Projects\Grocery_list\Excel_files\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE816CC-EBFC-445A-9951-20C5BF2DF576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD4F92-AF9F-4DB7-B5EC-4AAF7C4D841A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="366" yWindow="366" windowWidth="10692" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log Per Recipe" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="188">
   <si>
     <t>Recipe</t>
   </si>
@@ -658,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -666,6 +666,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1407,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G555"/>
+  <dimension ref="A1:G588"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="E553" sqref="E553"/>
+    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="G590" sqref="G590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13955,34 +13957,993 @@
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G546" s="2"/>
+      <c r="A546" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B546" s="6">
+        <v>4</v>
+      </c>
+      <c r="C546" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D546" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E546" s="6">
+        <v>240</v>
+      </c>
+      <c r="F546" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G546" s="2">
+        <v>45918</v>
+      </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G547" s="2"/>
+      <c r="A547" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B547" s="6">
+        <v>4</v>
+      </c>
+      <c r="C547" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D547" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E547" s="6">
+        <v>256</v>
+      </c>
+      <c r="F547" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G547" s="2">
+        <v>45918</v>
+      </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G548" s="2"/>
+      <c r="A548" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B548" s="6">
+        <v>4</v>
+      </c>
+      <c r="C548" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D548" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E548" s="6">
+        <v>1</v>
+      </c>
+      <c r="F548" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G548" s="2">
+        <v>45918</v>
+      </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G549" s="2"/>
+      <c r="A549" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B549" s="6">
+        <v>4</v>
+      </c>
+      <c r="C549" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D549" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E549" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="F549" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G549" s="2">
+        <v>45918</v>
+      </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G550" s="2"/>
+      <c r="A550" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B550" s="6">
+        <v>4</v>
+      </c>
+      <c r="C550" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D550" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E550" s="6">
+        <v>1</v>
+      </c>
+      <c r="F550" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G550" s="2">
+        <v>45918</v>
+      </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G551" s="2"/>
+      <c r="A551" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B551" s="6">
+        <v>4</v>
+      </c>
+      <c r="C551" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D551" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E551" s="6">
+        <v>2</v>
+      </c>
+      <c r="F551" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G551" s="2">
+        <v>45918</v>
+      </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G552" s="2"/>
+      <c r="A552" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B552" s="6">
+        <v>4</v>
+      </c>
+      <c r="C552" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D552" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E552" s="6">
+        <v>200</v>
+      </c>
+      <c r="F552" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" s="2">
+        <v>45918</v>
+      </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G553" s="2"/>
+      <c r="A553" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B553" s="6">
+        <v>4</v>
+      </c>
+      <c r="C553" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D553" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E553" s="6">
+        <v>40</v>
+      </c>
+      <c r="F553" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G553" s="2">
+        <v>45918</v>
+      </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G554" s="2"/>
+      <c r="A554" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B554" s="6">
+        <v>4</v>
+      </c>
+      <c r="C554" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D554" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E554" s="6">
+        <v>50</v>
+      </c>
+      <c r="F554" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G554" s="2">
+        <v>45918</v>
+      </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G555" s="2"/>
+      <c r="A555" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B555" s="6">
+        <v>4</v>
+      </c>
+      <c r="C555" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D555" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E555" s="6">
+        <v>50</v>
+      </c>
+      <c r="F555" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G555" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A556" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B556" s="6">
+        <v>4</v>
+      </c>
+      <c r="C556" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D556" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E556" s="6">
+        <v>8</v>
+      </c>
+      <c r="F556" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G556" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A557" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B557" s="6">
+        <v>4</v>
+      </c>
+      <c r="C557" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D557" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E557" s="6">
+        <v>120</v>
+      </c>
+      <c r="F557" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G557" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A558" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B558" s="6">
+        <v>2</v>
+      </c>
+      <c r="C558" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D558" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E558" s="6">
+        <v>128</v>
+      </c>
+      <c r="F558" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G558" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A559" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B559" s="6">
+        <v>2</v>
+      </c>
+      <c r="C559" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D559" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E559" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F559" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G559" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A560" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B560" s="6">
+        <v>2</v>
+      </c>
+      <c r="C560" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D560" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E560" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="F560" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G560" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A561" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B561" s="6">
+        <v>2</v>
+      </c>
+      <c r="C561" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D561" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E561" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F561" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G561" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A562" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B562" s="6">
+        <v>2</v>
+      </c>
+      <c r="C562" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D562" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E562" s="6">
+        <v>1</v>
+      </c>
+      <c r="F562" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G562" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A563" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B563" s="6">
+        <v>2</v>
+      </c>
+      <c r="C563" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D563" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E563" s="6">
+        <v>100</v>
+      </c>
+      <c r="F563" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G563" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A564" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B564" s="6">
+        <v>2</v>
+      </c>
+      <c r="C564" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D564" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E564" s="6">
+        <v>20</v>
+      </c>
+      <c r="F564" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G564" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A565" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B565" s="6">
+        <v>2</v>
+      </c>
+      <c r="C565" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D565" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E565" s="6">
+        <v>25</v>
+      </c>
+      <c r="F565" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G565" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A566" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B566" s="6">
+        <v>2</v>
+      </c>
+      <c r="C566" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D566" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E566" s="6">
+        <v>120</v>
+      </c>
+      <c r="F566" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G566" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A567" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B567" s="6">
+        <v>2</v>
+      </c>
+      <c r="C567" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D567" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E567" s="6">
+        <v>25</v>
+      </c>
+      <c r="F567" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G567" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A568" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B568" s="6">
+        <v>6</v>
+      </c>
+      <c r="C568" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D568" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E568" s="6">
+        <v>384</v>
+      </c>
+      <c r="F568" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G568" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A569" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B569" s="6">
+        <v>6</v>
+      </c>
+      <c r="C569" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D569" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E569" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F569" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G569" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A570" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B570" s="6">
+        <v>6</v>
+      </c>
+      <c r="C570" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D570" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E570" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="F570" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G570" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A571" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B571" s="6">
+        <v>6</v>
+      </c>
+      <c r="C571" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D571" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E571" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F571" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G571" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A572" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B572" s="6">
+        <v>6</v>
+      </c>
+      <c r="C572" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D572" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E572" s="6">
+        <v>3</v>
+      </c>
+      <c r="F572" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G572" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A573" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B573" s="6">
+        <v>6</v>
+      </c>
+      <c r="C573" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D573" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E573" s="6">
+        <v>300</v>
+      </c>
+      <c r="F573" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G573" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A574" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B574" s="6">
+        <v>6</v>
+      </c>
+      <c r="C574" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D574" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E574" s="6">
+        <v>60</v>
+      </c>
+      <c r="F574" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G574" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A575" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B575" s="6">
+        <v>6</v>
+      </c>
+      <c r="C575" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D575" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E575" s="6">
+        <v>75</v>
+      </c>
+      <c r="F575" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G575" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A576" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B576" s="6">
+        <v>6</v>
+      </c>
+      <c r="C576" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D576" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E576" s="6">
+        <v>75</v>
+      </c>
+      <c r="F576" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G576" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A577" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B577" s="6">
+        <v>6</v>
+      </c>
+      <c r="C577" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D577" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E577" s="6">
+        <v>360</v>
+      </c>
+      <c r="F577" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G577" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A578" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B578" s="6">
+        <v>6</v>
+      </c>
+      <c r="C578" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D578" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E578" s="6">
+        <v>600</v>
+      </c>
+      <c r="F578" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G578" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A579" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B579" s="6">
+        <v>6</v>
+      </c>
+      <c r="C579" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D579" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E579" s="6">
+        <v>600</v>
+      </c>
+      <c r="F579" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G579" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A580" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B580" s="6">
+        <v>6</v>
+      </c>
+      <c r="C580" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D580" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E580" s="6">
+        <v>960</v>
+      </c>
+      <c r="F580" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G580" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A581" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B581" s="6">
+        <v>6</v>
+      </c>
+      <c r="C581" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D581" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E581" s="6">
+        <v>300</v>
+      </c>
+      <c r="F581" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G581" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A582" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B582" s="6">
+        <v>6</v>
+      </c>
+      <c r="C582" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D582" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E582" s="6">
+        <v>270</v>
+      </c>
+      <c r="F582" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G582" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A583" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B583" s="6">
+        <v>4</v>
+      </c>
+      <c r="C583" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D583" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E583" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F583" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G583" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A584" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B584" s="6">
+        <v>4</v>
+      </c>
+      <c r="C584" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D584" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E584" s="6">
+        <v>400</v>
+      </c>
+      <c r="F584" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G584" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A585" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B585" s="6">
+        <v>4</v>
+      </c>
+      <c r="C585" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D585" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E585" s="6">
+        <v>400</v>
+      </c>
+      <c r="F585" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G585" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A586" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B586" s="6">
+        <v>4</v>
+      </c>
+      <c r="C586" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D586" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E586" s="6">
+        <v>200</v>
+      </c>
+      <c r="F586" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G586" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A587" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B587" s="6">
+        <v>4</v>
+      </c>
+      <c r="C587" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D587" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E587" s="6">
+        <v>16</v>
+      </c>
+      <c r="F587" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G587" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A588" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B588" s="6">
+        <v>4</v>
+      </c>
+      <c r="C588" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D588" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E588" s="6">
+        <v>8</v>
+      </c>
+      <c r="F588" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G588" s="2">
+        <v>45918</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -13999,10 +14960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D534"/>
+  <dimension ref="A1:D567"/>
   <sheetViews>
-    <sheetView topLeftCell="A510" workbookViewId="0">
-      <selection activeCell="D499" sqref="D499:D534"/>
+    <sheetView topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="D535" sqref="D535:D567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21487,6 +22448,468 @@
         <v>45912</v>
       </c>
     </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A535" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B535" s="5">
+        <v>1</v>
+      </c>
+      <c r="C535" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D535" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A536" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B536" s="5">
+        <v>16</v>
+      </c>
+      <c r="C536" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D536" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A537" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B537" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="C537" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D537" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A538" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B538" s="5">
+        <v>1</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D538" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A539" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B539" s="5">
+        <v>200</v>
+      </c>
+      <c r="C539" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D539" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A540" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B540" s="5">
+        <v>768</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D540" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A541" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B541" s="5">
+        <v>3</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D541" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A542" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B542" s="5">
+        <v>1</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D542" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A543" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B543" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C543" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D543" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A544" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B544" s="5">
+        <v>40</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D544" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A545" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B545" s="5">
+        <v>400</v>
+      </c>
+      <c r="C545" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D545" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A546" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B546" s="5">
+        <v>1</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D546" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A547" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B547" s="5">
+        <v>8</v>
+      </c>
+      <c r="C547" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D547" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A548" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B548" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C548" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D548" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A549" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B549" s="5">
+        <v>150</v>
+      </c>
+      <c r="C549" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D549" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A550" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B550" s="5">
+        <v>16</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D550" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A551" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B551" s="5">
+        <v>120</v>
+      </c>
+      <c r="C551" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D551" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A552" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B552" s="5">
+        <v>120</v>
+      </c>
+      <c r="C552" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D552" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A553" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B553" s="5">
+        <v>4</v>
+      </c>
+      <c r="C553" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D553" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A554" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B554" s="5">
+        <v>300</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D554" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A555" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B555" s="5">
+        <v>1</v>
+      </c>
+      <c r="C555" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D555" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A556" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B556" s="5">
+        <v>720</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D556" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A557" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B557" s="5">
+        <v>3</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D557" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A558" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B558" s="5">
+        <v>400</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D558" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A559" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B559" s="5">
+        <v>270</v>
+      </c>
+      <c r="C559" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D559" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A560" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B560" s="5">
+        <v>4</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D560" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A561" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B561" s="5">
+        <v>4</v>
+      </c>
+      <c r="C561" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D561" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A562" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B562" s="5">
+        <v>150</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D562" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A563" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B563" s="5">
+        <v>600</v>
+      </c>
+      <c r="C563" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D563" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A564" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B564" s="5">
+        <v>960</v>
+      </c>
+      <c r="C564" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D564" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A565" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B565" s="5">
+        <v>600</v>
+      </c>
+      <c r="C565" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D565" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A566" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B566" s="5">
+        <v>2</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D566" s="2">
+        <v>45918</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A567" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B567" s="5">
+        <v>6</v>
+      </c>
+      <c r="C567" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D567" s="2">
+        <v>45918</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
